--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_2.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32530-d11914822-Reviews-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>165</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-AC-Hotel-Irvine.h17171514.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_2.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="792">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,2332 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/27/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r589605314-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>32530</t>
+  </si>
+  <si>
+    <t>11914822</t>
+  </si>
+  <si>
+    <t>589605314</t>
+  </si>
+  <si>
+    <t>06/21/2018</t>
+  </si>
+  <si>
+    <t>Dorm Rooms by IKEA</t>
+  </si>
+  <si>
+    <t>The rooms really only work for the solo traveler as the king beds are narrower than a true king and the bathroom is partitioned behind a a glass slider. The furniture and bare floors give off an IKEA vibe and the tiny room stocked with towels that looked donated by the local Y reminded me of some of the dorm rooms we were shown touring the college campuses. The most painful was paying the $404 for a single night's stay (including the $20 fee for off-site, self-parking). And, no - breakfast was NOT included. Ouch, ouch. Finally, the Marriott website indicates attributes that - as it turns out - the AC Hotel Irvine does not have. On it, I booked a rollaway and opted for extra pillows on the pulldown menu. Do not make this mistake - these requests just end up floating around in Marriott cyberspace or were gobbled up by a black hole. On a more positive note, the hotel does have some appealing public seating in the lobby and by the pool. There are several chain restaurants within an easy walk.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Paul M, General Manager at AC Hotel by Marriott Irvine, responded to this reviewResponded 2 days ago</t>
+  </si>
+  <si>
+    <t>Responded 2 days ago</t>
+  </si>
+  <si>
+    <t>The rooms really only work for the solo traveler as the king beds are narrower than a true king and the bathroom is partitioned behind a a glass slider. The furniture and bare floors give off an IKEA vibe and the tiny room stocked with towels that looked donated by the local Y reminded me of some of the dorm rooms we were shown touring the college campuses. The most painful was paying the $404 for a single night's stay (including the $20 fee for off-site, self-parking). And, no - breakfast was NOT included. Ouch, ouch. Finally, the Marriott website indicates attributes that - as it turns out - the AC Hotel Irvine does not have. On it, I booked a rollaway and opted for extra pillows on the pulldown menu. Do not make this mistake - these requests just end up floating around in Marriott cyberspace or were gobbled up by a black hole. On a more positive note, the hotel does have some appealing public seating in the lobby and by the pool. There are several chain restaurants within an easy walk.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r588205518-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>588205518</t>
+  </si>
+  <si>
+    <t>06/17/2018</t>
+  </si>
+  <si>
+    <t>The AC Hotel by Marriott is a fun place to stay</t>
+  </si>
+  <si>
+    <t>We were in Irvine for a seminar, spent two nights in the AC Hotel and thoroughly enjoyed our experience.  I am somewhere between amused to dumbfounded by a few of the negative comments I’ve read in prior reviews (energy-saving key cards, and breakfast). The theme is European, and the AC rooms are about the size you’d expect in Europe.  Our room was well apportioned, immaculate, and quiet.  Granted, I don’t know if there were occupants next door, but our room was quiet for the duration of our stay.  The facility is neat, clean, modern appearing and the lobby and bar are both bright and welcoming.  The hotel is within easy walking distance of numerous restaurants and stores; we enjoyed parking our car and walking the neighborhood because the traffic on the nearby 405 freeway is legendarily heavy.
+We had their “European” themed breakfast and on both occasions, we sampled the buffet treats (meats, cheese, yogurt, fruit, etc.) and ordered a hot dish.  Their onsite bar was a very pleasant surprise.  It’s comfortable and the drinks are very good.  A surprising aspect is that the bar has a neighborhood feel because the hotel is situated among nearby condominiums and as such, locals visit.
+The AC Hotel is a very nice and modern facility but what sets it apart are the people who work there.  Every one of the hotel staff were friendly and attentive to making our stay exceptional.  When we...We were in Irvine for a seminar, spent two nights in the AC Hotel and thoroughly enjoyed our experience.  I am somewhere between amused to dumbfounded by a few of the negative comments I’ve read in prior reviews (energy-saving key cards, and breakfast). The theme is European, and the AC rooms are about the size you’d expect in Europe.  Our room was well apportioned, immaculate, and quiet.  Granted, I don’t know if there were occupants next door, but our room was quiet for the duration of our stay.  The facility is neat, clean, modern appearing and the lobby and bar are both bright and welcoming.  The hotel is within easy walking distance of numerous restaurants and stores; we enjoyed parking our car and walking the neighborhood because the traffic on the nearby 405 freeway is legendarily heavy.We had their “European” themed breakfast and on both occasions, we sampled the buffet treats (meats, cheese, yogurt, fruit, etc.) and ordered a hot dish.  Their onsite bar was a very pleasant surprise.  It’s comfortable and the drinks are very good.  A surprising aspect is that the bar has a neighborhood feel because the hotel is situated among nearby condominiums and as such, locals visit.The AC Hotel is a very nice and modern facility but what sets it apart are the people who work there.  Every one of the hotel staff were friendly and attentive to making our stay exceptional.  When we arrived, we were greeted at check-in by Houman and he quickly assigned our room and gave amazingly accurate directions and advice about the neighborhood.  We were not in the mood for Mexican food, so he recommended the nearby North Italia restaurant.  We went to the restaurant, sat at their bar for dinner and the bartender there commented that their crew go to the AC bar for drinks.  Houman and the rest of the crew were just great and really made the two day visit memorable.The crew is great, the bar has a neighborhood feel, and the location was for us, perfect.We recommend the AC and will stay there on our next visit to Irvine.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Paul M, General Manager at AC Hotel by Marriott Irvine, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>We were in Irvine for a seminar, spent two nights in the AC Hotel and thoroughly enjoyed our experience.  I am somewhere between amused to dumbfounded by a few of the negative comments I’ve read in prior reviews (energy-saving key cards, and breakfast). The theme is European, and the AC rooms are about the size you’d expect in Europe.  Our room was well apportioned, immaculate, and quiet.  Granted, I don’t know if there were occupants next door, but our room was quiet for the duration of our stay.  The facility is neat, clean, modern appearing and the lobby and bar are both bright and welcoming.  The hotel is within easy walking distance of numerous restaurants and stores; we enjoyed parking our car and walking the neighborhood because the traffic on the nearby 405 freeway is legendarily heavy.
+We had their “European” themed breakfast and on both occasions, we sampled the buffet treats (meats, cheese, yogurt, fruit, etc.) and ordered a hot dish.  Their onsite bar was a very pleasant surprise.  It’s comfortable and the drinks are very good.  A surprising aspect is that the bar has a neighborhood feel because the hotel is situated among nearby condominiums and as such, locals visit.
+The AC Hotel is a very nice and modern facility but what sets it apart are the people who work there.  Every one of the hotel staff were friendly and attentive to making our stay exceptional.  When we...We were in Irvine for a seminar, spent two nights in the AC Hotel and thoroughly enjoyed our experience.  I am somewhere between amused to dumbfounded by a few of the negative comments I’ve read in prior reviews (energy-saving key cards, and breakfast). The theme is European, and the AC rooms are about the size you’d expect in Europe.  Our room was well apportioned, immaculate, and quiet.  Granted, I don’t know if there were occupants next door, but our room was quiet for the duration of our stay.  The facility is neat, clean, modern appearing and the lobby and bar are both bright and welcoming.  The hotel is within easy walking distance of numerous restaurants and stores; we enjoyed parking our car and walking the neighborhood because the traffic on the nearby 405 freeway is legendarily heavy.We had their “European” themed breakfast and on both occasions, we sampled the buffet treats (meats, cheese, yogurt, fruit, etc.) and ordered a hot dish.  Their onsite bar was a very pleasant surprise.  It’s comfortable and the drinks are very good.  A surprising aspect is that the bar has a neighborhood feel because the hotel is situated among nearby condominiums and as such, locals visit.The AC Hotel is a very nice and modern facility but what sets it apart are the people who work there.  Every one of the hotel staff were friendly and attentive to making our stay exceptional.  When we arrived, we were greeted at check-in by Houman and he quickly assigned our room and gave amazingly accurate directions and advice about the neighborhood.  We were not in the mood for Mexican food, so he recommended the nearby North Italia restaurant.  We went to the restaurant, sat at their bar for dinner and the bartender there commented that their crew go to the AC bar for drinks.  Houman and the rest of the crew were just great and really made the two day visit memorable.The crew is great, the bar has a neighborhood feel, and the location was for us, perfect.We recommend the AC and will stay there on our next visit to Irvine.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r587715946-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>587715946</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>Meh...</t>
+  </si>
+  <si>
+    <t>Picked this hotel because it had windows (in the "City View" rooms) that open, so we stayed in one of these corner rooms.Check in was done at break neck speed by person at the desk; had to ask him three times to repeat himself, and neither my husband or I are even slightly hard of hearing. We did not hear him mention (if he did ) the energy-saving card key slot for the room, spent 10 minutes trying to figure out the lights! The room was very small, modern and clean (should be, it's new!) which was OK, but lighting was poor; lights around the sink area did not illuminate enough for shaving or makeup! Shower was a cheap-feeling stall. Walls were quite thin; heard more than we wanted to at about 1am from one of the rooms. Parking was a hassle and $20.00/day; at check out the same person at the desk we had at check-in failed to mention that we needed to have a validation stamp on our parking stub, or get charged another day; husband had to run back from the garage to the hotel to get it stamped. No apology was offered, which I think would have made a difference to us. Only positive thing I can say was that the beds were very comfortable. Interesting to note, the hotel did not send me an email asking for feedback on our stay, which Marriotts usually does...maybe...Picked this hotel because it had windows (in the "City View" rooms) that open, so we stayed in one of these corner rooms.Check in was done at break neck speed by person at the desk; had to ask him three times to repeat himself, and neither my husband or I are even slightly hard of hearing. We did not hear him mention (if he did ) the energy-saving card key slot for the room, spent 10 minutes trying to figure out the lights! The room was very small, modern and clean (should be, it's new!) which was OK, but lighting was poor; lights around the sink area did not illuminate enough for shaving or makeup! Shower was a cheap-feeling stall. Walls were quite thin; heard more than we wanted to at about 1am from one of the rooms. Parking was a hassle and $20.00/day; at check out the same person at the desk we had at check-in failed to mention that we needed to have a validation stamp on our parking stub, or get charged another day; husband had to run back from the garage to the hotel to get it stamped. No apology was offered, which I think would have made a difference to us. Only positive thing I can say was that the beds were very comfortable. Interesting to note, the hotel did not send me an email asking for feedback on our stay, which Marriotts usually does...maybe they knew what the answer would be? I am a fan of the Marriott chain and its affiliates, but will not bother with this hotel again. There are lots of others, with friendlier service, to choose from...MoreShow less</t>
+  </si>
+  <si>
+    <t>Picked this hotel because it had windows (in the "City View" rooms) that open, so we stayed in one of these corner rooms.Check in was done at break neck speed by person at the desk; had to ask him three times to repeat himself, and neither my husband or I are even slightly hard of hearing. We did not hear him mention (if he did ) the energy-saving card key slot for the room, spent 10 minutes trying to figure out the lights! The room was very small, modern and clean (should be, it's new!) which was OK, but lighting was poor; lights around the sink area did not illuminate enough for shaving or makeup! Shower was a cheap-feeling stall. Walls were quite thin; heard more than we wanted to at about 1am from one of the rooms. Parking was a hassle and $20.00/day; at check out the same person at the desk we had at check-in failed to mention that we needed to have a validation stamp on our parking stub, or get charged another day; husband had to run back from the garage to the hotel to get it stamped. No apology was offered, which I think would have made a difference to us. Only positive thing I can say was that the beds were very comfortable. Interesting to note, the hotel did not send me an email asking for feedback on our stay, which Marriotts usually does...maybe...Picked this hotel because it had windows (in the "City View" rooms) that open, so we stayed in one of these corner rooms.Check in was done at break neck speed by person at the desk; had to ask him three times to repeat himself, and neither my husband or I are even slightly hard of hearing. We did not hear him mention (if he did ) the energy-saving card key slot for the room, spent 10 minutes trying to figure out the lights! The room was very small, modern and clean (should be, it's new!) which was OK, but lighting was poor; lights around the sink area did not illuminate enough for shaving or makeup! Shower was a cheap-feeling stall. Walls were quite thin; heard more than we wanted to at about 1am from one of the rooms. Parking was a hassle and $20.00/day; at check out the same person at the desk we had at check-in failed to mention that we needed to have a validation stamp on our parking stub, or get charged another day; husband had to run back from the garage to the hotel to get it stamped. No apology was offered, which I think would have made a difference to us. Only positive thing I can say was that the beds were very comfortable. Interesting to note, the hotel did not send me an email asking for feedback on our stay, which Marriotts usually does...maybe they knew what the answer would be? I am a fan of the Marriott chain and its affiliates, but will not bother with this hotel again. There are lots of others, with friendlier service, to choose from...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r586326661-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>586326661</t>
+  </si>
+  <si>
+    <t>06/10/2018</t>
+  </si>
+  <si>
+    <t>Customer Service at its finest</t>
+  </si>
+  <si>
+    <t>So I came to Irvine this weekend on a business trip and I brought along my GF who is an extremely heavy sleeper. One night during my stay, my GF accidentally dead-bolted our hotel room door after a long night of work for me. After trying a few keys, Jericho brought up a master to try and reverse the deadbolt so I could get some sleep. After that failed, I told him I was going to go sleep in my car as it was the only option, Jericho then told me that "sleeping in my car wasn't an option" and made me stay in the vacant room across the hall. Considering I had to work another 12 hours the next day, this was super generous and helpful.  I am so glad I got a good sleep in a bed instead of my car cause that next day was extremely rough. Jericho showed some real CS and made me a Marriott fan for life.Other than the great CS, this hotel is dope. It's right next to a popping little part of town and super close to beach cities and other Southern California attractions.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Paul M, General Manager at AC Hotel by Marriott Irvine, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>So I came to Irvine this weekend on a business trip and I brought along my GF who is an extremely heavy sleeper. One night during my stay, my GF accidentally dead-bolted our hotel room door after a long night of work for me. After trying a few keys, Jericho brought up a master to try and reverse the deadbolt so I could get some sleep. After that failed, I told him I was going to go sleep in my car as it was the only option, Jericho then told me that "sleeping in my car wasn't an option" and made me stay in the vacant room across the hall. Considering I had to work another 12 hours the next day, this was super generous and helpful.  I am so glad I got a good sleep in a bed instead of my car cause that next day was extremely rough. Jericho showed some real CS and made me a Marriott fan for life.Other than the great CS, this hotel is dope. It's right next to a popping little part of town and super close to beach cities and other Southern California attractions.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r586124755-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>586124755</t>
+  </si>
+  <si>
+    <t>06/09/2018</t>
+  </si>
+  <si>
+    <t>keep it simple</t>
+  </si>
+  <si>
+    <t>This hotel is a tech's world to all things environmentally and ergo centered. That's fine, but the basics like flushing the toilet were issues as well as annoying key lights for on/off. Took some asking to figure things out.  Just give me the basics instead of need this to do that...blah, blah, blah. oval soaps not practical, insufficient toiletries, and no back chairs. Couldn't wait to get back to a basic hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>This hotel is a tech's world to all things environmentally and ergo centered. That's fine, but the basics like flushing the toilet were issues as well as annoying key lights for on/off. Took some asking to figure things out.  Just give me the basics instead of need this to do that...blah, blah, blah. oval soaps not practical, insufficient toiletries, and no back chairs. Couldn't wait to get back to a basic hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r585213930-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>585213930</t>
+  </si>
+  <si>
+    <t>06/04/2018</t>
+  </si>
+  <si>
+    <t>What an Enjoyable and Pleasant Stay! Thank you AC Irvine!!</t>
+  </si>
+  <si>
+    <t>A big thank you to the staff at AC Irvine for making us feel welcomed and comfortable for our first stay at your location!!! I was treated with kindness and respect when I checked in for our weekend, and loved the ambiance of the hotel as well. When walking inside, or through the halls, the staff was always friendly and polite. The valet and front desk staff were wonderful as well,  and reliable! Our room was fresh and spotless, thanks to the amazing cleaning services! I will be coming back, thank you AC Irvine!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>A big thank you to the staff at AC Irvine for making us feel welcomed and comfortable for our first stay at your location!!! I was treated with kindness and respect when I checked in for our weekend, and loved the ambiance of the hotel as well. When walking inside, or through the halls, the staff was always friendly and polite. The valet and front desk staff were wonderful as well,  and reliable! Our room was fresh and spotless, thanks to the amazing cleaning services! I will be coming back, thank you AC Irvine!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r581820532-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>581820532</t>
+  </si>
+  <si>
+    <t>05/21/2018</t>
+  </si>
+  <si>
+    <t>Fantastic stay with excellent service!!!</t>
+  </si>
+  <si>
+    <t>We recently traveled to Orange County for the memorial service of a great friend. The AC Hotel was very affordable and very well staffed from the valet, to the front desk, to the room cleaning team led by Emsal who was an absolute pleasure when responding to our needs. We will definitely make a return visit in the future, hopefully under better circumstances.MoreShow less</t>
+  </si>
+  <si>
+    <t>Paul M, General Manager at AC Hotel by Marriott Irvine, responded to this reviewResponded May 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 22, 2018</t>
+  </si>
+  <si>
+    <t>We recently traveled to Orange County for the memorial service of a great friend. The AC Hotel was very affordable and very well staffed from the valet, to the front desk, to the room cleaning team led by Emsal who was an absolute pleasure when responding to our needs. We will definitely make a return visit in the future, hopefully under better circumstances.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r581294828-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>581294828</t>
+  </si>
+  <si>
+    <t>05/19/2018</t>
+  </si>
+  <si>
+    <t>European styling.</t>
+  </si>
+  <si>
+    <t>Very convenient within walking distance to stores, restaurants and Starbucks.   Very clean, nice staff and great location.  Minimal space for hanging clothes and storing clothing.Valet parking charge of $25 a day.  Breakfast buffet had a charge and the offering looked very unappetizing to us.  Instead we walked across the street to Mother's grocery and had a fabulous farm to table breakfast for less.   Beautiful lounge area and roof top pool.MoreShow less</t>
+  </si>
+  <si>
+    <t>Paul M, General Manager at AC Hotel by Marriott Irvine, responded to this reviewResponded May 21, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 21, 2018</t>
+  </si>
+  <si>
+    <t>Very convenient within walking distance to stores, restaurants and Starbucks.   Very clean, nice staff and great location.  Minimal space for hanging clothes and storing clothing.Valet parking charge of $25 a day.  Breakfast buffet had a charge and the offering looked very unappetizing to us.  Instead we walked across the street to Mother's grocery and had a fabulous farm to table breakfast for less.   Beautiful lounge area and roof top pool.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r580527951-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>580527951</t>
+  </si>
+  <si>
+    <t>05/15/2018</t>
+  </si>
+  <si>
+    <t>best service!</t>
+  </si>
+  <si>
+    <t>this is a great little hotel that will offer a restful stay, but more than anything i would return for their outstanding service, especially from houman at the front desk! he put in the extra time and effort to go above and beyond to ensure everything about my stay was perfect. everyone else at the hotel also seemed attentive and helpful, including those at the valet parking and the kitchen. rooms were probably on the smaller side but was clean and had everything i needed. hotel was conveniently located near a few good restaurant options.MoreShow less</t>
+  </si>
+  <si>
+    <t>Paul M, General Manager at AC Hotel by Marriott Irvine, responded to this reviewResponded May 17, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 17, 2018</t>
+  </si>
+  <si>
+    <t>this is a great little hotel that will offer a restful stay, but more than anything i would return for their outstanding service, especially from houman at the front desk! he put in the extra time and effort to go above and beyond to ensure everything about my stay was perfect. everyone else at the hotel also seemed attentive and helpful, including those at the valet parking and the kitchen. rooms were probably on the smaller side but was clean and had everything i needed. hotel was conveniently located near a few good restaurant options.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r578189838-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>578189838</t>
+  </si>
+  <si>
+    <t>05/05/2018</t>
+  </si>
+  <si>
+    <t>Great Service and Amazing Front Desk Team</t>
+  </si>
+  <si>
+    <t>I practically lived at this HOTEL every other week the months of March-May 6. My last business trip is coming to an end tomorrow. I've been away from my daughters for 22 days total this trip. During my many trips I got to know the front desk representatives very well. They were AMAZING, easy to talk too, and ALWAYS went ABOVE / BEYOND. Honestly there are way too many reason to list why I will ALWAYS stay at the AC Irvine when handling Business in the OC area. Knowing this is my last confirmed business/personal trip down here until August. Sarah and Houman went as far as writing me a personal letter and getting my 3.5 year old Daughter a Disney Princess Barbie. That was the COOLEST thing the Team could've ever done, THANKS! The whole hotel and surrounding area's are amazing. The hotel has a nice bar and some really good happy hour food, especially the meatballs with red sauce. There's all kinds of great food across from the hotel and a short drive around the corner. With the amount of time I was staying at the AC, I ate pretty much everywhere (Irvine/Santa Ana/Newport/Costa Mesa). My only advice is plan on making reservations pretty much everywhere, all nights of the week. With the amazing staff, I'm sure your stay will be just as good as mine. Thanks to the current AC Hotel Marriott Irvine Team :)MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>Paul M, General Manager at AC Hotel by Marriott Irvine, responded to this reviewResponded May 8, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 8, 2018</t>
+  </si>
+  <si>
+    <t>I practically lived at this HOTEL every other week the months of March-May 6. My last business trip is coming to an end tomorrow. I've been away from my daughters for 22 days total this trip. During my many trips I got to know the front desk representatives very well. They were AMAZING, easy to talk too, and ALWAYS went ABOVE / BEYOND. Honestly there are way too many reason to list why I will ALWAYS stay at the AC Irvine when handling Business in the OC area. Knowing this is my last confirmed business/personal trip down here until August. Sarah and Houman went as far as writing me a personal letter and getting my 3.5 year old Daughter a Disney Princess Barbie. That was the COOLEST thing the Team could've ever done, THANKS! The whole hotel and surrounding area's are amazing. The hotel has a nice bar and some really good happy hour food, especially the meatballs with red sauce. There's all kinds of great food across from the hotel and a short drive around the corner. With the amount of time I was staying at the AC, I ate pretty much everywhere (Irvine/Santa Ana/Newport/Costa Mesa). My only advice is plan on making reservations pretty much everywhere, all nights of the week. With the amazing staff, I'm sure your stay will be just as good as mine. Thanks to the current AC Hotel Marriott Irvine Team :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r577710824-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>577710824</t>
+  </si>
+  <si>
+    <t>05/03/2018</t>
+  </si>
+  <si>
+    <t>Perfect for a business trip</t>
+  </si>
+  <si>
+    <t>I stayed here for 3 days while in town for business, and it couldn't have been more ideal. The entire ground floor area is tables and large work stations spread out so there is room for everyone to work, hold small meetings, make critical phone calls and not ever encroach on anyone else's space. The staff are super helpful, the rooms are spotless, and the on-site snack shop had the best selection of choices that I've ever come across (organic, grass fed jerky anyone?) I will stay here every time I'm back!MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed here for 3 days while in town for business, and it couldn't have been more ideal. The entire ground floor area is tables and large work stations spread out so there is room for everyone to work, hold small meetings, make critical phone calls and not ever encroach on anyone else's space. The staff are super helpful, the rooms are spotless, and the on-site snack shop had the best selection of choices that I've ever come across (organic, grass fed jerky anyone?) I will stay here every time I'm back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r577525971-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>577525971</t>
+  </si>
+  <si>
+    <t>05/02/2018</t>
+  </si>
+  <si>
+    <t>Amazing Customer Service at front desk.  Love, love, love this hotel and style</t>
+  </si>
+  <si>
+    <t>We love everything about this hotel.  Style, cleanliness, workout area, pool etc.  Most of all we love how every employee is extremely friendly, helpful, caring, professional and always want to assist in any way possible.  This is the situation this evening with Jericho Nucum.  Extremely helpful and went above and beyond with a work problem I needed help with.      Really good customer service is hard to find anymore but we stay here at this hotel all the time and not once have we had bad service.  Jericho is a great example of this.  Thank you Marriott for having such great employees.MoreShow less</t>
+  </si>
+  <si>
+    <t>Paul M, General Manager at AC Hotel by Marriott Irvine, responded to this reviewResponded May 3, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 3, 2018</t>
+  </si>
+  <si>
+    <t>We love everything about this hotel.  Style, cleanliness, workout area, pool etc.  Most of all we love how every employee is extremely friendly, helpful, caring, professional and always want to assist in any way possible.  This is the situation this evening with Jericho Nucum.  Extremely helpful and went above and beyond with a work problem I needed help with.      Really good customer service is hard to find anymore but we stay here at this hotel all the time and not once have we had bad service.  Jericho is a great example of this.  Thank you Marriott for having such great employees.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r576212957-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>576212957</t>
+  </si>
+  <si>
+    <t>04/28/2018</t>
+  </si>
+  <si>
+    <t>Modern, Convenient, Comfortable</t>
+  </si>
+  <si>
+    <t>The sleek, modern European look of this hotel is impressive. We found the rooms to be the same, streamlined but comfortable and pleasing to the eye.The staff was friendly and professional. On arrival we were warmly greeted by Mike (Valet parking) and Houman (Desk Clerk), both of whom explained everything we needed to know about the parking situation and the hotel amenities. On check out, the desk clerk was friendly, personable, and efficient; I didn't get her name, but her initials were CLG.We chose this hotel because of its proximity to the Irvine Barclay Theatre. The shopping center just across the street with stores, eateries, and Mother's Market, was an added bonus. We could park our car in the parking structure and were at dinner (and breakfast) in moments. When in this area, we'd definitely return to AC Hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Paul M, General Manager at AC Hotel by Marriott Irvine, responded to this reviewResponded April 30, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 30, 2018</t>
+  </si>
+  <si>
+    <t>The sleek, modern European look of this hotel is impressive. We found the rooms to be the same, streamlined but comfortable and pleasing to the eye.The staff was friendly and professional. On arrival we were warmly greeted by Mike (Valet parking) and Houman (Desk Clerk), both of whom explained everything we needed to know about the parking situation and the hotel amenities. On check out, the desk clerk was friendly, personable, and efficient; I didn't get her name, but her initials were CLG.We chose this hotel because of its proximity to the Irvine Barclay Theatre. The shopping center just across the street with stores, eateries, and Mother's Market, was an added bonus. We could park our car in the parking structure and were at dinner (and breakfast) in moments. When in this area, we'd definitely return to AC Hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r575487909-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>575487909</t>
+  </si>
+  <si>
+    <t>04/24/2018</t>
+  </si>
+  <si>
+    <t>Thursday Night TRIVIA NIGHT</t>
+  </si>
+  <si>
+    <t>Had so much fun (maybe too much fun) playing trivia in the AC Lounge. I'm sure we could have done better than tying for 3rd place, but SO MANY GREAT COCKTAILS. The bartenders are friendly and knowledgeable and their drinks not only taste great but are all totally insta-worthy. The trivia was tough but super fun. I can't wait to go back!MoreShow less</t>
+  </si>
+  <si>
+    <t>Paul M, General Manager at AC Hotel by Marriott Irvine, responded to this reviewResponded April 27, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 27, 2018</t>
+  </si>
+  <si>
+    <t>Had so much fun (maybe too much fun) playing trivia in the AC Lounge. I'm sure we could have done better than tying for 3rd place, but SO MANY GREAT COCKTAILS. The bartenders are friendly and knowledgeable and their drinks not only taste great but are all totally insta-worthy. The trivia was tough but super fun. I can't wait to go back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r573294572-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>573294572</t>
+  </si>
+  <si>
+    <t>04/14/2018</t>
+  </si>
+  <si>
+    <t>Great place!!</t>
+  </si>
+  <si>
+    <t>We stopped here to visit friends while in California for work. Upon arrival, all of the staff was VERY friendly, helpful &amp; accommodating. They were friendly every time we entered &amp; exited the building or had a question. The room was a great size with a large floating bench, which was handy for luggage. It was clean &amp; one of the best parts was no carpet!! The fitness room was spacious &amp; equipped better than most. We didn’t get to use the pool, but the pool &amp; deck area looked great. The location was close to food &amp; shopping. It was also pet friendly for our 4 legged buddy. Nothing but great things to say about our stay here!! Wish more places were like this!! MoreShow less</t>
+  </si>
+  <si>
+    <t>Paul M, General Manager at AC Hotel by Marriott Irvine, responded to this reviewResponded April 16, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 16, 2018</t>
+  </si>
+  <si>
+    <t>We stopped here to visit friends while in California for work. Upon arrival, all of the staff was VERY friendly, helpful &amp; accommodating. They were friendly every time we entered &amp; exited the building or had a question. The room was a great size with a large floating bench, which was handy for luggage. It was clean &amp; one of the best parts was no carpet!! The fitness room was spacious &amp; equipped better than most. We didn’t get to use the pool, but the pool &amp; deck area looked great. The location was close to food &amp; shopping. It was also pet friendly for our 4 legged buddy. Nothing but great things to say about our stay here!! Wish more places were like this!! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r570272158-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>570272158</t>
+  </si>
+  <si>
+    <t>04/01/2018</t>
+  </si>
+  <si>
+    <t>AC Hotel by Marriott Irvine - Contemporary, Great Service and Dog Friendly</t>
+  </si>
+  <si>
+    <t>AC Hotel by Marriott Irvine is such a wonderful place to stay at. It was our second visit! The service is excellent and the staff is friendly and helpful. The location is great - lots of places to eat and dog friendly. We will be back!MoreShow less</t>
+  </si>
+  <si>
+    <t>Paul M, General Manager at AC Hotel by Marriott Irvine, responded to this reviewResponded April 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 2, 2018</t>
+  </si>
+  <si>
+    <t>AC Hotel by Marriott Irvine is such a wonderful place to stay at. It was our second visit! The service is excellent and the staff is friendly and helpful. The location is great - lots of places to eat and dog friendly. We will be back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r570270431-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>570270431</t>
+  </si>
+  <si>
+    <t>Best Hotel in the OC</t>
+  </si>
+  <si>
+    <t>This is my second time staying at the AC hotel.  Love the modern, boutique vibe.  Great location and the center has great eateries you can walk to.  Staff is very accommodating especially the bartender, Luis.  He makes the best cocktails to cater your needs.  Overall, I can’t wait to stay here again! A++++++MoreShow less</t>
+  </si>
+  <si>
+    <t>Paul M, General Manager at AC Hotel by Marriott Irvine, responded to this reviewResponded April 3, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 3, 2018</t>
+  </si>
+  <si>
+    <t>This is my second time staying at the AC hotel.  Love the modern, boutique vibe.  Great location and the center has great eateries you can walk to.  Staff is very accommodating especially the bartender, Luis.  He makes the best cocktails to cater your needs.  Overall, I can’t wait to stay here again! A++++++More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r570016336-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>570016336</t>
+  </si>
+  <si>
+    <t>03/31/2018</t>
+  </si>
+  <si>
+    <t>Modern and clean</t>
+  </si>
+  <si>
+    <t>Check in is very efficient with friendly staff ( contrary to what I read). Sarah is great! Actually all staff that we encountered were very helpful and pleasant.The functionality of the design incorporates with practicality.Parking is a bit walk off the premises if you self park.The pool is heated with piped in music and the towels smell fresh and good!Walkable to restaurants.Worked great for us since it's very close to UCI for a visit to our daughter. Location is perfect if you want to hit the beaches too.Breakfast with the room has both healthy and rich choices.I commend the supplier for croissants, close to Parisian croissants.The parfait I had was delightful ( mango/coconut with Chia seeds I believe). There was also a nespresso machine aside from the regular brewed coffee. It's  a good place to stay and would always consider this place when visiting againMoreShow less</t>
+  </si>
+  <si>
+    <t>Paul M, General Manager at AC Hotel by Marriott Irvine, responded to this reviewResponded April 1, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 1, 2018</t>
+  </si>
+  <si>
+    <t>Check in is very efficient with friendly staff ( contrary to what I read). Sarah is great! Actually all staff that we encountered were very helpful and pleasant.The functionality of the design incorporates with practicality.Parking is a bit walk off the premises if you self park.The pool is heated with piped in music and the towels smell fresh and good!Walkable to restaurants.Worked great for us since it's very close to UCI for a visit to our daughter. Location is perfect if you want to hit the beaches too.Breakfast with the room has both healthy and rich choices.I commend the supplier for croissants, close to Parisian croissants.The parfait I had was delightful ( mango/coconut with Chia seeds I believe). There was also a nespresso machine aside from the regular brewed coffee. It's  a good place to stay and would always consider this place when visiting againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r569087580-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>569087580</t>
+  </si>
+  <si>
+    <t>03/27/2018</t>
+  </si>
+  <si>
+    <t>Great hotel. Great staff. Happy to revisit.</t>
+  </si>
+  <si>
+    <t>The hotel looks and feels brand new. Great rooms with plenty of space and modern, minimalistic design. Loved it. But the highlight was super friendly, polite, helpful, and accommodating staff. Huge shout out to Houman for great service and making our stay as enjoyable as possible.MoreShow less</t>
+  </si>
+  <si>
+    <t>Paul M, General Manager at AC Hotel by Marriott Irvine, responded to this reviewResponded March 29, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 29, 2018</t>
+  </si>
+  <si>
+    <t>The hotel looks and feels brand new. Great rooms with plenty of space and modern, minimalistic design. Loved it. But the highlight was super friendly, polite, helpful, and accommodating staff. Huge shout out to Houman for great service and making our stay as enjoyable as possible.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r568473414-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>568473414</t>
+  </si>
+  <si>
+    <t>03/24/2018</t>
+  </si>
+  <si>
+    <t>Authentically Friendly Service</t>
+  </si>
+  <si>
+    <t>This shiny modern hotel is staffed by folks that are genuinely interested in service. Houman was particularly responsive, writing down an address for a particular area with the type of Asian food that we were looking for, and scheduling an early morning cab ride to the airport. Being walking distance to a natural foods store was a real plus.MoreShow less</t>
+  </si>
+  <si>
+    <t>Paul M, General Manager at AC Hotel by Marriott Irvine, responded to this reviewResponded March 27, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 27, 2018</t>
+  </si>
+  <si>
+    <t>This shiny modern hotel is staffed by folks that are genuinely interested in service. Houman was particularly responsive, writing down an address for a particular area with the type of Asian food that we were looking for, and scheduling an early morning cab ride to the airport. Being walking distance to a natural foods store was a real plus.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r568190940-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>568190940</t>
+  </si>
+  <si>
+    <t>03/22/2018</t>
+  </si>
+  <si>
+    <t>Great service, especially from Houman</t>
+  </si>
+  <si>
+    <t>Both Houman and Sarah at the front desk were very kind and helpful. They were very open helping and answering questions, ensuring that my stay here was very pleasant. I look forward to staying here again because if their exceptionally kind and welcoming hospitality.MoreShow less</t>
+  </si>
+  <si>
+    <t>Both Houman and Sarah at the front desk were very kind and helpful. They were very open helping and answering questions, ensuring that my stay here was very pleasant. I look forward to staying here again because if their exceptionally kind and welcoming hospitality.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r567155593-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>567155593</t>
+  </si>
+  <si>
+    <t>03/18/2018</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t>The hotel is beautiful; very modern and simple. Houman A. assisted us with checking in and parking and he was a fantastic help and made us feel welcomed. The room was very nice and clean as well as the bathroom. The tv was equipped with Netflix and Hulu; which is amazing! They also have a 24 hour fitness center for anyone who needs a good workout.MoreShow less</t>
+  </si>
+  <si>
+    <t>Paul M, General Manager at AC Hotel by Marriott Irvine, responded to this reviewResponded March 19, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 19, 2018</t>
+  </si>
+  <si>
+    <t>The hotel is beautiful; very modern and simple. Houman A. assisted us with checking in and parking and he was a fantastic help and made us feel welcomed. The room was very nice and clean as well as the bathroom. The tv was equipped with Netflix and Hulu; which is amazing! They also have a 24 hour fitness center for anyone who needs a good workout.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r567063948-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>567063948</t>
+  </si>
+  <si>
+    <t>03/17/2018</t>
+  </si>
+  <si>
+    <t>Great hotel!</t>
+  </si>
+  <si>
+    <t>This is a beautiful hotel, impeccably clean, very friendly staff. I’ll definitely stay here again and recommend it. It’s a modern, European feel, and the breakfast buffet was delicious. The fitness center is very nice, as is the pool area.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a beautiful hotel, impeccably clean, very friendly staff. I’ll definitely stay here again and recommend it. It’s a modern, European feel, and the breakfast buffet was delicious. The fitness center is very nice, as is the pool area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r566549804-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>566549804</t>
+  </si>
+  <si>
+    <t>03/14/2018</t>
+  </si>
+  <si>
+    <t>Really great!</t>
+  </si>
+  <si>
+    <t>We had not stayed at this kind of Marriott property before, and we were pleasantly surprised.  The room was lovely, clean, and very efficiently laid out - a new design.  The front desk employee, Adam, went above and beyond to figure out how to help us with a tricky shipment.  There are restaurants within walking distance, as well.  We would stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>Paul M, General Manager at AC Hotel by Marriott Irvine, responded to this reviewResponded March 15, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 15, 2018</t>
+  </si>
+  <si>
+    <t>We had not stayed at this kind of Marriott property before, and we were pleasantly surprised.  The room was lovely, clean, and very efficiently laid out - a new design.  The front desk employee, Adam, went above and beyond to figure out how to help us with a tricky shipment.  There are restaurants within walking distance, as well.  We would stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r564758239-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>564758239</t>
+  </si>
+  <si>
+    <t>03/05/2018</t>
+  </si>
+  <si>
+    <t>Modern and Minimalist</t>
+  </si>
+  <si>
+    <t>Good option if you are looking for simplicity. This is a European style hotel with very clean room, simple decor. Restrooms and bath area were very comfortable. If the price is right, this is a good option. Quiet, no balcony. MoreShow less</t>
+  </si>
+  <si>
+    <t>Paul M, General Manager at AC Hotel by Marriott Irvine, responded to this reviewResponded March 6, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 6, 2018</t>
+  </si>
+  <si>
+    <t>Good option if you are looking for simplicity. This is a European style hotel with very clean room, simple decor. Restrooms and bath area were very comfortable. If the price is right, this is a good option. Quiet, no balcony. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r564711977-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>564711977</t>
+  </si>
+  <si>
+    <t>Wonderful</t>
+  </si>
+  <si>
+    <t>What a lovely hotel- simple and clean with a high-end vibe. the location was great- a new hot spot with great restaurants (Puesto!) and shops. The staff was great- Sarah and Houman (out-of-his-way kind) welcomed me, helped with all my questions and made sure I was happy whenever they saw me- thanks!!I will be back!MoreShow less</t>
+  </si>
+  <si>
+    <t>What a lovely hotel- simple and clean with a high-end vibe. the location was great- a new hot spot with great restaurants (Puesto!) and shops. The staff was great- Sarah and Houman (out-of-his-way kind) welcomed me, helped with all my questions and made sure I was happy whenever they saw me- thanks!!I will be back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r564369139-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>564369139</t>
+  </si>
+  <si>
+    <t>03/04/2018</t>
+  </si>
+  <si>
+    <t>Beyond Pleasantly Surprised</t>
+  </si>
+  <si>
+    <t>We stayed here over President’s Day weekend and had a great time. We had never been to this hotel or any of the AC brand, but liked the photos and the concept from what we saw and read online. I guess this is more of a business type hotel, but we enjoyed the modern minimalist theme they have going on for our couples getaway. Our check in with Sarah was quick and pleasant, she seemed ready to offer suggestions or answer questions, but we just wanted to start exploring the hotel and the surrounding activities. Our room was a King size bed with a floor to ceiling window (see sunset picture) and nice faux wood flooring. Comfortable simple seating with minimal decorations just solid clean modern design/textures. An interactive flat screen TV and a nice big bathroom and dressing area. The bed was super comfy as were the pillows. They have this feature when you enter the room you put a key card in this wall slot and it turns on various lights, then as you are leaving, you pull out your key card and it will shut everything off. Everything in the room felt clean, and this modern minimalist concept makes sense when you think of spills or stains, etc. no carpet, no funky dated upholstery, just smooth clean neutral surroundings. At the ice machine down the hall, they have these big carafes you can fill with ice water...We stayed here over President’s Day weekend and had a great time. We had never been to this hotel or any of the AC brand, but liked the photos and the concept from what we saw and read online. I guess this is more of a business type hotel, but we enjoyed the modern minimalist theme they have going on for our couples getaway. Our check in with Sarah was quick and pleasant, she seemed ready to offer suggestions or answer questions, but we just wanted to start exploring the hotel and the surrounding activities. Our room was a King size bed with a floor to ceiling window (see sunset picture) and nice faux wood flooring. Comfortable simple seating with minimal decorations just solid clean modern design/textures. An interactive flat screen TV and a nice big bathroom and dressing area. The bed was super comfy as were the pillows. They have this feature when you enter the room you put a key card in this wall slot and it turns on various lights, then as you are leaving, you pull out your key card and it will shut everything off. Everything in the room felt clean, and this modern minimalist concept makes sense when you think of spills or stains, etc. no carpet, no funky dated upholstery, just smooth clean neutral surroundings. At the ice machine down the hall, they have these big carafes you can fill with ice water and take back to your room. I loved that! We had dinner at the adjoining restaurant Puesto and then came back to the lobby bar to have a drink while we decided on what to do next...well, we were having such a good time with the other patrons and the sweetest bartender (also named Sarah, but not the same person as check in) we ended up drinking at the lobby bar for hours! Sarah was an excellent bartender and poured some pretty great drinks. Breakfast at the hotel in the morning was delicious, although a bit confusing. It is not complimentary, but they have some items laid out on a buffet, an expresso machine, but no signage on what things cost or how to get an expresso. Once we sat down at a table, we saw there were 2 options for hot meals from the kitchen so we each ordered one from the one girl who was working. It was delicious, but not your typical hotel breakfast fare. I felt like I was eating from a Parisian cafe. Each breakfast was $16+ which is just very different from other hotels. Although we didn’t swim, we checked out the small pool area and its a great quiet place to chill out for sure, nice comfortable furnishings. The lobby is spacious and gorgeous, ample outlets for all your devices if you’re working. The whole place feels very upscale, but rates were the same or less than other hotels in the area. We would love to stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>Paul M, General Manager at AC Hotel by Marriott Irvine, responded to this reviewResponded March 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 5, 2018</t>
+  </si>
+  <si>
+    <t>We stayed here over President’s Day weekend and had a great time. We had never been to this hotel or any of the AC brand, but liked the photos and the concept from what we saw and read online. I guess this is more of a business type hotel, but we enjoyed the modern minimalist theme they have going on for our couples getaway. Our check in with Sarah was quick and pleasant, she seemed ready to offer suggestions or answer questions, but we just wanted to start exploring the hotel and the surrounding activities. Our room was a King size bed with a floor to ceiling window (see sunset picture) and nice faux wood flooring. Comfortable simple seating with minimal decorations just solid clean modern design/textures. An interactive flat screen TV and a nice big bathroom and dressing area. The bed was super comfy as were the pillows. They have this feature when you enter the room you put a key card in this wall slot and it turns on various lights, then as you are leaving, you pull out your key card and it will shut everything off. Everything in the room felt clean, and this modern minimalist concept makes sense when you think of spills or stains, etc. no carpet, no funky dated upholstery, just smooth clean neutral surroundings. At the ice machine down the hall, they have these big carafes you can fill with ice water...We stayed here over President’s Day weekend and had a great time. We had never been to this hotel or any of the AC brand, but liked the photos and the concept from what we saw and read online. I guess this is more of a business type hotel, but we enjoyed the modern minimalist theme they have going on for our couples getaway. Our check in with Sarah was quick and pleasant, she seemed ready to offer suggestions or answer questions, but we just wanted to start exploring the hotel and the surrounding activities. Our room was a King size bed with a floor to ceiling window (see sunset picture) and nice faux wood flooring. Comfortable simple seating with minimal decorations just solid clean modern design/textures. An interactive flat screen TV and a nice big bathroom and dressing area. The bed was super comfy as were the pillows. They have this feature when you enter the room you put a key card in this wall slot and it turns on various lights, then as you are leaving, you pull out your key card and it will shut everything off. Everything in the room felt clean, and this modern minimalist concept makes sense when you think of spills or stains, etc. no carpet, no funky dated upholstery, just smooth clean neutral surroundings. At the ice machine down the hall, they have these big carafes you can fill with ice water and take back to your room. I loved that! We had dinner at the adjoining restaurant Puesto and then came back to the lobby bar to have a drink while we decided on what to do next...well, we were having such a good time with the other patrons and the sweetest bartender (also named Sarah, but not the same person as check in) we ended up drinking at the lobby bar for hours! Sarah was an excellent bartender and poured some pretty great drinks. Breakfast at the hotel in the morning was delicious, although a bit confusing. It is not complimentary, but they have some items laid out on a buffet, an expresso machine, but no signage on what things cost or how to get an expresso. Once we sat down at a table, we saw there were 2 options for hot meals from the kitchen so we each ordered one from the one girl who was working. It was delicious, but not your typical hotel breakfast fare. I felt like I was eating from a Parisian cafe. Each breakfast was $16+ which is just very different from other hotels. Although we didn’t swim, we checked out the small pool area and its a great quiet place to chill out for sure, nice comfortable furnishings. The lobby is spacious and gorgeous, ample outlets for all your devices if you’re working. The whole place feels very upscale, but rates were the same or less than other hotels in the area. We would love to stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r563598450-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>563598450</t>
+  </si>
+  <si>
+    <t>03/01/2018</t>
+  </si>
+  <si>
+    <t>Mixed bag experience great for some not for everyone</t>
+  </si>
+  <si>
+    <t>We stayed here for business because our work was walking distance.  I liked the contemporary feel of the décor but they went a little overboard in that regard.  The rooms could have used a little touch of color - a hint of lime or burgundy accent pillow or something to soften the sea of putty grey that mostly looked most institutional than modern without nice décor touches.  Not a big deal but if you are touting the look of your brand, then pay attention to style.  The lobby and bar had a lot more to offer in that regard but rooms were lacking.
+The food in the bar - mostly small plates was actually exceptional and the best part of our stay.  A good thing too because all the nearby restaurants (even on a Monday night) had an hour long wait for tables and were noisy.  So we were grateful for the excellent food choices and good drinks the hotel bar.  And a very cozy atmosphere.  The service left a little to be desired; they were understaffed but that doesn't excuse being rude.  There is a cute "call for service button" on the table which of course one uses.  But the server doesn't come so about 5 minutes later, we push it again.  When she eventually shows up, she snaps at us, "I was busy making drinks for other people."  Something more like, "I'm so sorry you had to wait...we...We stayed here for business because our work was walking distance.  I liked the contemporary feel of the décor but they went a little overboard in that regard.  The rooms could have used a little touch of color - a hint of lime or burgundy accent pillow or something to soften the sea of putty grey that mostly looked most institutional than modern without nice décor touches.  Not a big deal but if you are touting the look of your brand, then pay attention to style.  The lobby and bar had a lot more to offer in that regard but rooms were lacking.The food in the bar - mostly small plates was actually exceptional and the best part of our stay.  A good thing too because all the nearby restaurants (even on a Monday night) had an hour long wait for tables and were noisy.  So we were grateful for the excellent food choices and good drinks the hotel bar.  And a very cozy atmosphere.  The service left a little to be desired; they were understaffed but that doesn't excuse being rude.  There is a cute "call for service button" on the table which of course one uses.  But the server doesn't come so about 5 minutes later, we push it again.  When she eventually shows up, she snaps at us, "I was busy making drinks for other people."  Something more like, "I'm so sorry you had to wait...we are unusually busy tonight.  How about if I bring over a complimentary small plate of something" would have completely changed our attitude (and her tip).The biggest hesitation about returning however is that the hotel walls are surprisingly thin.  I was lucky that they were able to move me to a room at the end of a hallway and that I only had a "neighbor" for one night.  The first room I was in was next to someone blaring music.  Even if someone is just on the telephone or watching quiet TV, be prepared to hear every word because your bed is next to their desk or TV or radio.  Thank goodness the person didn't snore.  Unless you sleep very soundly, are lucky enough to have an empty room next to you, or have a room next to someone you know and love, you will not be at ease with the noise level.  Fortunately, I did not hear any hallway noise as the rooms are large and well set back from the hall.  I was actually prepared to buy 2 rooms if that was the only way I was going to sleep.  I was on the top floor so I can't say whether sound carries to rooms below.Management seemed surprised to hear how audible sounds are from room to room but everyone in our group had the same observation.  We used ear plugs or sleep sound apps or slept with our TV on or slept "backwards" on the bed to keep our ears further from the adjoining wall.  I thought about dragging my mattress onto the floor the first night but was too tired to bother.  Thankfully, no one occupied the room (or talked or used the TV) the 2nd night.So I would probably not return given the uncertainties about quiet which for me is a make or break in a hotel.  Also, the room fan which is often a great source of white noise to protect against noisy neighbors does not have a setting that lets you keep it in a constant "on" mode.  So that is a deadly combination for a light sleeper.  For me, it means I won't be coming back to a property.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here for business because our work was walking distance.  I liked the contemporary feel of the décor but they went a little overboard in that regard.  The rooms could have used a little touch of color - a hint of lime or burgundy accent pillow or something to soften the sea of putty grey that mostly looked most institutional than modern without nice décor touches.  Not a big deal but if you are touting the look of your brand, then pay attention to style.  The lobby and bar had a lot more to offer in that regard but rooms were lacking.
+The food in the bar - mostly small plates was actually exceptional and the best part of our stay.  A good thing too because all the nearby restaurants (even on a Monday night) had an hour long wait for tables and were noisy.  So we were grateful for the excellent food choices and good drinks the hotel bar.  And a very cozy atmosphere.  The service left a little to be desired; they were understaffed but that doesn't excuse being rude.  There is a cute "call for service button" on the table which of course one uses.  But the server doesn't come so about 5 minutes later, we push it again.  When she eventually shows up, she snaps at us, "I was busy making drinks for other people."  Something more like, "I'm so sorry you had to wait...we...We stayed here for business because our work was walking distance.  I liked the contemporary feel of the décor but they went a little overboard in that regard.  The rooms could have used a little touch of color - a hint of lime or burgundy accent pillow or something to soften the sea of putty grey that mostly looked most institutional than modern without nice décor touches.  Not a big deal but if you are touting the look of your brand, then pay attention to style.  The lobby and bar had a lot more to offer in that regard but rooms were lacking.The food in the bar - mostly small plates was actually exceptional and the best part of our stay.  A good thing too because all the nearby restaurants (even on a Monday night) had an hour long wait for tables and were noisy.  So we were grateful for the excellent food choices and good drinks the hotel bar.  And a very cozy atmosphere.  The service left a little to be desired; they were understaffed but that doesn't excuse being rude.  There is a cute "call for service button" on the table which of course one uses.  But the server doesn't come so about 5 minutes later, we push it again.  When she eventually shows up, she snaps at us, "I was busy making drinks for other people."  Something more like, "I'm so sorry you had to wait...we are unusually busy tonight.  How about if I bring over a complimentary small plate of something" would have completely changed our attitude (and her tip).The biggest hesitation about returning however is that the hotel walls are surprisingly thin.  I was lucky that they were able to move me to a room at the end of a hallway and that I only had a "neighbor" for one night.  The first room I was in was next to someone blaring music.  Even if someone is just on the telephone or watching quiet TV, be prepared to hear every word because your bed is next to their desk or TV or radio.  Thank goodness the person didn't snore.  Unless you sleep very soundly, are lucky enough to have an empty room next to you, or have a room next to someone you know and love, you will not be at ease with the noise level.  Fortunately, I did not hear any hallway noise as the rooms are large and well set back from the hall.  I was actually prepared to buy 2 rooms if that was the only way I was going to sleep.  I was on the top floor so I can't say whether sound carries to rooms below.Management seemed surprised to hear how audible sounds are from room to room but everyone in our group had the same observation.  We used ear plugs or sleep sound apps or slept with our TV on or slept "backwards" on the bed to keep our ears further from the adjoining wall.  I thought about dragging my mattress onto the floor the first night but was too tired to bother.  Thankfully, no one occupied the room (or talked or used the TV) the 2nd night.So I would probably not return given the uncertainties about quiet which for me is a make or break in a hotel.  Also, the room fan which is often a great source of white noise to protect against noisy neighbors does not have a setting that lets you keep it in a constant "on" mode.  So that is a deadly combination for a light sleeper.  For me, it means I won't be coming back to a property.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r563454643-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>563454643</t>
+  </si>
+  <si>
+    <t>02/28/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great hotel </t>
+  </si>
+  <si>
+    <t>Great hotel perfectly located for our business trip. Staff very friendly and helpful. Would recommend this hotel in Irvine California   Good restaurants located nearby    Hotel very clean and has a nice pool and fitness centre.   Great fitness centre situated next to hotel MoreShow less</t>
+  </si>
+  <si>
+    <t>Paul M, General Manager at AC Hotel by Marriott Irvine, responded to this reviewResponded March 1, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 1, 2018</t>
+  </si>
+  <si>
+    <t>Great hotel perfectly located for our business trip. Staff very friendly and helpful. Would recommend this hotel in Irvine California   Good restaurants located nearby    Hotel very clean and has a nice pool and fitness centre.   Great fitness centre situated next to hotel More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r563191057-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>563191057</t>
+  </si>
+  <si>
+    <t>02/27/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Perfect Hotel with perfect staff &amp; management </t>
+  </si>
+  <si>
+    <t>AC Hotel Irvine is just a perfect hotel with an outstanding staff &amp; management Team.  The location is great. The rooms are modern &amp; clean.  We loved the dog friendly environment.  I was on a business trip but it was so good that I added a couple of days to make a weekend and enjoy local restaurants and hotel bar.Spoke to the GM a few times who was like no other GM that I have met.  Friendly, kind, courteous and not full of themselves.The bar staff was simply the best I’ve experienced and housekeeping was spot on.Definitely my favorite hotel thus far.MoreShow less</t>
+  </si>
+  <si>
+    <t>Paul M, General Manager at AC Hotel by Marriott Irvine, responded to this reviewResponded February 28, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 28, 2018</t>
+  </si>
+  <si>
+    <t>AC Hotel Irvine is just a perfect hotel with an outstanding staff &amp; management Team.  The location is great. The rooms are modern &amp; clean.  We loved the dog friendly environment.  I was on a business trip but it was so good that I added a couple of days to make a weekend and enjoy local restaurants and hotel bar.Spoke to the GM a few times who was like no other GM that I have met.  Friendly, kind, courteous and not full of themselves.The bar staff was simply the best I’ve experienced and housekeeping was spot on.Definitely my favorite hotel thus far.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r561312466-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>561312466</t>
+  </si>
+  <si>
+    <t>02/18/2018</t>
+  </si>
+  <si>
+    <t>Very accommodating accomodations</t>
+  </si>
+  <si>
+    <t>I have stayed here on three extended business trips in 2017 and 2018.  The staff is wonderful and always happy to help in whatever way they can.  The bar area is also nice too, the small plates are tasty and the service is good.  My one complaint is about the rooms themselves - while definitely trendy and modern, the simplicity cam cause problems for a long term traveler (ie no closet, no drawers save one containing a bible, a small bar on  which to hang clothes and a glass shelf).  If I were here for a short stay it wouldn't have been an issue and the rooms are otherwise very comfortable but each of my trips was several weeks long so was a little challenging.  But good location for where I needed to be (working in Park Place corporate park) with wildlife refuge across the street and plenty of eating options and even a bowling alley in short walking distance.MoreShow less</t>
+  </si>
+  <si>
+    <t>Paul M, General Manager at AC Hotel by Marriott Irvine, responded to this reviewResponded February 26, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 26, 2018</t>
+  </si>
+  <si>
+    <t>I have stayed here on three extended business trips in 2017 and 2018.  The staff is wonderful and always happy to help in whatever way they can.  The bar area is also nice too, the small plates are tasty and the service is good.  My one complaint is about the rooms themselves - while definitely trendy and modern, the simplicity cam cause problems for a long term traveler (ie no closet, no drawers save one containing a bible, a small bar on  which to hang clothes and a glass shelf).  If I were here for a short stay it wouldn't have been an issue and the rooms are otherwise very comfortable but each of my trips was several weeks long so was a little challenging.  But good location for where I needed to be (working in Park Place corporate park) with wildlife refuge across the street and plenty of eating options and even a bowling alley in short walking distance.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r559055379-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>559055379</t>
+  </si>
+  <si>
+    <t>02/07/2018</t>
+  </si>
+  <si>
+    <t>Great Staff- All around awesome experience</t>
+  </si>
+  <si>
+    <t>Was in town visiting UCI, Jason Cure one of the managers there was super helpful getting us ready for our stay. We ended up bringing our dog and the wonderful front office staff got him a treat right away! We also were able to check-in early. Overall, really great. One thing to note is there is a charge for parking, I know many hotels do this these days but I wish they would not considering there are not really any self-park options.MoreShow less</t>
+  </si>
+  <si>
+    <t>Paul M, General Manager at AC Hotel by Marriott Irvine, responded to this reviewResponded February 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 9, 2018</t>
+  </si>
+  <si>
+    <t>Was in town visiting UCI, Jason Cure one of the managers there was super helpful getting us ready for our stay. We ended up bringing our dog and the wonderful front office staff got him a treat right away! We also were able to check-in early. Overall, really great. One thing to note is there is a charge for parking, I know many hotels do this these days but I wish they would not considering there are not really any self-park options.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r557942559-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>557942559</t>
+  </si>
+  <si>
+    <t>02/02/2018</t>
+  </si>
+  <si>
+    <t>Great experience for our wedding block</t>
+  </si>
+  <si>
+    <t>From the moment that my fiancè and I reached out to Kyle and her team, they were quick to respond and very helpful. They didn't hesitate at our request for a tour of the facilities and were very accommodating to our needs. We had requested a conference room to allow our wedding party to get ready (hair and make-up) since they don't have suits, and they were very accommodating. They had the room ready for us well before the time we had requested and they even had a bottle of champagne for our group! Overall, the entire staff was very helpful and we didn't have to stress about our guests staying here. This was a great help as this was one less thing to stress about on our big day!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>Paul M, General Manager at AC Hotel by Marriott Irvine, responded to this reviewResponded February 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 5, 2018</t>
+  </si>
+  <si>
+    <t>From the moment that my fiancè and I reached out to Kyle and her team, they were quick to respond and very helpful. They didn't hesitate at our request for a tour of the facilities and were very accommodating to our needs. We had requested a conference room to allow our wedding party to get ready (hair and make-up) since they don't have suits, and they were very accommodating. They had the room ready for us well before the time we had requested and they even had a bottle of champagne for our group! Overall, the entire staff was very helpful and we didn't have to stress about our guests staying here. This was a great help as this was one less thing to stress about on our big day!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r554018486-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>554018486</t>
+  </si>
+  <si>
+    <t>01/15/2018</t>
+  </si>
+  <si>
+    <t>European Flair not so hot.</t>
+  </si>
+  <si>
+    <t>I stay in hotel 75-200 nights per year on average.  Marriott rewards member Platinum.   This hotel is in a good location of Irvine.   The hotel itself is so-so.   Walls are thin.   Can hear the person next to me snoring.  Rooms are estetically very nice.   Bathrooms are nice.   Wifi is great to get work done while in the hotel.  Housekeeping is very loud in the hallways in the morning.   Even with a Do not disturb on the door, they are crashing around.   Not very respectful of the guests.   Heard someone loudly ask them in the hallway to be quiet.    Restaurant for breakfast;European style.   Options are very few.  Not really a good choice for the hotel guests.   This european style does not work for North American travellers usually.   I saw more people walk in, check out the "buffet" style with 12 or so options, and leave.  People want choice, and there is not much here.  Quiches, yogurt, a few meats and cheeses, and bread products. Hard boiled egg, pickles??  They have a Cappucino machine which delivers a luke warm coffee.   Regular and Decaf coffee available as well.I would plan on eating somewhere else when you stay at this hotel and not have any expectations eating here.   Breakfast is the most important meal of the day, and this one dissapoints unfortunatley.   One last thing, lots of building going on outside so not quiet right now.MoreShow less</t>
+  </si>
+  <si>
+    <t>Paul M, General Manager at AC Hotel by Marriott Irvine, responded to this reviewResponded January 17, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 17, 2018</t>
+  </si>
+  <si>
+    <t>I stay in hotel 75-200 nights per year on average.  Marriott rewards member Platinum.   This hotel is in a good location of Irvine.   The hotel itself is so-so.   Walls are thin.   Can hear the person next to me snoring.  Rooms are estetically very nice.   Bathrooms are nice.   Wifi is great to get work done while in the hotel.  Housekeeping is very loud in the hallways in the morning.   Even with a Do not disturb on the door, they are crashing around.   Not very respectful of the guests.   Heard someone loudly ask them in the hallway to be quiet.    Restaurant for breakfast;European style.   Options are very few.  Not really a good choice for the hotel guests.   This european style does not work for North American travellers usually.   I saw more people walk in, check out the "buffet" style with 12 or so options, and leave.  People want choice, and there is not much here.  Quiches, yogurt, a few meats and cheeses, and bread products. Hard boiled egg, pickles??  They have a Cappucino machine which delivers a luke warm coffee.   Regular and Decaf coffee available as well.I would plan on eating somewhere else when you stay at this hotel and not have any expectations eating here.   Breakfast is the most important meal of the day, and this one dissapoints unfortunatley.   One last thing, lots of building going on outside so not quiet right now.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r553854666-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>553854666</t>
+  </si>
+  <si>
+    <t>01/14/2018</t>
+  </si>
+  <si>
+    <t>Look no further!!</t>
+  </si>
+  <si>
+    <t>Our family travels the world and the AC Hotel, Irvine is by far our favorite hotel!! The modern design of the hotel is welcoming and beautiful, we love the clean lines and minimalistic feel. The front desk staff, especially Adam, went above and beyond our expectations to ensure we were comfortable during the holidays. The housekeeping supervisor, Claudia, always had a smile on her face and took extra efforts to keep our room clean while our daughter was sick. There are plenty of food choices nearby and it’s extremely close to the airport. We look forward to our next stay!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>Paul M, General Manager at AC Hotel by Marriott Irvine, responded to this reviewResponded January 15, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 15, 2018</t>
+  </si>
+  <si>
+    <t>Our family travels the world and the AC Hotel, Irvine is by far our favorite hotel!! The modern design of the hotel is welcoming and beautiful, we love the clean lines and minimalistic feel. The front desk staff, especially Adam, went above and beyond our expectations to ensure we were comfortable during the holidays. The housekeeping supervisor, Claudia, always had a smile on her face and took extra efforts to keep our room clean while our daughter was sick. There are plenty of food choices nearby and it’s extremely close to the airport. We look forward to our next stay!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r552841681-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>552841681</t>
+  </si>
+  <si>
+    <t>01/09/2018</t>
+  </si>
+  <si>
+    <t>New Year’s Eve Holiday Getaway</t>
+  </si>
+  <si>
+    <t>Our family stayed here as part of our getaway to Laguna Beach for the NYE holiday.  The facility itself is very contemporary with modern furnishings.  It’s conveniently located next to restaurants and shops.The hotel is pet friendly which can be an issue for people like me with allergies and/or asthma.  We requested an allergen free room and free from pet dander.  For whatever reason, the first room they gave us on the top floor triggered my asthma and I had an attack in the morning. My husband requested another room and the front desk staff said they would make sure that they would do a deep cleaning of the second room.The second room had the same layout but didn’t trigger my asthma at all.  The showers in both rooms were nice and modern. The first room we were given had low shower pressure but for some reason the second room we were given had better shower pressure.Overall, the concept of the AC hotel brand works for those who like modern but very basic amenities.  The rooms, although contemporary, had a more basic and barebones feel.  They don’t provide free coffee in the lobby but they provide coffee in the rooms.  Overall, I wouldn’t mind staying at this brand of Marriott again but I don’t thing it would be my first choice.MoreShow less</t>
+  </si>
+  <si>
+    <t>Paul M, General Manager at AC Hotel by Marriott Irvine, responded to this reviewResponded January 10, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 10, 2018</t>
+  </si>
+  <si>
+    <t>Our family stayed here as part of our getaway to Laguna Beach for the NYE holiday.  The facility itself is very contemporary with modern furnishings.  It’s conveniently located next to restaurants and shops.The hotel is pet friendly which can be an issue for people like me with allergies and/or asthma.  We requested an allergen free room and free from pet dander.  For whatever reason, the first room they gave us on the top floor triggered my asthma and I had an attack in the morning. My husband requested another room and the front desk staff said they would make sure that they would do a deep cleaning of the second room.The second room had the same layout but didn’t trigger my asthma at all.  The showers in both rooms were nice and modern. The first room we were given had low shower pressure but for some reason the second room we were given had better shower pressure.Overall, the concept of the AC hotel brand works for those who like modern but very basic amenities.  The rooms, although contemporary, had a more basic and barebones feel.  They don’t provide free coffee in the lobby but they provide coffee in the rooms.  Overall, I wouldn’t mind staying at this brand of Marriott again but I don’t thing it would be my first choice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r552744245-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>552744245</t>
+  </si>
+  <si>
+    <t>Stay at irvine</t>
+  </si>
+  <si>
+    <t>Luis is one of the friendliest, creative bartenders I've ever met. Everytime I stay here he's been wonderful! I wouldn't recommend the breakfast for the price, I wish I could get room service or order from a menu.MoreShow less</t>
+  </si>
+  <si>
+    <t>Luis is one of the friendliest, creative bartenders I've ever met. Everytime I stay here he's been wonderful! I wouldn't recommend the breakfast for the price, I wish I could get room service or order from a menu.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r552566618-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>552566618</t>
+  </si>
+  <si>
+    <t>01/08/2018</t>
+  </si>
+  <si>
+    <t>Nice new building but couldn't sleep due to noise from heater and construction above</t>
+  </si>
+  <si>
+    <t>New building, less than a year old, clean modern layout (basically Aloft of Marriott), and friendly employees are the good points
+Unfortunately, I cannot give more than a "Poor" rating due to very little sleep caused by noise. The heater unit in the room sounds like a diesel truck revving and every time it turned on or off it would startle both my wife and I out of our sleep. Also, there is very poor noise insulation from outside, and due to Park Place construction, you hear many heavy trucks driving in early in the morning.
+The worst of it was construction/repair noise coming from above us. We were in room 513 (not sure why we were assigned this room as Platinum elite members since it's smack in the middle of the hallway and it's not one of the better rooms that Platinums should be assigned, e.g. the highest floor, corner room, or balcony room).
+At 5:40 am, my wife and I heard the unmistakable sound of heavy drilling coming from the floor above - this lasted about 20 minutes. Just when we were hoping to drop off to sleep again, we heard hammering sounds begin just past 6:00 am - again from the floor above. This lasted about 15 minutes. After that it got a little quieter, but we could still hear tools being dropped, furniture being moved, etc. I can confirm there was work being done as I...New building, less than a year old, clean modern layout (basically Aloft of Marriott), and friendly employees are the good pointsUnfortunately, I cannot give more than a "Poor" rating due to very little sleep caused by noise. The heater unit in the room sounds like a diesel truck revving and every time it turned on or off it would startle both my wife and I out of our sleep. Also, there is very poor noise insulation from outside, and due to Park Place construction, you hear many heavy trucks driving in early in the morning.The worst of it was construction/repair noise coming from above us. We were in room 513 (not sure why we were assigned this room as Platinum elite members since it's smack in the middle of the hallway and it's not one of the better rooms that Platinums should be assigned, e.g. the highest floor, corner room, or balcony room).At 5:40 am, my wife and I heard the unmistakable sound of heavy drilling coming from the floor above - this lasted about 20 minutes. Just when we were hoping to drop off to sleep again, we heard hammering sounds begin just past 6:00 am - again from the floor above. This lasted about 15 minutes. After that it got a little quieter, but we could still hear tools being dropped, furniture being moved, etc. I can confirm there was work being done as I saw a number of contractor pickup truck parked in the valet area.That said, with the noise from the heater, outside noise, and especially construction/repair noise within the hotel - we did not sleep well at all.Why, as a Platinum, we were assigned a room below where work would be done at an ungodly hour, is beyond me. I would be angry even without the status. There was no heads up that construction would be going on within the hotel either.MoreShow less</t>
+  </si>
+  <si>
+    <t>New building, less than a year old, clean modern layout (basically Aloft of Marriott), and friendly employees are the good points
+Unfortunately, I cannot give more than a "Poor" rating due to very little sleep caused by noise. The heater unit in the room sounds like a diesel truck revving and every time it turned on or off it would startle both my wife and I out of our sleep. Also, there is very poor noise insulation from outside, and due to Park Place construction, you hear many heavy trucks driving in early in the morning.
+The worst of it was construction/repair noise coming from above us. We were in room 513 (not sure why we were assigned this room as Platinum elite members since it's smack in the middle of the hallway and it's not one of the better rooms that Platinums should be assigned, e.g. the highest floor, corner room, or balcony room).
+At 5:40 am, my wife and I heard the unmistakable sound of heavy drilling coming from the floor above - this lasted about 20 minutes. Just when we were hoping to drop off to sleep again, we heard hammering sounds begin just past 6:00 am - again from the floor above. This lasted about 15 minutes. After that it got a little quieter, but we could still hear tools being dropped, furniture being moved, etc. I can confirm there was work being done as I...New building, less than a year old, clean modern layout (basically Aloft of Marriott), and friendly employees are the good pointsUnfortunately, I cannot give more than a "Poor" rating due to very little sleep caused by noise. The heater unit in the room sounds like a diesel truck revving and every time it turned on or off it would startle both my wife and I out of our sleep. Also, there is very poor noise insulation from outside, and due to Park Place construction, you hear many heavy trucks driving in early in the morning.The worst of it was construction/repair noise coming from above us. We were in room 513 (not sure why we were assigned this room as Platinum elite members since it's smack in the middle of the hallway and it's not one of the better rooms that Platinums should be assigned, e.g. the highest floor, corner room, or balcony room).At 5:40 am, my wife and I heard the unmistakable sound of heavy drilling coming from the floor above - this lasted about 20 minutes. Just when we were hoping to drop off to sleep again, we heard hammering sounds begin just past 6:00 am - again from the floor above. This lasted about 15 minutes. After that it got a little quieter, but we could still hear tools being dropped, furniture being moved, etc. I can confirm there was work being done as I saw a number of contractor pickup truck parked in the valet area.That said, with the noise from the heater, outside noise, and especially construction/repair noise within the hotel - we did not sleep well at all.Why, as a Platinum, we were assigned a room below where work would be done at an ungodly hour, is beyond me. I would be angry even without the status. There was no heads up that construction would be going on within the hotel either.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r551825221-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>551825221</t>
+  </si>
+  <si>
+    <t>01/05/2018</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>I loved this hotel. It was my first time staying at an AC Hotel. I liked the fact that the rooms have no carpet. It seemed way more cleanly that way. Carpets breed germs. The shower was great and the service at front desk was great too. Conveniently located within walking distance to a Starbucks and a supermarket. Would recommend staying here and now an AC Hotel fan!MoreShow less</t>
+  </si>
+  <si>
+    <t>Paul M, General Manager at AC Hotel by Marriott Irvine, responded to this reviewResponded January 8, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 8, 2018</t>
+  </si>
+  <si>
+    <t>I loved this hotel. It was my first time staying at an AC Hotel. I liked the fact that the rooms have no carpet. It seemed way more cleanly that way. Carpets breed germs. The shower was great and the service at front desk was great too. Conveniently located within walking distance to a Starbucks and a supermarket. Would recommend staying here and now an AC Hotel fan!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r548875470-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>548875470</t>
+  </si>
+  <si>
+    <t>12/23/2017</t>
+  </si>
+  <si>
+    <t>Another hotel I wish I had more time to enjoy</t>
+  </si>
+  <si>
+    <t>There are hotels I stayed at out of convenience - to just stay for the night and wake up really early.  And sometimes these hotels I pick are the ones I wish I had more time to enjoy versus those hotel I pick for vacation, and those turn out to be a dud.  This hotel is in the former category.  I did not realize it had a great pool.  
+I rolled in at 7pm and it was already dark.  I scored a parking just in front of the hotel so I vowed never to use my car for the entire night.  There's tons of parking at the garage but this is premium parking for me, which will serve me well the next day for my 8am 5k run.  I realized it's across the street from a small shopping mall - where they had North Italia, Houston's and Mother's grocery store.  This is definitely a rich area.  I had a hankering for some good old ramen; but nothing was a walking distance from me; so I settled with Lemonade, which was a great second choice.  
+Everything in this hotel is new and modern.  Which is a fresh concept for me since I live in a century-old Spanish house.  This is how I would furnish my house if I had a house that is remotely modern and new.  The room furnishing is absolutely A+.  
+One con: I never use the coffee maker...There are hotels I stayed at out of convenience - to just stay for the night and wake up really early.  And sometimes these hotels I pick are the ones I wish I had more time to enjoy versus those hotel I pick for vacation, and those turn out to be a dud.  This hotel is in the former category.  I did not realize it had a great pool.  I rolled in at 7pm and it was already dark.  I scored a parking just in front of the hotel so I vowed never to use my car for the entire night.  There's tons of parking at the garage but this is premium parking for me, which will serve me well the next day for my 8am 5k run.  I realized it's across the street from a small shopping mall - where they had North Italia, Houston's and Mother's grocery store.  This is definitely a rich area.  I had a hankering for some good old ramen; but nothing was a walking distance from me; so I settled with Lemonade, which was a great second choice.  Everything in this hotel is new and modern.  Which is a fresh concept for me since I live in a century-old Spanish house.  This is how I would furnish my house if I had a house that is remotely modern and new.  The room furnishing is absolutely A+.  One con: I never use the coffee maker but I had to heat up water for my instant ramen in the morning, and I had to take it to the bathroom since that's the one place where an ac outlet is available.  I had cashed in on a Marriott point, and I had Gold status, and my profile says top floor room with a view.  So I got some of the best rooms with the view of the mall and all of Irvine.  I felt like I owned Irvine, if not just for one night.  The hotel parking is free due to my membership, which I thought was great; but then when my husband checked in with his own car, they also comped that, which was excellent.The front desk staff both times are very sweet, young and energetic.  Perfect for this hotel.  This is a new Marriott concept for me.  I'm used to the Courtyards, the Renaissances (my favorite), and the Marriott flagship hotels.  This is more close to Renaissance - boutique hotel, but a lot more modern and clean lines than the Renaissance. If this is around in an area where Marriott brands are in, I'd definitely pick this one.  It reminds me of EB hotels (Eurobuilding) hotels; which we stayed at one in Miami.   CLEAN.  Clean lines.  Modern.  Not too fussy.  Just perfect.MoreShow less</t>
+  </si>
+  <si>
+    <t>Paul M, General Manager at AC Hotel by Marriott Irvine, responded to this reviewResponded January 3, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 3, 2018</t>
+  </si>
+  <si>
+    <t>There are hotels I stayed at out of convenience - to just stay for the night and wake up really early.  And sometimes these hotels I pick are the ones I wish I had more time to enjoy versus those hotel I pick for vacation, and those turn out to be a dud.  This hotel is in the former category.  I did not realize it had a great pool.  
+I rolled in at 7pm and it was already dark.  I scored a parking just in front of the hotel so I vowed never to use my car for the entire night.  There's tons of parking at the garage but this is premium parking for me, which will serve me well the next day for my 8am 5k run.  I realized it's across the street from a small shopping mall - where they had North Italia, Houston's and Mother's grocery store.  This is definitely a rich area.  I had a hankering for some good old ramen; but nothing was a walking distance from me; so I settled with Lemonade, which was a great second choice.  
+Everything in this hotel is new and modern.  Which is a fresh concept for me since I live in a century-old Spanish house.  This is how I would furnish my house if I had a house that is remotely modern and new.  The room furnishing is absolutely A+.  
+One con: I never use the coffee maker...There are hotels I stayed at out of convenience - to just stay for the night and wake up really early.  And sometimes these hotels I pick are the ones I wish I had more time to enjoy versus those hotel I pick for vacation, and those turn out to be a dud.  This hotel is in the former category.  I did not realize it had a great pool.  I rolled in at 7pm and it was already dark.  I scored a parking just in front of the hotel so I vowed never to use my car for the entire night.  There's tons of parking at the garage but this is premium parking for me, which will serve me well the next day for my 8am 5k run.  I realized it's across the street from a small shopping mall - where they had North Italia, Houston's and Mother's grocery store.  This is definitely a rich area.  I had a hankering for some good old ramen; but nothing was a walking distance from me; so I settled with Lemonade, which was a great second choice.  Everything in this hotel is new and modern.  Which is a fresh concept for me since I live in a century-old Spanish house.  This is how I would furnish my house if I had a house that is remotely modern and new.  The room furnishing is absolutely A+.  One con: I never use the coffee maker but I had to heat up water for my instant ramen in the morning, and I had to take it to the bathroom since that's the one place where an ac outlet is available.  I had cashed in on a Marriott point, and I had Gold status, and my profile says top floor room with a view.  So I got some of the best rooms with the view of the mall and all of Irvine.  I felt like I owned Irvine, if not just for one night.  The hotel parking is free due to my membership, which I thought was great; but then when my husband checked in with his own car, they also comped that, which was excellent.The front desk staff both times are very sweet, young and energetic.  Perfect for this hotel.  This is a new Marriott concept for me.  I'm used to the Courtyards, the Renaissances (my favorite), and the Marriott flagship hotels.  This is more close to Renaissance - boutique hotel, but a lot more modern and clean lines than the Renaissance. If this is around in an area where Marriott brands are in, I'd definitely pick this one.  It reminds me of EB hotels (Eurobuilding) hotels; which we stayed at one in Miami.   CLEAN.  Clean lines.  Modern.  Not too fussy.  Just perfect.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r547902107-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>547902107</t>
+  </si>
+  <si>
+    <t>12/18/2017</t>
+  </si>
+  <si>
+    <t>A fine, modern hotel; fantastic staff</t>
+  </si>
+  <si>
+    <t>Really a fine hotel and nice addition to the area.  Modern, chic, mid-range, European-inspired hotel (where the AC brand sits).  Nice clean (both literally and figuratively) lobby and rooms.  You’ll see from others’ pictures (which I won’t repeat) that the design is “edgy,” from the entry, to the furniture to the bathroom sinks.  Faux wood floors in the rooms, so bring your slippers.  Nice common area and work spaces downstairs.  I very much enjoyed my one-night family stay (two rooms).  The kids enjoyed the double beds and internet TV connection for Netflix and YouTube.  We enjoyed the king bed and extra large shower.  The staff was fantastic- so friendly and accommodating (callout to Sarah at the front desk).  
+Breakfast, while not cheap, was high quality.  From the fresh pressed juices, to the Nespresso drinks to the fish ingredients on the buffet and in the ala cart menu, which changes over time (one ala cart item free with the buffet).  As with other reviews, I find it a little frustrating that breakfast is not included with Gold membership.  If you go “up” in the Marriott chain (e.g. Marriott branded), breakfast is included for Marriott Gold members and “down” (Residence Inn branded), which provide breakfast to all.  There are several Marriott brands that fit in this middle ground, not just AC. To this property’s credit, they offer a $10 voucher per room (per person would be a nice standard), which can be...Really a fine hotel and nice addition to the area.  Modern, chic, mid-range, European-inspired hotel (where the AC brand sits).  Nice clean (both literally and figuratively) lobby and rooms.  You’ll see from others’ pictures (which I won’t repeat) that the design is “edgy,” from the entry, to the furniture to the bathroom sinks.  Faux wood floors in the rooms, so bring your slippers.  Nice common area and work spaces downstairs.  I very much enjoyed my one-night family stay (two rooms).  The kids enjoyed the double beds and internet TV connection for Netflix and YouTube.  We enjoyed the king bed and extra large shower.  The staff was fantastic- so friendly and accommodating (callout to Sarah at the front desk).  Breakfast, while not cheap, was high quality.  From the fresh pressed juices, to the Nespresso drinks to the fish ingredients on the buffet and in the ala cart menu, which changes over time (one ala cart item free with the buffet).  As with other reviews, I find it a little frustrating that breakfast is not included with Gold membership.  If you go “up” in the Marriott chain (e.g. Marriott branded), breakfast is included for Marriott Gold members and “down” (Residence Inn branded), which provide breakfast to all.  There are several Marriott brands that fit in this middle ground, not just AC. To this property’s credit, they offer a $10 voucher per room (per person would be a nice standard), which can be applied to the $17 breakfast price tag. I also think it is awesome that GM Paul seems to reply to almost every post.  Not just the low ratings, like many hotels.  In your words, ¡Salud! Paul.The only three opportunities for improvement I experienced…1) I found it difficult to reach the front desk by phone.  It took seven tries over a couple of hours to get someone to answer.  2) Our room 525 was directly across from the “Associates Only” door access for the housekeeping crew and it slammed shut every time someone walked through.  Also near the elevator (while my profile requests room away from elevator).  Not a peaceful night.  Note that the windows do a great job of eliminating outside traffic noise.  3) I had used the Marriott app to request a couple of extra items for the room, and the request was not honored.  This was fixed immediately by the friendly staff once I pointed it out.The downsides are minor (and fixable!) compared to the upsides.  I would certainly stay at this property again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Paul M, General Manager at AC Hotel by Marriott Irvine, responded to this reviewResponded December 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 20, 2017</t>
+  </si>
+  <si>
+    <t>Really a fine hotel and nice addition to the area.  Modern, chic, mid-range, European-inspired hotel (where the AC brand sits).  Nice clean (both literally and figuratively) lobby and rooms.  You’ll see from others’ pictures (which I won’t repeat) that the design is “edgy,” from the entry, to the furniture to the bathroom sinks.  Faux wood floors in the rooms, so bring your slippers.  Nice common area and work spaces downstairs.  I very much enjoyed my one-night family stay (two rooms).  The kids enjoyed the double beds and internet TV connection for Netflix and YouTube.  We enjoyed the king bed and extra large shower.  The staff was fantastic- so friendly and accommodating (callout to Sarah at the front desk).  
+Breakfast, while not cheap, was high quality.  From the fresh pressed juices, to the Nespresso drinks to the fish ingredients on the buffet and in the ala cart menu, which changes over time (one ala cart item free with the buffet).  As with other reviews, I find it a little frustrating that breakfast is not included with Gold membership.  If you go “up” in the Marriott chain (e.g. Marriott branded), breakfast is included for Marriott Gold members and “down” (Residence Inn branded), which provide breakfast to all.  There are several Marriott brands that fit in this middle ground, not just AC. To this property’s credit, they offer a $10 voucher per room (per person would be a nice standard), which can be...Really a fine hotel and nice addition to the area.  Modern, chic, mid-range, European-inspired hotel (where the AC brand sits).  Nice clean (both literally and figuratively) lobby and rooms.  You’ll see from others’ pictures (which I won’t repeat) that the design is “edgy,” from the entry, to the furniture to the bathroom sinks.  Faux wood floors in the rooms, so bring your slippers.  Nice common area and work spaces downstairs.  I very much enjoyed my one-night family stay (two rooms).  The kids enjoyed the double beds and internet TV connection for Netflix and YouTube.  We enjoyed the king bed and extra large shower.  The staff was fantastic- so friendly and accommodating (callout to Sarah at the front desk).  Breakfast, while not cheap, was high quality.  From the fresh pressed juices, to the Nespresso drinks to the fish ingredients on the buffet and in the ala cart menu, which changes over time (one ala cart item free with the buffet).  As with other reviews, I find it a little frustrating that breakfast is not included with Gold membership.  If you go “up” in the Marriott chain (e.g. Marriott branded), breakfast is included for Marriott Gold members and “down” (Residence Inn branded), which provide breakfast to all.  There are several Marriott brands that fit in this middle ground, not just AC. To this property’s credit, they offer a $10 voucher per room (per person would be a nice standard), which can be applied to the $17 breakfast price tag. I also think it is awesome that GM Paul seems to reply to almost every post.  Not just the low ratings, like many hotels.  In your words, ¡Salud! Paul.The only three opportunities for improvement I experienced…1) I found it difficult to reach the front desk by phone.  It took seven tries over a couple of hours to get someone to answer.  2) Our room 525 was directly across from the “Associates Only” door access for the housekeeping crew and it slammed shut every time someone walked through.  Also near the elevator (while my profile requests room away from elevator).  Not a peaceful night.  Note that the windows do a great job of eliminating outside traffic noise.  3) I had used the Marriott app to request a couple of extra items for the room, and the request was not honored.  This was fixed immediately by the friendly staff once I pointed it out.The downsides are minor (and fixable!) compared to the upsides.  I would certainly stay at this property again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r543942094-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>543942094</t>
+  </si>
+  <si>
+    <t>11/28/2017</t>
+  </si>
+  <si>
+    <t>The AC Hotel is like the Virgin Airlines of hotels - modern, hip, well conceived.</t>
+  </si>
+  <si>
+    <t>The AC Hotel Hotel is a first class experience for a business trip or a short getaway with a loved one. You will find modern comforts you didn't know you needed but they thought of first. It is beautiful, elegant, and well designed from the rooms to the gym to the lobby area. They serve a European style breakfast complete with croissants. They staff are exceptionally well trained. I will stay here again and again.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>Paul M, General Manager at AC Hotel by Marriott Irvine, responded to this reviewResponded November 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 30, 2017</t>
+  </si>
+  <si>
+    <t>The AC Hotel Hotel is a first class experience for a business trip or a short getaway with a loved one. You will find modern comforts you didn't know you needed but they thought of first. It is beautiful, elegant, and well designed from the rooms to the gym to the lobby area. They serve a European style breakfast complete with croissants. They staff are exceptionally well trained. I will stay here again and again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r542252941-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>542252941</t>
+  </si>
+  <si>
+    <t>11/20/2017</t>
+  </si>
+  <si>
+    <t>A well thought out concept for millennial business travelers</t>
+  </si>
+  <si>
+    <t>This was my first stay in an AC Hotel by Marriott. As the chain is new to the US, I wasn’t sure what to expect. However, if this is indicative of the new direction Marriott is taking with its properties post-Starwood merger, I like where this is going, and I recommend this hotel. 
+The AC isn’t a luxury or budget property, as it straddles the price range. It’s heavy on European design (modern Spanish) with a very open lobby with lounge seating, a well-stocked bar, and open office seating. I spent the afternoon catching up on work in the lobby and enjoying a glass of Rijoca from Spain.
+The best way to describe AC Hotels is to think about aLoft and strip away the hyper color. The palette here is dark, modern, and clean. The rooms are unique in that they have hardwood laminate floors, leatherette couches/sleepers and elongated leatherette benches. They’re neither spartan nor luxurious, but the design was very appealing in addition to the layout. 
+There was a rooftop pool overlooking the patio that looked appealing and a nice gym as well. Walking past the conference rooms, they were very un-hotel like, which to me seemed much more appealing for being stuck in for an hour. 
+Staff were friendly and younger (again, think aLoft) and the hotel was very clean throughout. 
+Possibly the best part was breakfast. AC’s offer a tapas style breakfast with a wide range of...This was my first stay in an AC Hotel by Marriott. As the chain is new to the US, I wasn’t sure what to expect. However, if this is indicative of the new direction Marriott is taking with its properties post-Starwood merger, I like where this is going, and I recommend this hotel. The AC isn’t a luxury or budget property, as it straddles the price range. It’s heavy on European design (modern Spanish) with a very open lobby with lounge seating, a well-stocked bar, and open office seating. I spent the afternoon catching up on work in the lobby and enjoying a glass of Rijoca from Spain.The best way to describe AC Hotels is to think about aLoft and strip away the hyper color. The palette here is dark, modern, and clean. The rooms are unique in that they have hardwood laminate floors, leatherette couches/sleepers and elongated leatherette benches. They’re neither spartan nor luxurious, but the design was very appealing in addition to the layout. There was a rooftop pool overlooking the patio that looked appealing and a nice gym as well. Walking past the conference rooms, they were very un-hotel like, which to me seemed much more appealing for being stuck in for an hour. Staff were friendly and younger (again, think aLoft) and the hotel was very clean throughout. Possibly the best part was breakfast. AC’s offer a tapas style breakfast with a wide range of beverages (espresso, ice coffee, cold-pressed juice), freshly cut Iberico ham, and European faire. They also offer avocado toast options for an additional $10. The food was excellent and a great way to start a long day of traveling. The only downside is that as a Gold Marriott Rewards member, it’s not free with your status. You can go up (JW Marriott) and down (Fairfield Suites) the Marriott hierarchy and receive a free breakfast (with a reciprocating scale of quality) and it remains free – not so with the AC. However, for what I received, it was worth the $20 I paid.I really enjoyed the AC hotel concept, whether it is for short or extended stays, even if you’re unable to maximize your Gold Rewards benefits at this concept.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>Paul M, General Manager at AC Hotel by Marriott Irvine, responded to this reviewResponded November 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 27, 2017</t>
+  </si>
+  <si>
+    <t>This was my first stay in an AC Hotel by Marriott. As the chain is new to the US, I wasn’t sure what to expect. However, if this is indicative of the new direction Marriott is taking with its properties post-Starwood merger, I like where this is going, and I recommend this hotel. 
+The AC isn’t a luxury or budget property, as it straddles the price range. It’s heavy on European design (modern Spanish) with a very open lobby with lounge seating, a well-stocked bar, and open office seating. I spent the afternoon catching up on work in the lobby and enjoying a glass of Rijoca from Spain.
+The best way to describe AC Hotels is to think about aLoft and strip away the hyper color. The palette here is dark, modern, and clean. The rooms are unique in that they have hardwood laminate floors, leatherette couches/sleepers and elongated leatherette benches. They’re neither spartan nor luxurious, but the design was very appealing in addition to the layout. 
+There was a rooftop pool overlooking the patio that looked appealing and a nice gym as well. Walking past the conference rooms, they were very un-hotel like, which to me seemed much more appealing for being stuck in for an hour. 
+Staff were friendly and younger (again, think aLoft) and the hotel was very clean throughout. 
+Possibly the best part was breakfast. AC’s offer a tapas style breakfast with a wide range of...This was my first stay in an AC Hotel by Marriott. As the chain is new to the US, I wasn’t sure what to expect. However, if this is indicative of the new direction Marriott is taking with its properties post-Starwood merger, I like where this is going, and I recommend this hotel. The AC isn’t a luxury or budget property, as it straddles the price range. It’s heavy on European design (modern Spanish) with a very open lobby with lounge seating, a well-stocked bar, and open office seating. I spent the afternoon catching up on work in the lobby and enjoying a glass of Rijoca from Spain.The best way to describe AC Hotels is to think about aLoft and strip away the hyper color. The palette here is dark, modern, and clean. The rooms are unique in that they have hardwood laminate floors, leatherette couches/sleepers and elongated leatherette benches. They’re neither spartan nor luxurious, but the design was very appealing in addition to the layout. There was a rooftop pool overlooking the patio that looked appealing and a nice gym as well. Walking past the conference rooms, they were very un-hotel like, which to me seemed much more appealing for being stuck in for an hour. Staff were friendly and younger (again, think aLoft) and the hotel was very clean throughout. Possibly the best part was breakfast. AC’s offer a tapas style breakfast with a wide range of beverages (espresso, ice coffee, cold-pressed juice), freshly cut Iberico ham, and European faire. They also offer avocado toast options for an additional $10. The food was excellent and a great way to start a long day of traveling. The only downside is that as a Gold Marriott Rewards member, it’s not free with your status. You can go up (JW Marriott) and down (Fairfield Suites) the Marriott hierarchy and receive a free breakfast (with a reciprocating scale of quality) and it remains free – not so with the AC. However, for what I received, it was worth the $20 I paid.I really enjoyed the AC hotel concept, whether it is for short or extended stays, even if you’re unable to maximize your Gold Rewards benefits at this concept.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r542235913-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>542235913</t>
+  </si>
+  <si>
+    <t>Great new Hotel - amazing service</t>
+  </si>
+  <si>
+    <t>My girlfriend and I spent two nights there while on vacation in southern California last August. Conveniently located to venture out Laguna or Huntington beaches and close by many offices, the hotel has a warm atmosphere with very clean, comfy and spacious well equiped rooms and excellent facilities (fitness, swimming pool, bar...). Most of all Staff provides top-notch service and makes you feel at home (especially the night audit Jason!) I highly recommend AC Irvine whether for business or leisure!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Paul M, General Manager at AC Hotel by Marriott Irvine, responded to this reviewResponded November 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 22, 2017</t>
+  </si>
+  <si>
+    <t>My girlfriend and I spent two nights there while on vacation in southern California last August. Conveniently located to venture out Laguna or Huntington beaches and close by many offices, the hotel has a warm atmosphere with very clean, comfy and spacious well equiped rooms and excellent facilities (fitness, swimming pool, bar...). Most of all Staff provides top-notch service and makes you feel at home (especially the night audit Jason!) I highly recommend AC Irvine whether for business or leisure!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r538172791-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>538172791</t>
+  </si>
+  <si>
+    <t>11/03/2017</t>
+  </si>
+  <si>
+    <t>Good times!</t>
+  </si>
+  <si>
+    <t>Ever want that feeling when you’re entering a hotel like you just walked into your mom’s house for Christmas? Well that’s what this felt like when I walked in and was greeted with the warm, hospitable, soothing smiles and welcome of Adam and Claire! They are well-rounded, respectful and delightful front desk personnel and they do a fantastic job of representing this very elegant hotel!I tip my hat to them and I thank them for their inviting aura, I’ll definitely be back soon!MoreShow less</t>
+  </si>
+  <si>
+    <t>Paul M, General Manager at AC Hotel by Marriott Irvine, responded to this reviewResponded November 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 6, 2017</t>
+  </si>
+  <si>
+    <t>Ever want that feeling when you’re entering a hotel like you just walked into your mom’s house for Christmas? Well that’s what this felt like when I walked in and was greeted with the warm, hospitable, soothing smiles and welcome of Adam and Claire! They are well-rounded, respectful and delightful front desk personnel and they do a fantastic job of representing this very elegant hotel!I tip my hat to them and I thank them for their inviting aura, I’ll definitely be back soon!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r536162481-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>536162481</t>
+  </si>
+  <si>
+    <t>10/26/2017</t>
+  </si>
+  <si>
+    <t>5 stars for Devin</t>
+  </si>
+  <si>
+    <t>5 stars to Devin at the front desk. Very professional and very prompt. We had a few special requests for our stay and he went above and beyond our expectations.  We can't thank him enough. Construction all around area.. traffic.. but his commitment to us was 5 stars and deserves the highest compliment. Thank you big time Devin for making sure our room was reserved and ready ahead of time. Myself and my wife couldn't feel more welcomed when we arrived. You are top notch. MoreShow less</t>
+  </si>
+  <si>
+    <t>Paul M, General Manager at AC Hotel by Marriott Irvine, responded to this reviewResponded October 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 27, 2017</t>
+  </si>
+  <si>
+    <t>5 stars to Devin at the front desk. Very professional and very prompt. We had a few special requests for our stay and he went above and beyond our expectations.  We can't thank him enough. Construction all around area.. traffic.. but his commitment to us was 5 stars and deserves the highest compliment. Thank you big time Devin for making sure our room was reserved and ready ahead of time. Myself and my wife couldn't feel more welcomed when we arrived. You are top notch. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r536016977-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>536016977</t>
+  </si>
+  <si>
+    <t>10/25/2017</t>
+  </si>
+  <si>
+    <t>Fantastic Property in Irvine</t>
+  </si>
+  <si>
+    <t>My family and I recently spent the weekend here and have found our new favorite in Irvine!  The entire hotel is modern, lively, and warm.  The beds are perhaps the most comfortable of any hotel in which I've stayed.  Great dining options a few steps away as we ate at North Italia, Wahoos, and Panini Grill during our stay.  Particular thanks to Claire and Devin, who both went above and beyond for us throughout our stay.  See you again soon!MoreShow less</t>
+  </si>
+  <si>
+    <t>My family and I recently spent the weekend here and have found our new favorite in Irvine!  The entire hotel is modern, lively, and warm.  The beds are perhaps the most comfortable of any hotel in which I've stayed.  Great dining options a few steps away as we ate at North Italia, Wahoos, and Panini Grill during our stay.  Particular thanks to Claire and Devin, who both went above and beyond for us throughout our stay.  See you again soon!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r535820887-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>535820887</t>
+  </si>
+  <si>
+    <t>10/24/2017</t>
+  </si>
+  <si>
+    <t>Hotel is in a great location with shops and restaurants within walking distance. The rooms have a European flare with hardwood floors, comfortable beds, great amenities, cold refrigerators, and Italian coffee packets. The staff is also very friendly, helpful, and accommodating. We had exceptional customer service from Claire at the front desk. She checked us in quickly and efficiently, always smiled and acknowledged us when we entered the hotel, and truly made us feel welcome. We will definitely visit this hotel again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Hotel is in a great location with shops and restaurants within walking distance. The rooms have a European flare with hardwood floors, comfortable beds, great amenities, cold refrigerators, and Italian coffee packets. The staff is also very friendly, helpful, and accommodating. We had exceptional customer service from Claire at the front desk. She checked us in quickly and efficiently, always smiled and acknowledged us when we entered the hotel, and truly made us feel welcome. We will definitely visit this hotel again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r532364232-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>532364232</t>
+  </si>
+  <si>
+    <t>10/12/2017</t>
+  </si>
+  <si>
+    <t>(Mostly) Great Experience</t>
+  </si>
+  <si>
+    <t>This was my first time staying at an AC property after years of Marriott stays, from Courtyards to JWs. 
+First impressions are great. Clean, modern and simple designed lobby area that is visually appealing and efficient. I am a big fan of not having to search for the front desk, elevators and restaurant (especially after a long day of travel) and all of that is readily apparent once you walk in.
+The rooms follow this same model. Clean, with modern finishes and a warm color palette that smooths out what could be a cold and industrial feel (lots of sharp edges and hard surfaces). But it definitely works. Lots of electrical outlets in places that make sense, meaning that you don't have to unplug things to make room for your devices.
+I am also a big fan of the interactive television that allows you to sync your Pandora, Netflix, Hulu, YouTube and Crackle accounts. This really helps me feel like I am home, and I don't understand why more hotels don't offer this. It is a great amenity that shows attention to detail and that Marriott understands their customer.
+The bed is extremely comfortable and hits that sweet spot for those of us who are particular about mattress firmness. Plus the linens are higher thread count and amazing.
+Here is where I think this property misses--the breakfast. I am a pretty seasoned traveler, but I was confused, and then disappointed,...This was my first time staying at an AC property after years of Marriott stays, from Courtyards to JWs. First impressions are great. Clean, modern and simple designed lobby area that is visually appealing and efficient. I am a big fan of not having to search for the front desk, elevators and restaurant (especially after a long day of travel) and all of that is readily apparent once you walk in.The rooms follow this same model. Clean, with modern finishes and a warm color palette that smooths out what could be a cold and industrial feel (lots of sharp edges and hard surfaces). But it definitely works. Lots of electrical outlets in places that make sense, meaning that you don't have to unplug things to make room for your devices.I am also a big fan of the interactive television that allows you to sync your Pandora, Netflix, Hulu, YouTube and Crackle accounts. This really helps me feel like I am home, and I don't understand why more hotels don't offer this. It is a great amenity that shows attention to detail and that Marriott understands their customer.The bed is extremely comfortable and hits that sweet spot for those of us who are particular about mattress firmness. Plus the linens are higher thread count and amazing.Here is where I think this property misses--the breakfast. I am a pretty seasoned traveler, but I was confused, and then disappointed, by the breakfast experience. They offer a series of small plates, cheeses, yogurt, quiches, fruit ,etc. Which is fine, and I am normally a fan of this type of approach. But when I arrived at 8 AM, most everything was gone. There was one piece of brie (which was delicious), bulk and cups of yogurt, breads and some assorted leftovers of fruit. I was looking around for staff and was promptly ignored by the two waitstaff that were working. Once I flagged one of them down, he showed me the a la carte menu where you could order two different type of egg dishes. Perfect. That's exactly what I needed, so I ordered the first option, and enjoyed the (quite delicious) coffee and some fruit and yogurt. 20 minutes later I was ready to leave, and the waiter returned to ask me if I wanted option 1 or option 2 off the a la carte menu. Not sure what happened, maybe it was an off day, but this didn't fit in to the rest of my AC experience.Finally, although I was lucky each day, parking can be a challenge. A limited number of spots are right in front of the hotel, with the bulk of the spots being in a parking garage across the street. Not an issue for me, but something to plan for.If I remove my breakfast experience, this is an amazingly simple and elegant property that is clean, visually appealing and really shows that Marriott understands their customer and how we travel. I hope they can smooth out the service issues in the restaurant which would really enhance an already pretty amazing experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>Paul M, General Manager at AC Hotel by Marriott Irvine, responded to this reviewResponded October 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 17, 2017</t>
+  </si>
+  <si>
+    <t>This was my first time staying at an AC property after years of Marriott stays, from Courtyards to JWs. 
+First impressions are great. Clean, modern and simple designed lobby area that is visually appealing and efficient. I am a big fan of not having to search for the front desk, elevators and restaurant (especially after a long day of travel) and all of that is readily apparent once you walk in.
+The rooms follow this same model. Clean, with modern finishes and a warm color palette that smooths out what could be a cold and industrial feel (lots of sharp edges and hard surfaces). But it definitely works. Lots of electrical outlets in places that make sense, meaning that you don't have to unplug things to make room for your devices.
+I am also a big fan of the interactive television that allows you to sync your Pandora, Netflix, Hulu, YouTube and Crackle accounts. This really helps me feel like I am home, and I don't understand why more hotels don't offer this. It is a great amenity that shows attention to detail and that Marriott understands their customer.
+The bed is extremely comfortable and hits that sweet spot for those of us who are particular about mattress firmness. Plus the linens are higher thread count and amazing.
+Here is where I think this property misses--the breakfast. I am a pretty seasoned traveler, but I was confused, and then disappointed,...This was my first time staying at an AC property after years of Marriott stays, from Courtyards to JWs. First impressions are great. Clean, modern and simple designed lobby area that is visually appealing and efficient. I am a big fan of not having to search for the front desk, elevators and restaurant (especially after a long day of travel) and all of that is readily apparent once you walk in.The rooms follow this same model. Clean, with modern finishes and a warm color palette that smooths out what could be a cold and industrial feel (lots of sharp edges and hard surfaces). But it definitely works. Lots of electrical outlets in places that make sense, meaning that you don't have to unplug things to make room for your devices.I am also a big fan of the interactive television that allows you to sync your Pandora, Netflix, Hulu, YouTube and Crackle accounts. This really helps me feel like I am home, and I don't understand why more hotels don't offer this. It is a great amenity that shows attention to detail and that Marriott understands their customer.The bed is extremely comfortable and hits that sweet spot for those of us who are particular about mattress firmness. Plus the linens are higher thread count and amazing.Here is where I think this property misses--the breakfast. I am a pretty seasoned traveler, but I was confused, and then disappointed, by the breakfast experience. They offer a series of small plates, cheeses, yogurt, quiches, fruit ,etc. Which is fine, and I am normally a fan of this type of approach. But when I arrived at 8 AM, most everything was gone. There was one piece of brie (which was delicious), bulk and cups of yogurt, breads and some assorted leftovers of fruit. I was looking around for staff and was promptly ignored by the two waitstaff that were working. Once I flagged one of them down, he showed me the a la carte menu where you could order two different type of egg dishes. Perfect. That's exactly what I needed, so I ordered the first option, and enjoyed the (quite delicious) coffee and some fruit and yogurt. 20 minutes later I was ready to leave, and the waiter returned to ask me if I wanted option 1 or option 2 off the a la carte menu. Not sure what happened, maybe it was an off day, but this didn't fit in to the rest of my AC experience.Finally, although I was lucky each day, parking can be a challenge. A limited number of spots are right in front of the hotel, with the bulk of the spots being in a parking garage across the street. Not an issue for me, but something to plan for.If I remove my breakfast experience, this is an amazingly simple and elegant property that is clean, visually appealing and really shows that Marriott understands their customer and how we travel. I hope they can smooth out the service issues in the restaurant which would really enhance an already pretty amazing experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r529948085-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>529948085</t>
+  </si>
+  <si>
+    <t>10/04/2017</t>
+  </si>
+  <si>
+    <t>Stylish business hotel</t>
+  </si>
+  <si>
+    <t>New property in a vibrant newer area with lots of dining choices.  Huge LA Fitness across the street.  Hotel style leans toward Euro minimalist but adds some nice touches along the way.  Lobby bar was busy, breakfast buffet had few options but was good and reasonably priced.  Rooms were decent size with a shower only bathroom.  Bed was comfortable, room had a small fridge with cold water and a room safe. Parking is limited onsite but they have rights at a very nearby garage.  Room lacks a clock, which was a problem for me. MoreShow less</t>
+  </si>
+  <si>
+    <t>Paul M, General Manager at AC Hotel by Marriott Irvine, responded to this reviewResponded October 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 9, 2017</t>
+  </si>
+  <si>
+    <t>New property in a vibrant newer area with lots of dining choices.  Huge LA Fitness across the street.  Hotel style leans toward Euro minimalist but adds some nice touches along the way.  Lobby bar was busy, breakfast buffet had few options but was good and reasonably priced.  Rooms were decent size with a shower only bathroom.  Bed was comfortable, room had a small fridge with cold water and a room safe. Parking is limited onsite but they have rights at a very nearby garage.  Room lacks a clock, which was a problem for me. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r528156110-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>528156110</t>
+  </si>
+  <si>
+    <t>09/28/2017</t>
+  </si>
+  <si>
+    <t>Simple &amp; elegant. The coolest combination, plus very good service.</t>
+  </si>
+  <si>
+    <t>AC surprise you from the beginning. Its architecture simple from outside, elegant inside. Just the right thing in the right place. A cozy and nice bar and lobby, spacious room, great bed, nice bathroom. No more and no less you need, just simple, elegant and practical.The fitness center is ok, small but ok, have some kettlebells, a couple of walking machines and bicycles. The service at the reception is efficient! Adam in less than 3 minutes made my check-in, all the time with a smile and professional.Also, the breakfast is good: two options (both good), good quality products, good price, great service.I fully recommend this hotel for business. You have a Starbucks and a good restaurant (North Italy)  just across the street.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Paul M, General Manager at AC Hotel by Marriott Irvine, responded to this reviewResponded September 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 29, 2017</t>
+  </si>
+  <si>
+    <t>AC surprise you from the beginning. Its architecture simple from outside, elegant inside. Just the right thing in the right place. A cozy and nice bar and lobby, spacious room, great bed, nice bathroom. No more and no less you need, just simple, elegant and practical.The fitness center is ok, small but ok, have some kettlebells, a couple of walking machines and bicycles. The service at the reception is efficient! Adam in less than 3 minutes made my check-in, all the time with a smile and professional.Also, the breakfast is good: two options (both good), good quality products, good price, great service.I fully recommend this hotel for business. You have a Starbucks and a good restaurant (North Italy)  just across the street.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r526365877-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>526365877</t>
+  </si>
+  <si>
+    <t>09/21/2017</t>
+  </si>
+  <si>
+    <t>vacation stop</t>
+  </si>
+  <si>
+    <t>My girlfriend and I spent one night at your hotel during our tour of California, and had a fantastic visit at the hotel! Our stay was made memorable by the hospitality and service displayed your staff, particularly by Devin Toussaint. Devin went out of his way to make our stay enjoyable, personally checking to make sure our room was ready and available since we had an early check in time. He had a terrific attitude throughout our short stay, and a pleasure to meet! I don't usually send reviews, but I thought his service was noteworthy, thanks Devin!MoreShow less</t>
+  </si>
+  <si>
+    <t>Paul M, General Manager at AC Hotel by Marriott Irvine, responded to this reviewResponded September 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 22, 2017</t>
+  </si>
+  <si>
+    <t>My girlfriend and I spent one night at your hotel during our tour of California, and had a fantastic visit at the hotel! Our stay was made memorable by the hospitality and service displayed your staff, particularly by Devin Toussaint. Devin went out of his way to make our stay enjoyable, personally checking to make sure our room was ready and available since we had an early check in time. He had a terrific attitude throughout our short stay, and a pleasure to meet! I don't usually send reviews, but I thought his service was noteworthy, thanks Devin!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r525508854-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>525508854</t>
+  </si>
+  <si>
+    <t>09/18/2017</t>
+  </si>
+  <si>
+    <t>Amazing overall</t>
+  </si>
+  <si>
+    <t>I live in orange county. Recently we had water damage to our home. Our insurance set us up to stay at this hotel. We had an absolutely amazing time. We were here for over a month and became friends with all of the staff. Everyone was more than amazing. Every single need that we had was mad and we were taking care of with absolute respect on every level. Even when we had questions about things, we received answers and help with everything. Jeannette, Fred, Clinton, Milton, and Ruben were all more than helpful and eager to get me going on my day with breakfast ready for me every morning that I came down. Chris, Adam, Claire, Triston, Jason, Vanessa were some of the nicest and most helpful people that we could've asked for during our stay. They were always willing to help out and get things ready for us if we needed things changed or taken care of. We went to the bar at the hotel multiple times and were constantly greeted by Louis..... i'm not only was an incredible bartender with many of his own specialty drinks, but the attitude of someone that is Beyond friendly and willing to make anything you ask for. Overall we couldn't avast for a better experience, the people there are more than kind and helpful. Management has certainly done a great job in choosing their employees. I would highly recommend this hotel...I live in orange county. Recently we had water damage to our home. Our insurance set us up to stay at this hotel. We had an absolutely amazing time. We were here for over a month and became friends with all of the staff. Everyone was more than amazing. Every single need that we had was mad and we were taking care of with absolute respect on every level. Even when we had questions about things, we received answers and help with everything. Jeannette, Fred, Clinton, Milton, and Ruben were all more than helpful and eager to get me going on my day with breakfast ready for me every morning that I came down. Chris, Adam, Claire, Triston, Jason, Vanessa were some of the nicest and most helpful people that we could've asked for during our stay. They were always willing to help out and get things ready for us if we needed things changed or taken care of. We went to the bar at the hotel multiple times and were constantly greeted by Louis..... i'm not only was an incredible bartender with many of his own specialty drinks, but the attitude of someone that is Beyond friendly and willing to make anything you ask for. Overall we couldn't avast for a better experience, the people there are more than kind and helpful. Management has certainly done a great job in choosing their employees. I would highly recommend this hotel to anyone that is looking to stay in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Paul M, General Manager at AC Hotel by Marriott Irvine, responded to this reviewResponded September 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 19, 2017</t>
+  </si>
+  <si>
+    <t>I live in orange county. Recently we had water damage to our home. Our insurance set us up to stay at this hotel. We had an absolutely amazing time. We were here for over a month and became friends with all of the staff. Everyone was more than amazing. Every single need that we had was mad and we were taking care of with absolute respect on every level. Even when we had questions about things, we received answers and help with everything. Jeannette, Fred, Clinton, Milton, and Ruben were all more than helpful and eager to get me going on my day with breakfast ready for me every morning that I came down. Chris, Adam, Claire, Triston, Jason, Vanessa were some of the nicest and most helpful people that we could've asked for during our stay. They were always willing to help out and get things ready for us if we needed things changed or taken care of. We went to the bar at the hotel multiple times and were constantly greeted by Louis..... i'm not only was an incredible bartender with many of his own specialty drinks, but the attitude of someone that is Beyond friendly and willing to make anything you ask for. Overall we couldn't avast for a better experience, the people there are more than kind and helpful. Management has certainly done a great job in choosing their employees. I would highly recommend this hotel...I live in orange county. Recently we had water damage to our home. Our insurance set us up to stay at this hotel. We had an absolutely amazing time. We were here for over a month and became friends with all of the staff. Everyone was more than amazing. Every single need that we had was mad and we were taking care of with absolute respect on every level. Even when we had questions about things, we received answers and help with everything. Jeannette, Fred, Clinton, Milton, and Ruben were all more than helpful and eager to get me going on my day with breakfast ready for me every morning that I came down. Chris, Adam, Claire, Triston, Jason, Vanessa were some of the nicest and most helpful people that we could've asked for during our stay. They were always willing to help out and get things ready for us if we needed things changed or taken care of. We went to the bar at the hotel multiple times and were constantly greeted by Louis..... i'm not only was an incredible bartender with many of his own specialty drinks, but the attitude of someone that is Beyond friendly and willing to make anything you ask for. Overall we couldn't avast for a better experience, the people there are more than kind and helpful. Management has certainly done a great job in choosing their employees. I would highly recommend this hotel to anyone that is looking to stay in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r525267891-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>525267891</t>
+  </si>
+  <si>
+    <t>09/17/2017</t>
+  </si>
+  <si>
+    <t>Personalised to the Max</t>
+  </si>
+  <si>
+    <t>We received both a personalised welcome from Claire, who welcomed back my friend who booked our room at this hotel, and a personalised check-in from Adam who manned the front desk in catering to our special requests.MoreShow less</t>
+  </si>
+  <si>
+    <t>Paul M, General Manager at AC Hotel by Marriott Irvine, responded to this reviewResponded September 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 18, 2017</t>
+  </si>
+  <si>
+    <t>We received both a personalised welcome from Claire, who welcomed back my friend who booked our room at this hotel, and a personalised check-in from Adam who manned the front desk in catering to our special requests.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r521502157-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>521502157</t>
+  </si>
+  <si>
+    <t>09/05/2017</t>
+  </si>
+  <si>
+    <t>Clean, modern and quiet !</t>
+  </si>
+  <si>
+    <t>European style hotel. Pretty new, walking distance to many restaurants and 5 min form the SNA airport.The breakfast was great. The only negative is the parking, beside only a handful in the front, you have to use the Retail parking structure and carry your luggage back and forth. Beside that a great stay, will stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Paul M, General Manager at AC Hotel by Marriott Irvine, responded to this reviewResponded September 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 6, 2017</t>
+  </si>
+  <si>
+    <t>European style hotel. Pretty new, walking distance to many restaurants and 5 min form the SNA airport.The breakfast was great. The only negative is the parking, beside only a handful in the front, you have to use the Retail parking structure and carry your luggage back and forth. Beside that a great stay, will stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r520366242-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>520366242</t>
+  </si>
+  <si>
+    <t>09/01/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A night away from our lovely kids </t>
+  </si>
+  <si>
+    <t>Took the night for the wife and I to go to dinner and stay overnight  found this new Hotel  on my Marriott  app  and booked  was very pleased with the front desk GIRLS  there customer service was awesome  very helpful and sweet and went out of there way to tell us all about the hotel and bar, food and near by restaurants  . The room was very nice and bed was very  confortable and the room was very clean am very pleased with the service of the front desk claire and  vaenssa  was wonderful I would  highly recommend this hotel and stay again. MoreShow less</t>
+  </si>
+  <si>
+    <t>Paul M, General Manager at AC Hotel by Marriott Irvine, responded to this reviewResponded September 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 5, 2017</t>
+  </si>
+  <si>
+    <t>Took the night for the wife and I to go to dinner and stay overnight  found this new Hotel  on my Marriott  app  and booked  was very pleased with the front desk GIRLS  there customer service was awesome  very helpful and sweet and went out of there way to tell us all about the hotel and bar, food and near by restaurants  . The room was very nice and bed was very  confortable and the room was very clean am very pleased with the service of the front desk claire and  vaenssa  was wonderful I would  highly recommend this hotel and stay again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r518588366-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>518588366</t>
+  </si>
+  <si>
+    <t>08/28/2017</t>
+  </si>
+  <si>
+    <t>Awesome new hotel in Orange County to the Marriott brand!</t>
+  </si>
+  <si>
+    <t>I had the opportunity to stay at this amazing Marriott property when my friend visiting from Portland, OR. Friendly and amazing staff when you first walk in. Had lunch right across the street at North ITALIA.... But plenty of options around the area. Though I highly recommend enjoying the hip and sexy bar in the lobby for both food and beverage. Both Luis and Sarah there are exceptional!!!! Their Swedish Fish cocktail is worth the experience.... Though Luis is always able to create an exceptional cocktail based on your liquor preference. Small tapas style food that are outstanding! Make sure to experience the "European Style" breakfast buffet! Cured fresh prosciutto sliced right there fresh..... Quiches, cheeses, homemade buttery croissants.... Exceptional!Make sure to introduce yourself to the Hotel's General Manager, Paul. He's a wealth of knowledge and can share with you key points of interest while visiting!Thank you AC Irvine Hotel by Marriott! I'll be back!MoreShow less</t>
+  </si>
+  <si>
+    <t>Paul M, General Manager at AC Hotel by Marriott Irvine, responded to this reviewResponded August 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 29, 2017</t>
+  </si>
+  <si>
+    <t>I had the opportunity to stay at this amazing Marriott property when my friend visiting from Portland, OR. Friendly and amazing staff when you first walk in. Had lunch right across the street at North ITALIA.... But plenty of options around the area. Though I highly recommend enjoying the hip and sexy bar in the lobby for both food and beverage. Both Luis and Sarah there are exceptional!!!! Their Swedish Fish cocktail is worth the experience.... Though Luis is always able to create an exceptional cocktail based on your liquor preference. Small tapas style food that are outstanding! Make sure to experience the "European Style" breakfast buffet! Cured fresh prosciutto sliced right there fresh..... Quiches, cheeses, homemade buttery croissants.... Exceptional!Make sure to introduce yourself to the Hotel's General Manager, Paul. He's a wealth of knowledge and can share with you key points of interest while visiting!Thank you AC Irvine Hotel by Marriott! I'll be back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r516875697-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>516875697</t>
+  </si>
+  <si>
+    <t>08/23/2017</t>
+  </si>
+  <si>
+    <t>EXCELLENT CUSTOMER SERVICE! Claire Rocks!</t>
+  </si>
+  <si>
+    <t>Claire is hands down the best! She answered all of my questions and gave me the best directions. A+!If you have any questions about the surrounding areas, where to surf and what to do Claire knows. The hotel is great and the location is well placed.MoreShow less</t>
+  </si>
+  <si>
+    <t>Paul M, General Manager at AC Hotel by Marriott Irvine, responded to this reviewResponded August 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 24, 2017</t>
+  </si>
+  <si>
+    <t>Claire is hands down the best! She answered all of my questions and gave me the best directions. A+!If you have any questions about the surrounding areas, where to surf and what to do Claire knows. The hotel is great and the location is well placed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r516671717-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>516671717</t>
+  </si>
+  <si>
+    <t>Great location</t>
+  </si>
+  <si>
+    <t>Excellent venue with European feelSuperb guest room with quality furnishings including bathroom fixtures Outstanding continental breakfast Tremendous staff throughout 10 minutes from John Wayne airport Walking distance to several quality restaurantsMoreShow less</t>
+  </si>
+  <si>
+    <t>Excellent venue with European feelSuperb guest room with quality furnishings including bathroom fixtures Outstanding continental breakfast Tremendous staff throughout 10 minutes from John Wayne airport Walking distance to several quality restaurantsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r516459123-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>516459123</t>
+  </si>
+  <si>
+    <t>08/22/2017</t>
+  </si>
+  <si>
+    <t>AC HOTEL BY MARRIOTT  IRVINE THE BEST HOTEL IN ORANGE COUNTY.</t>
+  </si>
+  <si>
+    <t>AC HOTEL BY MARRIOTT IRVINE THE BEST HOTEL IN ORANGE COUNTY.This is the best hotel to relax, de-stress, place to achieve harmony and peace of mind and body, after much work, whether your business or family stay, excellent hotel in every way, everything has at the service of Guest.It has super clean rooms, clean bathrooms, clean beds, totally clean everything and its European style rooms, best for sleeping.Its location makes it unique, nearby shops for shopping, eating, dancing, and gym to be able to go exercise. Just a few minutes away is John Wayne Airport, so you can get there or leave your destination quickly.This hotel offers excellent comonities;Gym, swimming pool, European style bar, excellent drinks, restaurant, meeting rooms, and office work area (Mac computer, printer)AC HOTEL BY MARRIOTT IRVINE the best hotel in orange county.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Paul M, General Manager at AC Hotel by Marriott Irvine, responded to this reviewResponded August 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 23, 2017</t>
+  </si>
+  <si>
+    <t>AC HOTEL BY MARRIOTT IRVINE THE BEST HOTEL IN ORANGE COUNTY.This is the best hotel to relax, de-stress, place to achieve harmony and peace of mind and body, after much work, whether your business or family stay, excellent hotel in every way, everything has at the service of Guest.It has super clean rooms, clean bathrooms, clean beds, totally clean everything and its European style rooms, best for sleeping.Its location makes it unique, nearby shops for shopping, eating, dancing, and gym to be able to go exercise. Just a few minutes away is John Wayne Airport, so you can get there or leave your destination quickly.This hotel offers excellent comonities;Gym, swimming pool, European style bar, excellent drinks, restaurant, meeting rooms, and office work area (Mac computer, printer)AC HOTEL BY MARRIOTT IRVINE the best hotel in orange county.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r514459701-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>514459701</t>
+  </si>
+  <si>
+    <t>08/17/2017</t>
+  </si>
+  <si>
+    <t>AC - Absolutely Cheap</t>
+  </si>
+  <si>
+    <t>Stayed here for first time and was Excited to try an AC property for the first time. Upon approach it's a very industrial and plain looking building. I think only four rooms have balconies and the rest of the hotel is very stark, kind of prison like. As a platinum member I was hoping I would Get a room with a balcony but that wasn't the case. In fact the only perk of being a platinum member here was $10 to spend on their overpriced breakfast... $19 to serve yourself coffee, fruit, cheese, quiche and yogurt. There's a server who mans everything but definitely a do it yourself place yet they still want a tip!  
+Rooms very stark - brown wood floors, brown wallpaper, gray curtains, and white bedding. They do have a coffee maker and fridge. No robes. And over a three night period, toiletries never replenished. Fitness room small but clean and has big windows overlooking their small second floor pool. 
+Customer service ... less than average. I had to request upgrade, they never explained parking ( garage is a five minute walk and is $20 per night). No valet or bellman. I asked them to fax papers for me. When I came to pick up fax next day, they had thrown it away. I think they hired staff based on their youth vs their hospitality experience. 
+Overall a disappointing experience...blah rooms, blah service and a feeling of...Stayed here for first time and was Excited to try an AC property for the first time. Upon approach it's a very industrial and plain looking building. I think only four rooms have balconies and the rest of the hotel is very stark, kind of prison like. As a platinum member I was hoping I would Get a room with a balcony but that wasn't the case. In fact the only perk of being a platinum member here was $10 to spend on their overpriced breakfast... $19 to serve yourself coffee, fruit, cheese, quiche and yogurt. There's a server who mans everything but definitely a do it yourself place yet they still want a tip!  Rooms very stark - brown wood floors, brown wallpaper, gray curtains, and white bedding. They do have a coffee maker and fridge. No robes. And over a three night period, toiletries never replenished. Fitness room small but clean and has big windows overlooking their small second floor pool. Customer service ... less than average. I had to request upgrade, they never explained parking ( garage is a five minute walk and is $20 per night). No valet or bellman. I asked them to fax papers for me. When I came to pick up fax next day, they had thrown it away. I think they hired staff based on their youth vs their hospitality experience. Overall a disappointing experience...blah rooms, blah service and a feeling of cheapness when it comes to the customers.MoreShow less</t>
+  </si>
+  <si>
+    <t>Paul M, General Manager at AC Hotel by Marriott Irvine, responded to this reviewResponded August 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 19, 2017</t>
+  </si>
+  <si>
+    <t>Stayed here for first time and was Excited to try an AC property for the first time. Upon approach it's a very industrial and plain looking building. I think only four rooms have balconies and the rest of the hotel is very stark, kind of prison like. As a platinum member I was hoping I would Get a room with a balcony but that wasn't the case. In fact the only perk of being a platinum member here was $10 to spend on their overpriced breakfast... $19 to serve yourself coffee, fruit, cheese, quiche and yogurt. There's a server who mans everything but definitely a do it yourself place yet they still want a tip!  
+Rooms very stark - brown wood floors, brown wallpaper, gray curtains, and white bedding. They do have a coffee maker and fridge. No robes. And over a three night period, toiletries never replenished. Fitness room small but clean and has big windows overlooking their small second floor pool. 
+Customer service ... less than average. I had to request upgrade, they never explained parking ( garage is a five minute walk and is $20 per night). No valet or bellman. I asked them to fax papers for me. When I came to pick up fax next day, they had thrown it away. I think they hired staff based on their youth vs their hospitality experience. 
+Overall a disappointing experience...blah rooms, blah service and a feeling of...Stayed here for first time and was Excited to try an AC property for the first time. Upon approach it's a very industrial and plain looking building. I think only four rooms have balconies and the rest of the hotel is very stark, kind of prison like. As a platinum member I was hoping I would Get a room with a balcony but that wasn't the case. In fact the only perk of being a platinum member here was $10 to spend on their overpriced breakfast... $19 to serve yourself coffee, fruit, cheese, quiche and yogurt. There's a server who mans everything but definitely a do it yourself place yet they still want a tip!  Rooms very stark - brown wood floors, brown wallpaper, gray curtains, and white bedding. They do have a coffee maker and fridge. No robes. And over a three night period, toiletries never replenished. Fitness room small but clean and has big windows overlooking their small second floor pool. Customer service ... less than average. I had to request upgrade, they never explained parking ( garage is a five minute walk and is $20 per night). No valet or bellman. I asked them to fax papers for me. When I came to pick up fax next day, they had thrown it away. I think they hired staff based on their youth vs their hospitality experience. Overall a disappointing experience...blah rooms, blah service and a feeling of cheapness when it comes to the customers.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r514067667-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>514067667</t>
+  </si>
+  <si>
+    <t>08/16/2017</t>
+  </si>
+  <si>
+    <t>Great bar service - Triston!</t>
+  </si>
+  <si>
+    <t>The front desk staff was awesome, making us feel welcome in a fun, casual styel.  Then, after a long day working, Triston and others at the bar created a fun and relaxing environment where we could unwind and have fun.  This place has a great vibe.MoreShow less</t>
+  </si>
+  <si>
+    <t>Paul M, General Manager at AC Hotel by Marriott Irvine, responded to this reviewResponded August 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 17, 2017</t>
+  </si>
+  <si>
+    <t>The front desk staff was awesome, making us feel welcome in a fun, casual styel.  Then, after a long day working, Triston and others at the bar created a fun and relaxing environment where we could unwind and have fun.  This place has a great vibe.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r512882697-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>512882697</t>
+  </si>
+  <si>
+    <t>08/14/2017</t>
+  </si>
+  <si>
+    <t>Great service</t>
+  </si>
+  <si>
+    <t>We made a quick decision to visit California for a weekend getaway. I called the hotel to have a surprise waiting for my girlfriend when we walked into the room. It was to have rose pedals on the floor and roses on the bed. On the bed the roses would be shaped into a heart and to say I love you inside the heart. When I called the hotel I got Devin. The hotel does not have a policy on how he could do this but he did me a solid favor by doing this on his own and covering the charges before I got there. Thank you Devin for exceeding my expectations and doing such a great job. A big Thank you!! We will be coming back to your hotel in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>Paul M, General Manager at AC Hotel by Marriott Irvine, responded to this reviewResponded August 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 15, 2017</t>
+  </si>
+  <si>
+    <t>We made a quick decision to visit California for a weekend getaway. I called the hotel to have a surprise waiting for my girlfriend when we walked into the room. It was to have rose pedals on the floor and roses on the bed. On the bed the roses would be shaped into a heart and to say I love you inside the heart. When I called the hotel I got Devin. The hotel does not have a policy on how he could do this but he did me a solid favor by doing this on his own and covering the charges before I got there. Thank you Devin for exceeding my expectations and doing such a great job. A big Thank you!! We will be coming back to your hotel in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r511612152-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>511612152</t>
+  </si>
+  <si>
+    <t>08/11/2017</t>
+  </si>
+  <si>
+    <t>Not for me...</t>
+  </si>
+  <si>
+    <t>I am a Marriott lifetime platinum member.  I've never stayed at an AC hotel however and thought I'd give this new place a try.  I thought this was going to be a contemporary style Marriott.  I was wrong.  
+First, this hotel favors form over function.  It feels like a super modern courtyard hotel with dark wallpaper and funky fixtures and lights, only not nearly as practical.  I had expectations this was more of a full service hotel..it's not.  
+The rooms are somewhat cramped, the Air conditioning is loud.  No laundry bag.  Light switches are confusing.  No Kleenex in the room.  I got two waters for my 3 days stay, I drank them both the first day and got no more.  
+No info on the hotel in the room. 
+Phone makes no sense..how do I dial the lobby??
+I left my second key in the slot next to the door so that I didn't have to hunt for the light switch when I came in...the staff apparently took it, perhaps I violated an eco rule. 
+The bench across from the tv makes no sense to me...it's a giant waste of space. You walk into the room and you're greeted by a view of the toilet..seems odd given their focus on design. 
+Shower is funky and looks neat, but I couldn't find a good water pattern without holding it in my hand... another example of a reason why traditional fixtures just work...I am a Marriott lifetime platinum member.  I've never stayed at an AC hotel however and thought I'd give this new place a try.  I thought this was going to be a contemporary style Marriott.  I was wrong.  First, this hotel favors form over function.  It feels like a super modern courtyard hotel with dark wallpaper and funky fixtures and lights, only not nearly as practical.  I had expectations this was more of a full service hotel..it's not.  The rooms are somewhat cramped, the Air conditioning is loud.  No laundry bag.  Light switches are confusing.  No Kleenex in the room.  I got two waters for my 3 days stay, I drank them both the first day and got no more.  No info on the hotel in the room. Phone makes no sense..how do I dial the lobby??I left my second key in the slot next to the door so that I didn't have to hunt for the light switch when I came in...the staff apparently took it, perhaps I violated an eco rule. The bench across from the tv makes no sense to me...it's a giant waste of space. You walk into the room and you're greeted by a view of the toilet..seems odd given their focus on design. Shower is funky and looks neat, but I couldn't find a good water pattern without holding it in my hand... another example of a reason why traditional fixtures just work well. Room is very minimalistic and mono chromatic, which is what they are shooting for I guess, but all of the practical stuff you want and expect in a hotel isn't here. I'd much rather have a concierge lounge and a more functional room with traditional amenities at this price point.  If you're the kind of person that really loves minimal and contemporary design this place will appeal to you, if you're looking for traditional services and function,or a more Marriott hotel type of experience...this place is not for you.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Paul M, General Manager at AC Hotel by Marriott Irvine, responded to this reviewResponded August 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 14, 2017</t>
+  </si>
+  <si>
+    <t>I am a Marriott lifetime platinum member.  I've never stayed at an AC hotel however and thought I'd give this new place a try.  I thought this was going to be a contemporary style Marriott.  I was wrong.  
+First, this hotel favors form over function.  It feels like a super modern courtyard hotel with dark wallpaper and funky fixtures and lights, only not nearly as practical.  I had expectations this was more of a full service hotel..it's not.  
+The rooms are somewhat cramped, the Air conditioning is loud.  No laundry bag.  Light switches are confusing.  No Kleenex in the room.  I got two waters for my 3 days stay, I drank them both the first day and got no more.  
+No info on the hotel in the room. 
+Phone makes no sense..how do I dial the lobby??
+I left my second key in the slot next to the door so that I didn't have to hunt for the light switch when I came in...the staff apparently took it, perhaps I violated an eco rule. 
+The bench across from the tv makes no sense to me...it's a giant waste of space. You walk into the room and you're greeted by a view of the toilet..seems odd given their focus on design. 
+Shower is funky and looks neat, but I couldn't find a good water pattern without holding it in my hand... another example of a reason why traditional fixtures just work...I am a Marriott lifetime platinum member.  I've never stayed at an AC hotel however and thought I'd give this new place a try.  I thought this was going to be a contemporary style Marriott.  I was wrong.  First, this hotel favors form over function.  It feels like a super modern courtyard hotel with dark wallpaper and funky fixtures and lights, only not nearly as practical.  I had expectations this was more of a full service hotel..it's not.  The rooms are somewhat cramped, the Air conditioning is loud.  No laundry bag.  Light switches are confusing.  No Kleenex in the room.  I got two waters for my 3 days stay, I drank them both the first day and got no more.  No info on the hotel in the room. Phone makes no sense..how do I dial the lobby??I left my second key in the slot next to the door so that I didn't have to hunt for the light switch when I came in...the staff apparently took it, perhaps I violated an eco rule. The bench across from the tv makes no sense to me...it's a giant waste of space. You walk into the room and you're greeted by a view of the toilet..seems odd given their focus on design. Shower is funky and looks neat, but I couldn't find a good water pattern without holding it in my hand... another example of a reason why traditional fixtures just work well. Room is very minimalistic and mono chromatic, which is what they are shooting for I guess, but all of the practical stuff you want and expect in a hotel isn't here. I'd much rather have a concierge lounge and a more functional room with traditional amenities at this price point.  If you're the kind of person that really loves minimal and contemporary design this place will appeal to you, if you're looking for traditional services and function,or a more Marriott hotel type of experience...this place is not for you.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r511179367-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>511179367</t>
+  </si>
+  <si>
+    <t>08/10/2017</t>
+  </si>
+  <si>
+    <t>Emphasis on design not always practical...</t>
+  </si>
+  <si>
+    <t>This is a newer, clean hotel.  I was intrigued by the euro-style idea, so I decided to try it out.  It reminded me of a place I've stayed at in Kyoto.  It's different, in some ways good, but in several ways just struck me as impractical and a bit odd. There was no booklet with hotel info about dining hours, services (maybe this was missing from my room) so I needed to call the front desk.  The phone is sleek and stylish, but there isn't any info or labeling on or near it to let you know how to call the front desk, housekeeping, etc. and it was difficult to put back in the cradle to hang up.  The pen was very short, an interesting design, but again, difficult to actually use.   In the middle of the night, I woke up and wanted to see what time it was, so I glanced over to the nightstand and that's when I realized there is no digital clock or any clock in the room. The toilet seat is an odd rectangular shape, but I could see how it would be great for a larger person.  The sink is a shallow, wide rectangular shape. The shower was fantastic and the large, flat screen tv on the wall was great. Also, the staff was very friendly, efficient and helpful.  I'm just not sure this hotel is a good fit for me, personally.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a newer, clean hotel.  I was intrigued by the euro-style idea, so I decided to try it out.  It reminded me of a place I've stayed at in Kyoto.  It's different, in some ways good, but in several ways just struck me as impractical and a bit odd. There was no booklet with hotel info about dining hours, services (maybe this was missing from my room) so I needed to call the front desk.  The phone is sleek and stylish, but there isn't any info or labeling on or near it to let you know how to call the front desk, housekeeping, etc. and it was difficult to put back in the cradle to hang up.  The pen was very short, an interesting design, but again, difficult to actually use.   In the middle of the night, I woke up and wanted to see what time it was, so I glanced over to the nightstand and that's when I realized there is no digital clock or any clock in the room. The toilet seat is an odd rectangular shape, but I could see how it would be great for a larger person.  The sink is a shallow, wide rectangular shape. The shower was fantastic and the large, flat screen tv on the wall was great. Also, the staff was very friendly, efficient and helpful.  I'm just not sure this hotel is a good fit for me, personally.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r509692850-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>509692850</t>
+  </si>
+  <si>
+    <t>08/07/2017</t>
+  </si>
+  <si>
+    <t>Devin made our stay so enjoyable!</t>
+  </si>
+  <si>
+    <t>I loved this hotel: the amenities,  the proximity in walking distance to great food however, it was Devin at the front desk who "made" our trip.  He allowed us to check-in early which made all the difference in the world. He was warm, welcoming, friendly and professional.  Thank you Devin for putting a generous face forward!MoreShow less</t>
+  </si>
+  <si>
+    <t>Paul M, General Manager at AC Hotel by Marriott Irvine, responded to this reviewResponded August 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 8, 2017</t>
+  </si>
+  <si>
+    <t>I loved this hotel: the amenities,  the proximity in walking distance to great food however, it was Devin at the front desk who "made" our trip.  He allowed us to check-in early which made all the difference in the world. He was warm, welcoming, friendly and professional.  Thank you Devin for putting a generous face forward!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r506646716-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>506646716</t>
+  </si>
+  <si>
+    <t>07/28/2017</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>I visited Irvine for a five day business trip and i have to say.... my experience was amazing thanks to Michael!! He helped me with every concern and question i had throughout my stay!! He knows the answer to every question and makes sure to solve a problem in a timely manner. We need more people like Michael who have such professionalism and are extremely welcoming and friendly! Thanks Michael!! MoreShow less</t>
+  </si>
+  <si>
+    <t>Paul M, General Manager at AC Hotel by Marriott Irvine, responded to this reviewResponded July 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 30, 2017</t>
+  </si>
+  <si>
+    <t>I visited Irvine for a five day business trip and i have to say.... my experience was amazing thanks to Michael!! He helped me with every concern and question i had throughout my stay!! He knows the answer to every question and makes sure to solve a problem in a timely manner. We need more people like Michael who have such professionalism and are extremely welcoming and friendly! Thanks Michael!! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r506058590-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>506058590</t>
+  </si>
+  <si>
+    <t>07/27/2017</t>
+  </si>
+  <si>
+    <t>AC hotel these past couple of days and Michael Williams was absolutely wonderful he helped us out every single chance he got he is always nice kind and what the nice warm smile he is an amazing employee. He is also very very gorgeousMoreShow less</t>
+  </si>
+  <si>
+    <t>Paul M, General Manager at AC Hotel by Marriott Irvine, responded to this reviewResponded July 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 28, 2017</t>
+  </si>
+  <si>
+    <t>AC hotel these past couple of days and Michael Williams was absolutely wonderful he helped us out every single chance he got he is always nice kind and what the nice warm smile he is an amazing employee. He is also very very gorgeousMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r505674948-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>505674948</t>
+  </si>
+  <si>
+    <t>07/25/2017</t>
+  </si>
+  <si>
+    <t>Great Customer Service</t>
+  </si>
+  <si>
+    <t>I was craving popcorn and Michael was of great help to me. He is very welcoming and his smile is contagious. I admired the way he described his day as "marvelous" as guests walked in. Love this hotel, especially the water bottle fillers on each floor level. Thank you! I will be sure to recommend and return! MoreShow less</t>
+  </si>
+  <si>
+    <t>Paul M, General Manager at AC Hotel by Marriott Irvine, responded to this reviewResponded July 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 27, 2017</t>
+  </si>
+  <si>
+    <t>I was craving popcorn and Michael was of great help to me. He is very welcoming and his smile is contagious. I admired the way he described his day as "marvelous" as guests walked in. Love this hotel, especially the water bottle fillers on each floor level. Thank you! I will be sure to recommend and return! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r504027666-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>504027666</t>
+  </si>
+  <si>
+    <t>07/20/2017</t>
+  </si>
+  <si>
+    <t>Great Service from when you open the door</t>
+  </si>
+  <si>
+    <t>I recently have been staying in many hotel due to construction at my home.. this hotel in particular stuck out to me. From the moment i checked in I was  given a  warm welcome  and treated with great care. its been very stress full going from hotel to hotel  but the AC hotels  staff member  Michael Williams , truly took hospitality to the roof. He was very helpfully  making sure my family and I were very comfortable  and  happy  checking us inn to our rooms and familiarizing us with the hotel making us feel we were at home. Great Hotel , Great Staff,. i want to givesThanks again  to michael and the rest of the staff for all there help making us feel at homeMoreShow less</t>
+  </si>
+  <si>
+    <t>Paul M, General Manager at AC Hotel by Marriott Irvine, responded to this reviewResponded July 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 21, 2017</t>
+  </si>
+  <si>
+    <t>I recently have been staying in many hotel due to construction at my home.. this hotel in particular stuck out to me. From the moment i checked in I was  given a  warm welcome  and treated with great care. its been very stress full going from hotel to hotel  but the AC hotels  staff member  Michael Williams , truly took hospitality to the roof. He was very helpfully  making sure my family and I were very comfortable  and  happy  checking us inn to our rooms and familiarizing us with the hotel making us feel we were at home. Great Hotel , Great Staff,. i want to givesThanks again  to michael and the rest of the staff for all there help making us feel at homeMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r503346519-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>503346519</t>
+  </si>
+  <si>
+    <t>07/18/2017</t>
+  </si>
+  <si>
+    <t>Awesome stay in a sleek, modern hotel!</t>
+  </si>
+  <si>
+    <t>Comfy beds, sleek/modern room and hotel, great amenities, nice European breakfast, friendly front desk staff! Great location, you can walk across street to eat yummy food at North Italia, The Counter, Ruth's Chris, Which Wich.MoreShow less</t>
+  </si>
+  <si>
+    <t>Paul M, General Manager at AC Hotel by Marriott Irvine, responded to this reviewResponded July 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 19, 2017</t>
+  </si>
+  <si>
+    <t>Comfy beds, sleek/modern room and hotel, great amenities, nice European breakfast, friendly front desk staff! Great location, you can walk across street to eat yummy food at North Italia, The Counter, Ruth's Chris, Which Wich.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r502675836-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>502675836</t>
+  </si>
+  <si>
+    <t>07/16/2017</t>
+  </si>
+  <si>
+    <t>Excellent hotel excellent service</t>
+  </si>
+  <si>
+    <t>Missed my connection flying American airlines and they booked this hotel for me for 2 nights. The rooms are big, the staff is really friendly and helpful. This is what you want when staying at a hotel. Couldn't wish for a better stayMoreShow less</t>
+  </si>
+  <si>
+    <t>Paul M, General Manager at AC Hotel by Marriott Irvine, responded to this reviewResponded July 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 17, 2017</t>
+  </si>
+  <si>
+    <t>Missed my connection flying American airlines and they booked this hotel for me for 2 nights. The rooms are big, the staff is really friendly and helpful. This is what you want when staying at a hotel. Couldn't wish for a better stayMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r502191501-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>502191501</t>
+  </si>
+  <si>
+    <t>07/15/2017</t>
+  </si>
+  <si>
+    <t>Gabriela &amp; Michael Williams</t>
+  </si>
+  <si>
+    <t>I received great customer service from Gabriela &amp; Michael in my stay here in Irvine. We are not from the area and have experienced nothing but great hospitality and tips on things we can do while we are staying in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Paul M, General Manager at AC Hotel by Marriott Irvine, responded to this reviewResponded July 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 18, 2017</t>
+  </si>
+  <si>
+    <t>I received great customer service from Gabriela &amp; Michael in my stay here in Irvine. We are not from the area and have experienced nothing but great hospitality and tips on things we can do while we are staying in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r501494863-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>501494863</t>
+  </si>
+  <si>
+    <t>07/12/2017</t>
+  </si>
+  <si>
+    <t>Wow EXCELLENT SERVICE !!! (:</t>
+  </si>
+  <si>
+    <t>The Service we received at the AC Hotel in Irvine California was outstanding !!! The staff was very professional and courteous.  But, I must say that Mr. Michael Williams went above and beyond in making our family feel special and memorable.  We will all be back for seconds...Thats for sure ! (:  Thank you AC HotelsMoreShow less</t>
+  </si>
+  <si>
+    <t>Paul M, General Manager at AC Hotel by Marriott Irvine, responded to this reviewResponded July 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 13, 2017</t>
+  </si>
+  <si>
+    <t>The Service we received at the AC Hotel in Irvine California was outstanding !!! The staff was very professional and courteous.  But, I must say that Mr. Michael Williams went above and beyond in making our family feel special and memorable.  We will all be back for seconds...Thats for sure ! (:  Thank you AC HotelsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r500616163-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>500616163</t>
+  </si>
+  <si>
+    <t>07/11/2017</t>
+  </si>
+  <si>
+    <t>Location is Great- Service Even Better</t>
+  </si>
+  <si>
+    <t>This is the second time I've stayed here and while I love the location for work or play, the service I have received at the front desk both times has been exceptional.  They go above and beyond to make sure you are satisfied with your stay. This is a new hotel right in the heart of everything.MoreShow less</t>
+  </si>
+  <si>
+    <t>Paul M, General Manager at AC Hotel by Marriott Irvine, responded to this reviewResponded July 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 12, 2017</t>
+  </si>
+  <si>
+    <t>This is the second time I've stayed here and while I love the location for work or play, the service I have received at the front desk both times has been exceptional.  They go above and beyond to make sure you are satisfied with your stay. This is a new hotel right in the heart of everything.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r496237694-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>496237694</t>
+  </si>
+  <si>
+    <t>06/26/2017</t>
+  </si>
+  <si>
+    <t>It felt European - clean and chic!</t>
+  </si>
+  <si>
+    <t>I literally stumbled upon this hotel during a post business trip in Santa Ana - I decided to go to Newport Beach and was looking for something close. This hotel is sexy and the location is great - shopping and meals literally across the street in walking distance - like you can 'throw a rock at it' close! The bartender, Louis, is good for the atmosphere he makes great drinks:)Love the roof pool as well and the beach was like 15 minutes away - I will stay here again - oh and the price - I couldn't believe it!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Paul M, General Manager at AC Hotel by Marriott Irvine, responded to this reviewResponded June 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 27, 2017</t>
+  </si>
+  <si>
+    <t>I literally stumbled upon this hotel during a post business trip in Santa Ana - I decided to go to Newport Beach and was looking for something close. This hotel is sexy and the location is great - shopping and meals literally across the street in walking distance - like you can 'throw a rock at it' close! The bartender, Louis, is good for the atmosphere he makes great drinks:)Love the roof pool as well and the beach was like 15 minutes away - I will stay here again - oh and the price - I couldn't believe it!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r495614405-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>495614405</t>
+  </si>
+  <si>
+    <t>06/24/2017</t>
+  </si>
+  <si>
+    <t>Excellent find near the airport</t>
+  </si>
+  <si>
+    <t>I was traveling for business and was looking for a hotel close to the airport and found this one. I was impressed with my overall experience and can say I would happily stay here again.
+It is a new hotel so everything is modern, clean, working and efficient. The staff were very friendly and helpful. Every interaction I had was a good one, even with the guy who checked me out at 4:30 in the morning.
+The room was large and comfortable. Though I was traveling on business I could see how a family would find plenty of room for their stay. As a business traveler I found the workspace excellent, the wifi fast and reliable and the room quiet and comfortable. The bath area was very nice and the amenities were excellent. Really--I liked this place.
+Location wise it is just south of the airport. A quick Uber or cab ride away. If you rent a car (as I did) parking immediately at the hotel is limited, but across the street is a large parking structure and hotel guests can park there. I did that and had no issues. The hotel borders a strip-mall place that has some good restaurant options (good Yelp reviews) right within walking distance. The entrance to the hotel is on the opposite side of the strip mall (from the mall you look at the back of the hotel and may not realize the hotel...I was traveling for business and was looking for a hotel close to the airport and found this one. I was impressed with my overall experience and can say I would happily stay here again.It is a new hotel so everything is modern, clean, working and efficient. The staff were very friendly and helpful. Every interaction I had was a good one, even with the guy who checked me out at 4:30 in the morning.The room was large and comfortable. Though I was traveling on business I could see how a family would find plenty of room for their stay. As a business traveler I found the workspace excellent, the wifi fast and reliable and the room quiet and comfortable. The bath area was very nice and the amenities were excellent. Really--I liked this place.Location wise it is just south of the airport. A quick Uber or cab ride away. If you rent a car (as I did) parking immediately at the hotel is limited, but across the street is a large parking structure and hotel guests can park there. I did that and had no issues. The hotel borders a strip-mall place that has some good restaurant options (good Yelp reviews) right within walking distance. The entrance to the hotel is on the opposite side of the strip mall (from the mall you look at the back of the hotel and may not realize the hotel is right there). But a couple of short rights and you see the entrance and all is good.Again, I would recommend this place and will stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Paul M, General Manager at AC Hotel by Marriott Irvine, responded to this reviewResponded June 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 26, 2017</t>
+  </si>
+  <si>
+    <t>I was traveling for business and was looking for a hotel close to the airport and found this one. I was impressed with my overall experience and can say I would happily stay here again.
+It is a new hotel so everything is modern, clean, working and efficient. The staff were very friendly and helpful. Every interaction I had was a good one, even with the guy who checked me out at 4:30 in the morning.
+The room was large and comfortable. Though I was traveling on business I could see how a family would find plenty of room for their stay. As a business traveler I found the workspace excellent, the wifi fast and reliable and the room quiet and comfortable. The bath area was very nice and the amenities were excellent. Really--I liked this place.
+Location wise it is just south of the airport. A quick Uber or cab ride away. If you rent a car (as I did) parking immediately at the hotel is limited, but across the street is a large parking structure and hotel guests can park there. I did that and had no issues. The hotel borders a strip-mall place that has some good restaurant options (good Yelp reviews) right within walking distance. The entrance to the hotel is on the opposite side of the strip mall (from the mall you look at the back of the hotel and may not realize the hotel...I was traveling for business and was looking for a hotel close to the airport and found this one. I was impressed with my overall experience and can say I would happily stay here again.It is a new hotel so everything is modern, clean, working and efficient. The staff were very friendly and helpful. Every interaction I had was a good one, even with the guy who checked me out at 4:30 in the morning.The room was large and comfortable. Though I was traveling on business I could see how a family would find plenty of room for their stay. As a business traveler I found the workspace excellent, the wifi fast and reliable and the room quiet and comfortable. The bath area was very nice and the amenities were excellent. Really--I liked this place.Location wise it is just south of the airport. A quick Uber or cab ride away. If you rent a car (as I did) parking immediately at the hotel is limited, but across the street is a large parking structure and hotel guests can park there. I did that and had no issues. The hotel borders a strip-mall place that has some good restaurant options (good Yelp reviews) right within walking distance. The entrance to the hotel is on the opposite side of the strip mall (from the mall you look at the back of the hotel and may not realize the hotel is right there). But a couple of short rights and you see the entrance and all is good.Again, I would recommend this place and will stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r494799642-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>494799642</t>
+  </si>
+  <si>
+    <t>06/21/2017</t>
+  </si>
+  <si>
+    <t>Modern, clean hotel for a great rate</t>
+  </si>
+  <si>
+    <t>Friendly staff, nice big modern rooms, clean, everything is new, restaurants can be found on the other side of the street, quite, park in nearby parking garage (approx 20$/night). Rates were pretty decent compared to hotels in the same area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Paul M, General Manager at AC Hotel by Marriott Irvine, responded to this reviewResponded June 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 22, 2017</t>
+  </si>
+  <si>
+    <t>Friendly staff, nice big modern rooms, clean, everything is new, restaurants can be found on the other side of the street, quite, park in nearby parking garage (approx 20$/night). Rates were pretty decent compared to hotels in the same area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r491642398-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>491642398</t>
+  </si>
+  <si>
+    <t>06/08/2017</t>
+  </si>
+  <si>
+    <t>Excellent stay &amp; excellent staff</t>
+  </si>
+  <si>
+    <t>Stayed at the AC Hotel while traveling to Irvine for business. This new hotel is modern, well designed, and had all the high end finishes that made me feel like I was traveling for pleasure - rather than work.The staff was fantastic and incredibly accommodating. Gabriela checked me in, gave us restaurant suggestions, and hooked up a great room. I loved the high end finishes throughout the hotel.Marriott is really stepping it up with the AC Hotels. It felt like I was staying at a mini JW Marriott. Plus it's close to an In N Burger about 1 mile away....so that's a plus!MoreShow less</t>
+  </si>
+  <si>
+    <t>Paul M, General Manager at AC Hotel by Marriott Irvine, responded to this reviewResponded June 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 9, 2017</t>
+  </si>
+  <si>
+    <t>Stayed at the AC Hotel while traveling to Irvine for business. This new hotel is modern, well designed, and had all the high end finishes that made me feel like I was traveling for pleasure - rather than work.The staff was fantastic and incredibly accommodating. Gabriela checked me in, gave us restaurant suggestions, and hooked up a great room. I loved the high end finishes throughout the hotel.Marriott is really stepping it up with the AC Hotels. It felt like I was staying at a mini JW Marriott. Plus it's close to an In N Burger about 1 mile away....so that's a plus!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r491547472-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>491547472</t>
+  </si>
+  <si>
+    <t>Wonderful stay at this elegant, modern hotel</t>
+  </si>
+  <si>
+    <t>This stay was probably my favorite hotel stay I have had this year.  Everything about the hotel, from the staff (front desk, bartender and breakfast service), amenities,  room and even location were great.  It was the cleanest, most modern hotel I've stayed in.  The breakfast entrees were very very good.The location is about 5 minutes from John Wayne airport, next door to a LA Fitness and across the street from a fabulous Italian restaurant (North Italia).The room definitely had that minimalistic, european vibe that I thoroughly enjoyed.The one awkward part of the stay would have been onsite parking.  There are limited spaces in front of the hotel, so most likely you will have to park in a parking garage.  In order to leave, you'll have to get your parking ticket validated each time at the front desk.  I thought that was weird rather then using your room key to get in/out.  The front desk staff were also wonderfully friendly and courteous, especially the front desk staff who helped me check in at around 11pm.I would 100% recommend this hotel, and any other AC Hotel for that matter.MoreShow less</t>
+  </si>
+  <si>
+    <t>This stay was probably my favorite hotel stay I have had this year.  Everything about the hotel, from the staff (front desk, bartender and breakfast service), amenities,  room and even location were great.  It was the cleanest, most modern hotel I've stayed in.  The breakfast entrees were very very good.The location is about 5 minutes from John Wayne airport, next door to a LA Fitness and across the street from a fabulous Italian restaurant (North Italia).The room definitely had that minimalistic, european vibe that I thoroughly enjoyed.The one awkward part of the stay would have been onsite parking.  There are limited spaces in front of the hotel, so most likely you will have to park in a parking garage.  In order to leave, you'll have to get your parking ticket validated each time at the front desk.  I thought that was weird rather then using your room key to get in/out.  The front desk staff were also wonderfully friendly and courteous, especially the front desk staff who helped me check in at around 11pm.I would 100% recommend this hotel, and any other AC Hotel for that matter.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r490475694-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>490475694</t>
+  </si>
+  <si>
+    <t>06/04/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">King Balcony is weird and tiny </t>
+  </si>
+  <si>
+    <t>Upon check-in, which went smoothly, it was after 10 and had to wait a few minutes for someone from the bar to recognize that we were standing in the front desk area. She was nice enough and cordial, gave us a free upgrade parentheses gold Marriott Rewards parentheses to a king suite, with balcony. Hotel is contemporary minimalistic. Lucky enough to find the spot out front, she informed me would be $20 to park, and give me a page to stick on my Dash or mirror to show I paid. Hallways are small and dark which I like, and again very contemporary upon entering the room I was greeted by a bath sink, and the bed. Room is Tiny. Bathroom sink faces the bed there is no wall but a small separation just over the sink so the counters and closet and bathroom sink area faces the bedroom which is about 3 feet from vent. The toilet is separated by a piece of glass so no privacy here. The shower is modern but also a piece of glass which is at the foot of the bed, also no privacy. Couples fine. Buddies or coworkers or friends no way. Balcony is great. Had a corner could see construction next door and look down at the pool. Wish I would have been able to take advantage of it more but like I said, late check-in wasn't able to. Have been gold Marriott...Upon check-in, which went smoothly, it was after 10 and had to wait a few minutes for someone from the bar to recognize that we were standing in the front desk area. She was nice enough and cordial, gave us a free upgrade parentheses gold Marriott Rewards parentheses to a king suite, with balcony. Hotel is contemporary minimalistic. Lucky enough to find the spot out front, she informed me would be $20 to park, and give me a page to stick on my Dash or mirror to show I paid. Hallways are small and dark which I like, and again very contemporary upon entering the room I was greeted by a bath sink, and the bed. Room is Tiny. Bathroom sink faces the bed there is no wall but a small separation just over the sink so the counters and closet and bathroom sink area faces the bedroom which is about 3 feet from vent. The toilet is separated by a piece of glass so no privacy here. The shower is modern but also a piece of glass which is at the foot of the bed, also no privacy. Couples fine. Buddies or coworkers or friends no way. Balcony is great. Had a corner could see construction next door and look down at the pool. Wish I would have been able to take advantage of it more but like I said, late check-in wasn't able to. Have been gold Marriott Rewards for years but never received 4 p.m. checkout. No matter where I've asked. No matter where it is. No matter time of day, week. Did call down about 11:30 with the 12 checkout, and was given 1 p.m. What I come back here? No. What I recommend it? No is it bad now. It's just unique, not necessarily in a good way. Not bad better than most better than a lot. Just not a place to returnMoreShow less</t>
+  </si>
+  <si>
+    <t>Paul M, General Manager at AC Hotel by Marriott Irvine, responded to this reviewResponded June 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 5, 2017</t>
+  </si>
+  <si>
+    <t>Upon check-in, which went smoothly, it was after 10 and had to wait a few minutes for someone from the bar to recognize that we were standing in the front desk area. She was nice enough and cordial, gave us a free upgrade parentheses gold Marriott Rewards parentheses to a king suite, with balcony. Hotel is contemporary minimalistic. Lucky enough to find the spot out front, she informed me would be $20 to park, and give me a page to stick on my Dash or mirror to show I paid. Hallways are small and dark which I like, and again very contemporary upon entering the room I was greeted by a bath sink, and the bed. Room is Tiny. Bathroom sink faces the bed there is no wall but a small separation just over the sink so the counters and closet and bathroom sink area faces the bedroom which is about 3 feet from vent. The toilet is separated by a piece of glass so no privacy here. The shower is modern but also a piece of glass which is at the foot of the bed, also no privacy. Couples fine. Buddies or coworkers or friends no way. Balcony is great. Had a corner could see construction next door and look down at the pool. Wish I would have been able to take advantage of it more but like I said, late check-in wasn't able to. Have been gold Marriott...Upon check-in, which went smoothly, it was after 10 and had to wait a few minutes for someone from the bar to recognize that we were standing in the front desk area. She was nice enough and cordial, gave us a free upgrade parentheses gold Marriott Rewards parentheses to a king suite, with balcony. Hotel is contemporary minimalistic. Lucky enough to find the spot out front, she informed me would be $20 to park, and give me a page to stick on my Dash or mirror to show I paid. Hallways are small and dark which I like, and again very contemporary upon entering the room I was greeted by a bath sink, and the bed. Room is Tiny. Bathroom sink faces the bed there is no wall but a small separation just over the sink so the counters and closet and bathroom sink area faces the bedroom which is about 3 feet from vent. The toilet is separated by a piece of glass so no privacy here. The shower is modern but also a piece of glass which is at the foot of the bed, also no privacy. Couples fine. Buddies or coworkers or friends no way. Balcony is great. Had a corner could see construction next door and look down at the pool. Wish I would have been able to take advantage of it more but like I said, late check-in wasn't able to. Have been gold Marriott Rewards for years but never received 4 p.m. checkout. No matter where I've asked. No matter where it is. No matter time of day, week. Did call down about 11:30 with the 12 checkout, and was given 1 p.m. What I come back here? No. What I recommend it? No is it bad now. It's just unique, not necessarily in a good way. Not bad better than most better than a lot. Just not a place to returnMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r488479968-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>488479968</t>
+  </si>
+  <si>
+    <t>05/28/2017</t>
+  </si>
+  <si>
+    <t>New modern hotel in Irvine</t>
+  </si>
+  <si>
+    <t>Overnight trip to Orange County.  This is a new hotel from Marriott that I was unfamiliar with and decided to give a try. It is a nice modern contemporary feel. It's brand new and they are still paving the parking area. Parking is at a garage across the parking lot and costs an additional $20/night There is a retail center with a Starbucks and some high end restaurants like Ruth Chris steakhouse and a grocery store wit cafe, LA Fitness, and food court with Lemonade and Wahoos TacosIt's conveniently located off the 405 in an office complex with nearby residential. Safe and clean for families like all of Irvine Pros:Check in - fast efficient and friendly. Recognize I'm a Marriott member and status Location - safe and convenient with nearby amenities Shower - good strong shower Room- nice contemporary room with hardwood floors. The hallway area also has water machine to get water with pitcher which is nice when traveling with the family Lobby- has a bar and a tiny area to purchase necessities Cons Parking- costs $20Room- for a new room I was surprised to find a stain on a new pillow Wifi- was slow and the Netflix app on the tv was nice feature but did not work maybe due to wifi speedConclusion nice place where I will return for business trips and for family getaways MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Paul M, General Manager at AC Hotel by Marriott Irvine, responded to this reviewResponded May 31, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 31, 2017</t>
+  </si>
+  <si>
+    <t>Overnight trip to Orange County.  This is a new hotel from Marriott that I was unfamiliar with and decided to give a try. It is a nice modern contemporary feel. It's brand new and they are still paving the parking area. Parking is at a garage across the parking lot and costs an additional $20/night There is a retail center with a Starbucks and some high end restaurants like Ruth Chris steakhouse and a grocery store wit cafe, LA Fitness, and food court with Lemonade and Wahoos TacosIt's conveniently located off the 405 in an office complex with nearby residential. Safe and clean for families like all of Irvine Pros:Check in - fast efficient and friendly. Recognize I'm a Marriott member and status Location - safe and convenient with nearby amenities Shower - good strong shower Room- nice contemporary room with hardwood floors. The hallway area also has water machine to get water with pitcher which is nice when traveling with the family Lobby- has a bar and a tiny area to purchase necessities Cons Parking- costs $20Room- for a new room I was surprised to find a stain on a new pillow Wifi- was slow and the Netflix app on the tv was nice feature but did not work maybe due to wifi speedConclusion nice place where I will return for business trips and for family getaways More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r487466399-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>487466399</t>
+  </si>
+  <si>
+    <t>05/24/2017</t>
+  </si>
+  <si>
+    <t>Great location for business</t>
+  </si>
+  <si>
+    <t>Had a great time at this brand new Irvine based hotel. Staff were very welcoming and enthusiastic. The property is very clean with minimalistic design throughout which is like a breath of fresh air. The main colors are silver, light beige and dark brown which gives the hotel a warm, welcoming atmosphere and an airy, upbeat feel at the same time. Stayed four nights on a business trip. Rooms are efficient and spacious enough to get some work done. Lateral noise between rooms is noticeable as well as from the hallways. We were woken up by the morning meeting of housekeepers on our floor daily. Beds are very comfortable. The A/C unit in our room seemed to make more noise or should I say vibrations than I'd expect. Housekeeping seemed a tad too eager to please on one hand as they threw out some makeup my wife had left on the bathroom counter half-open yet forgot to replace a dirty, empty glass on the same counter for three days.
+Lobby and lounge areas are very open and well designed. Breakfast consists of natural options including delicious non-fat yogurt (not our thing because fat is an important ingredient nutrition wise but we had to try anyway) and real prosciutto with a genuine slicer. Nice touch. Management was very receptive to the few glitches we encountered during our stay.
+Across the street is an excellent, popular North Italia restaurant as well as...Had a great time at this brand new Irvine based hotel. Staff were very welcoming and enthusiastic. The property is very clean with minimalistic design throughout which is like a breath of fresh air. The main colors are silver, light beige and dark brown which gives the hotel a warm, welcoming atmosphere and an airy, upbeat feel at the same time. Stayed four nights on a business trip. Rooms are efficient and spacious enough to get some work done. Lateral noise between rooms is noticeable as well as from the hallways. We were woken up by the morning meeting of housekeepers on our floor daily. Beds are very comfortable. The A/C unit in our room seemed to make more noise or should I say vibrations than I'd expect. Housekeeping seemed a tad too eager to please on one hand as they threw out some makeup my wife had left on the bathroom counter half-open yet forgot to replace a dirty, empty glass on the same counter for three days.Lobby and lounge areas are very open and well designed. Breakfast consists of natural options including delicious non-fat yogurt (not our thing because fat is an important ingredient nutrition wise but we had to try anyway) and real prosciutto with a genuine slicer. Nice touch. Management was very receptive to the few glitches we encountered during our stay.Across the street is an excellent, popular North Italia restaurant as well as a smallish Starbucks and a few other stores. Parking in front of the hotel is limited so they offer additional parking in a large garage structure next door that is shared with office and retail.Overall the AC Irvine appears a very welcome addition to the local hotel lineup.MoreShow less</t>
+  </si>
+  <si>
+    <t>Paul M, General Manager at AC Hotel by Marriott Irvine, responded to this reviewResponded May 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 25, 2017</t>
+  </si>
+  <si>
+    <t>Had a great time at this brand new Irvine based hotel. Staff were very welcoming and enthusiastic. The property is very clean with minimalistic design throughout which is like a breath of fresh air. The main colors are silver, light beige and dark brown which gives the hotel a warm, welcoming atmosphere and an airy, upbeat feel at the same time. Stayed four nights on a business trip. Rooms are efficient and spacious enough to get some work done. Lateral noise between rooms is noticeable as well as from the hallways. We were woken up by the morning meeting of housekeepers on our floor daily. Beds are very comfortable. The A/C unit in our room seemed to make more noise or should I say vibrations than I'd expect. Housekeeping seemed a tad too eager to please on one hand as they threw out some makeup my wife had left on the bathroom counter half-open yet forgot to replace a dirty, empty glass on the same counter for three days.
+Lobby and lounge areas are very open and well designed. Breakfast consists of natural options including delicious non-fat yogurt (not our thing because fat is an important ingredient nutrition wise but we had to try anyway) and real prosciutto with a genuine slicer. Nice touch. Management was very receptive to the few glitches we encountered during our stay.
+Across the street is an excellent, popular North Italia restaurant as well as...Had a great time at this brand new Irvine based hotel. Staff were very welcoming and enthusiastic. The property is very clean with minimalistic design throughout which is like a breath of fresh air. The main colors are silver, light beige and dark brown which gives the hotel a warm, welcoming atmosphere and an airy, upbeat feel at the same time. Stayed four nights on a business trip. Rooms are efficient and spacious enough to get some work done. Lateral noise between rooms is noticeable as well as from the hallways. We were woken up by the morning meeting of housekeepers on our floor daily. Beds are very comfortable. The A/C unit in our room seemed to make more noise or should I say vibrations than I'd expect. Housekeeping seemed a tad too eager to please on one hand as they threw out some makeup my wife had left on the bathroom counter half-open yet forgot to replace a dirty, empty glass on the same counter for three days.Lobby and lounge areas are very open and well designed. Breakfast consists of natural options including delicious non-fat yogurt (not our thing because fat is an important ingredient nutrition wise but we had to try anyway) and real prosciutto with a genuine slicer. Nice touch. Management was very receptive to the few glitches we encountered during our stay.Across the street is an excellent, popular North Italia restaurant as well as a smallish Starbucks and a few other stores. Parking in front of the hotel is limited so they offer additional parking in a large garage structure next door that is shared with office and retail.Overall the AC Irvine appears a very welcome addition to the local hotel lineup.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r485704392-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>485704392</t>
+  </si>
+  <si>
+    <t>05/19/2017</t>
+  </si>
+  <si>
+    <t>Please Never Stay Here so the Price Doesn't Go Up!</t>
+  </si>
+  <si>
+    <t>This hotel is amazing. It's a Marriott, which a preferred hotel of my company. Many Marriotts in the Orange County area are not great, but they really got it right with AC Hotel. This is going to sound like a negative, but it's not: My first room was broken. I mean, the toilet was running, the tv didn't work, the phone didn't work, the A/C didn't work. B R O K E N. BUT! This is a BRAND NEW hotel, so things like this are expected. I do not judge a hotel on whether or not things are broken, but what they do to accommodate the customer when that stuff happens. They moved me to another room and gave me a $20 credit at the lobby bar/lounge. Everything was fine in this new room. No harm, no foul. Then, one night, they had a grand opening party in the lobby with free drinks and tapas and it looked really really fun. BUT! I had a LONG day of meetings and still had SO MUCH work to do and was also REALLY hungry. I did not want to go down to the party - I was hoping to go down there to eat/work. I mentioned this to one of the young men working the desk, Jason. He said he'd bring me up a menu, let me order from it, and bring me whatever I wanted to accommodate me. Mind you, this...This hotel is amazing. It's a Marriott, which a preferred hotel of my company. Many Marriotts in the Orange County area are not great, but they really got it right with AC Hotel. This is going to sound like a negative, but it's not: My first room was broken. I mean, the toilet was running, the tv didn't work, the phone didn't work, the A/C didn't work. B R O K E N. BUT! This is a BRAND NEW hotel, so things like this are expected. I do not judge a hotel on whether or not things are broken, but what they do to accommodate the customer when that stuff happens. They moved me to another room and gave me a $20 credit at the lobby bar/lounge. Everything was fine in this new room. No harm, no foul. Then, one night, they had a grand opening party in the lobby with free drinks and tapas and it looked really really fun. BUT! I had a LONG day of meetings and still had SO MUCH work to do and was also REALLY hungry. I did not want to go down to the party - I was hoping to go down there to eat/work. I mentioned this to one of the young men working the desk, Jason. He said he'd bring me up a menu, let me order from it, and bring me whatever I wanted to accommodate me. Mind you, this hotel has NO in-room dining. He came up to deliver the menu, allowed me some time to look over it, he came up again to take my order, he came up again, with the drinks i ordered, he came up again with my food, he came up AGAIN with silverware.....the poor man was PANTING. He was running around like a crazy person to help me. My overall experience was SO MUCH BETTER with Jason on board. But this also speaks to the hotel management, who is in charge of hiring and training the staff. Everything from start to finish was phenomenal, and small annoyances aside, I will stay here for every work trip as long as the price doesn't go up. So, like I said, stay somewhere else :)MoreShow less</t>
+  </si>
+  <si>
+    <t>Paul M, General Manager at AC Hotel by Marriott Irvine, responded to this reviewResponded May 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 21, 2017</t>
+  </si>
+  <si>
+    <t>This hotel is amazing. It's a Marriott, which a preferred hotel of my company. Many Marriotts in the Orange County area are not great, but they really got it right with AC Hotel. This is going to sound like a negative, but it's not: My first room was broken. I mean, the toilet was running, the tv didn't work, the phone didn't work, the A/C didn't work. B R O K E N. BUT! This is a BRAND NEW hotel, so things like this are expected. I do not judge a hotel on whether or not things are broken, but what they do to accommodate the customer when that stuff happens. They moved me to another room and gave me a $20 credit at the lobby bar/lounge. Everything was fine in this new room. No harm, no foul. Then, one night, they had a grand opening party in the lobby with free drinks and tapas and it looked really really fun. BUT! I had a LONG day of meetings and still had SO MUCH work to do and was also REALLY hungry. I did not want to go down to the party - I was hoping to go down there to eat/work. I mentioned this to one of the young men working the desk, Jason. He said he'd bring me up a menu, let me order from it, and bring me whatever I wanted to accommodate me. Mind you, this...This hotel is amazing. It's a Marriott, which a preferred hotel of my company. Many Marriotts in the Orange County area are not great, but they really got it right with AC Hotel. This is going to sound like a negative, but it's not: My first room was broken. I mean, the toilet was running, the tv didn't work, the phone didn't work, the A/C didn't work. B R O K E N. BUT! This is a BRAND NEW hotel, so things like this are expected. I do not judge a hotel on whether or not things are broken, but what they do to accommodate the customer when that stuff happens. They moved me to another room and gave me a $20 credit at the lobby bar/lounge. Everything was fine in this new room. No harm, no foul. Then, one night, they had a grand opening party in the lobby with free drinks and tapas and it looked really really fun. BUT! I had a LONG day of meetings and still had SO MUCH work to do and was also REALLY hungry. I did not want to go down to the party - I was hoping to go down there to eat/work. I mentioned this to one of the young men working the desk, Jason. He said he'd bring me up a menu, let me order from it, and bring me whatever I wanted to accommodate me. Mind you, this hotel has NO in-room dining. He came up to deliver the menu, allowed me some time to look over it, he came up again to take my order, he came up again, with the drinks i ordered, he came up again with my food, he came up AGAIN with silverware.....the poor man was PANTING. He was running around like a crazy person to help me. My overall experience was SO MUCH BETTER with Jason on board. But this also speaks to the hotel management, who is in charge of hiring and training the staff. Everything from start to finish was phenomenal, and small annoyances aside, I will stay here for every work trip as long as the price doesn't go up. So, like I said, stay somewhere else :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r484499146-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>484499146</t>
+  </si>
+  <si>
+    <t>05/15/2017</t>
+  </si>
+  <si>
+    <t>Everyone should be staying at this hotel</t>
+  </si>
+  <si>
+    <t>The first thing I noticed was the cool modern  atmosphere of this hotel as soon as i  walked into the lobby. The very next thing with the customer service, which was five star from every person I dealt with. Front desk, Bartender, housekeeping, and I even got a nice email from the general manager asking how my stay was. I was there for three nights for a lacrosse tournament in town and I got the feeling that the hotel was more of a business hotel but it's so conveniently located to everything in Irvine. We walked to get food across the street there were 10 different options I got my hair blown out at the blowdry salon   I went for a run and although there's a lot of construction in the neighborhoodit I felt safe and it was never very disruptive. I even laid out at the pool and thoroughly enjoyed my entire visit. My daughter and I were out late every night (1, 2 &amp; 3AM) and the only slight negative is having to walk to the hotel from the parking garage. Iit's a very new, well lit parking garage but it's still a bit of a walk so late at night for two sexy broads  such as ourselves. I don't think I'll be back to Irvine anytime soon, unfortunately but I will definitely look for other AC hotels in my travels. Well done AC Irvine. MoreShow less</t>
+  </si>
+  <si>
+    <t>Paul M, General Manager at AC Hotel by Marriott Irvine, responded to this reviewResponded May 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 19, 2017</t>
+  </si>
+  <si>
+    <t>The first thing I noticed was the cool modern  atmosphere of this hotel as soon as i  walked into the lobby. The very next thing with the customer service, which was five star from every person I dealt with. Front desk, Bartender, housekeeping, and I even got a nice email from the general manager asking how my stay was. I was there for three nights for a lacrosse tournament in town and I got the feeling that the hotel was more of a business hotel but it's so conveniently located to everything in Irvine. We walked to get food across the street there were 10 different options I got my hair blown out at the blowdry salon   I went for a run and although there's a lot of construction in the neighborhoodit I felt safe and it was never very disruptive. I even laid out at the pool and thoroughly enjoyed my entire visit. My daughter and I were out late every night (1, 2 &amp; 3AM) and the only slight negative is having to walk to the hotel from the parking garage. Iit's a very new, well lit parking garage but it's still a bit of a walk so late at night for two sexy broads  such as ourselves. I don't think I'll be back to Irvine anytime soon, unfortunately but I will definitely look for other AC hotels in my travels. Well done AC Irvine. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r484458535-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>484458535</t>
+  </si>
+  <si>
+    <t>Simplicity is the ULTIMATE sophistication!!!</t>
+  </si>
+  <si>
+    <t>My fiancee and I spent a weekend here and it was amazing. The design is beautiful. The amenities are of very high quality; an exemplary shower and bed. The staff was always smiling and courteous. We were able to experience the cocktail lounge and had the pleasure of meeting Luis, a top notch mixologist! The overall vibe and feel of the hotel is amazing. We loved it and didn't want to leave.MoreShow less</t>
+  </si>
+  <si>
+    <t>My fiancee and I spent a weekend here and it was amazing. The design is beautiful. The amenities are of very high quality; an exemplary shower and bed. The staff was always smiling and courteous. We were able to experience the cocktail lounge and had the pleasure of meeting Luis, a top notch mixologist! The overall vibe and feel of the hotel is amazing. We loved it and didn't want to leave.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r483993035-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>483993035</t>
+  </si>
+  <si>
+    <t>05/13/2017</t>
+  </si>
+  <si>
+    <t>The Wonderful Hotel Experience to Remember...</t>
+  </si>
+  <si>
+    <t>After a long work week, I decided to get away to relax in the beautiful city of Irvine. I am happy that I decided to stay at AC Irvine where the experience was nothing less than extraordinary. From the initial greeting of the front desk staff, specifically, Devine, who went the extra mile to ensure that my stay was second to none. Devine ensured that I had a clear understanding of all the amenities at the hotel as well as the resources for the guests. It is one thing that the hotel is aesthetically pleasing but it makes it the best experience when the staff also make you feel welcome and special. The rooms are neat and comfortable. The lobby area is ideal to enjoy a nice time relaxing and having a cocktail. The location of the hotel is also great as there are great restaurants that are walking distance. It is a wonderful place to stay with wonderful staff, which leads to a wonderful hotel experience to remember.MoreShow less</t>
+  </si>
+  <si>
+    <t>After a long work week, I decided to get away to relax in the beautiful city of Irvine. I am happy that I decided to stay at AC Irvine where the experience was nothing less than extraordinary. From the initial greeting of the front desk staff, specifically, Devine, who went the extra mile to ensure that my stay was second to none. Devine ensured that I had a clear understanding of all the amenities at the hotel as well as the resources for the guests. It is one thing that the hotel is aesthetically pleasing but it makes it the best experience when the staff also make you feel welcome and special. The rooms are neat and comfortable. The lobby area is ideal to enjoy a nice time relaxing and having a cocktail. The location of the hotel is also great as there are great restaurants that are walking distance. It is a wonderful place to stay with wonderful staff, which leads to a wonderful hotel experience to remember.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r481343030-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>481343030</t>
+  </si>
+  <si>
+    <t>05/03/2017</t>
+  </si>
+  <si>
+    <t>Fantastic Property!</t>
+  </si>
+  <si>
+    <t>Would never have known this property was only open for a month prior to my stay.  Place was immaculate, rooms were clean and modern, gym was great, location convenient with a multitude of food options and the service was top-notch, over the top.  Kudos to all, especially Tambra who helped me with a tablet I left behind.  After providing my cc info for shipping with another employee, she called me back to make sure that I was comfortable with the cost.  Great customer service!  Already booked my next stay mid may.  Give this place a try, they will not disappoint.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Paul M, General Manager at AC Hotel by Marriott Irvine, responded to this reviewResponded May 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 8, 2017</t>
+  </si>
+  <si>
+    <t>Would never have known this property was only open for a month prior to my stay.  Place was immaculate, rooms were clean and modern, gym was great, location convenient with a multitude of food options and the service was top-notch, over the top.  Kudos to all, especially Tambra who helped me with a tablet I left behind.  After providing my cc info for shipping with another employee, she called me back to make sure that I was comfortable with the cost.  Great customer service!  Already booked my next stay mid may.  Give this place a try, they will not disappoint.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r480221452-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>480221452</t>
+  </si>
+  <si>
+    <t>04/30/2017</t>
+  </si>
+  <si>
+    <t>Pleasingly Euro-centric</t>
+  </si>
+  <si>
+    <t>Stayed here twice, including just after opening, and found it refreshingly different from other hotels in the area. The rooms, while on the small side, are sleek and well-designed, using ceramic floor tile instead of the usual carpet. The fixtures and lighting work well. Service staff smile a lot and the $16 breakfast is Euro-style with cheeses, tapas-style eggs, and spanish ham sliced for you. Parking is often across the road in the parking structure but not too far away and free.MoreShow less</t>
+  </si>
+  <si>
+    <t>Paul M, General Manager at AC Hotel by Marriott Irvine, responded to this reviewResponded May 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 1, 2017</t>
+  </si>
+  <si>
+    <t>Stayed here twice, including just after opening, and found it refreshingly different from other hotels in the area. The rooms, while on the small side, are sleek and well-designed, using ceramic floor tile instead of the usual carpet. The fixtures and lighting work well. Service staff smile a lot and the $16 breakfast is Euro-style with cheeses, tapas-style eggs, and spanish ham sliced for you. Parking is often across the road in the parking structure but not too far away and free.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r479918727-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>479918727</t>
+  </si>
+  <si>
+    <t>04/29/2017</t>
+  </si>
+  <si>
+    <t>AC Hotel Irvine - "Outstnding Service and Atmosphere"</t>
+  </si>
+  <si>
+    <t>I didn't know when I booked my reservation, for a business trip, that the AC Hotel Irvine had only been open for a month and that was a pleasant surprise to the start of my stay.  Now the experience I had was nothing short of spectacular.  The staff is courteous and friendly with a little bit of an edge, as you might expect in an AC property, and added to my overall experience. The rooms are spacious and well appointed, the lobby and lounge beautiful and edgy, a great hotel to stay in whether traveling on business or pleasure...  In my opinion a must experience property when you are in the area... Well done TEAM AC and thank you for making my stay a memorable one!!! Six Stars oh sorry I can only give you FiveMoreShow less</t>
+  </si>
+  <si>
+    <t>I didn't know when I booked my reservation, for a business trip, that the AC Hotel Irvine had only been open for a month and that was a pleasant surprise to the start of my stay.  Now the experience I had was nothing short of spectacular.  The staff is courteous and friendly with a little bit of an edge, as you might expect in an AC property, and added to my overall experience. The rooms are spacious and well appointed, the lobby and lounge beautiful and edgy, a great hotel to stay in whether traveling on business or pleasure...  In my opinion a must experience property when you are in the area... Well done TEAM AC and thank you for making my stay a memorable one!!! Six Stars oh sorry I can only give you FiveMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r479215961-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>479215961</t>
+  </si>
+  <si>
+    <t>04/26/2017</t>
+  </si>
+  <si>
+    <t>Great new addition to the area</t>
+  </si>
+  <si>
+    <t>I had been looking forward to staying here since February when I found out about the new property.  I am a Marriott loyalist and was interested in seeing what the AC Hotel brand was all about.  Prior reviews mention "minimalist" decor and I was expecting a mattress on the floor type thing from reading that comment in so many reviews.
+Room highlights:
+* Functional and comfortable (the bed).  The office chair was somewhat odd since it was just a regular chair without wheels, and I'm used to seeing a typical office chair with wheels.
+* No dresser, at least in my room.  Rather there is room in the closet and a long bench in the living area to place clothing.  This made a lot of sense to me since I don't usually put my clothes in a dresser and rather lay it out on a bed (if there is an extra one) or on another flat surface so I can easily see what I'm working with :)  So I appreciate this concept.
+* Bathroom layout is great with plenty of room.  The toilet is interesting since it is rectangular rather than oblong or round.  If you got a small bum, you might fall in!
+* Decor is warm and uncluttered (I'm trying to avoid the work "minimal") and the room feels rather spacious.  I had a King bed and a pull out sofa.
+* I believe there is a mini-refrigerator...I had been looking forward to staying here since February when I found out about the new property.  I am a Marriott loyalist and was interested in seeing what the AC Hotel brand was all about.  Prior reviews mention "minimalist" decor and I was expecting a mattress on the floor type thing from reading that comment in so many reviews.Room highlights:* Functional and comfortable (the bed).  The office chair was somewhat odd since it was just a regular chair without wheels, and I'm used to seeing a typical office chair with wheels.* No dresser, at least in my room.  Rather there is room in the closet and a long bench in the living area to place clothing.  This made a lot of sense to me since I don't usually put my clothes in a dresser and rather lay it out on a bed (if there is an extra one) or on another flat surface so I can easily see what I'm working with :)  So I appreciate this concept.* Bathroom layout is great with plenty of room.  The toilet is interesting since it is rectangular rather than oblong or round.  If you got a small bum, you might fall in!* Decor is warm and uncluttered (I'm trying to avoid the work "minimal") and the room feels rather spacious.  I had a King bed and a pull out sofa.* I believe there is a mini-refrigerator in every room, which is a nice plus.Hotel and staff* The staff was attentive, warm and professional* If you're lucky to find surface parking near the entrance, that's great but otherwise parking is quick and easy in the parking structure behind the main entrance (behind LA Fitness).  The front desk staff is quick to validate which makes it easier but would be nice if eventually the room cards grant access rather than having to seek parking validation.* Breakfast is not included in the room rate.  I'd say the menu is limited but with good quality items. * Fitness center is a decent size with views of the pool (both on the 2nd floor).  Even with 3-4 others in there, it didn't feel cramped.  I would gladly stay here again.  And that is saying a lot since my go to in the area is another Marriott property with a concierge lounge with free breakfast and evening snacks.MoreShow less</t>
+  </si>
+  <si>
+    <t>I had been looking forward to staying here since February when I found out about the new property.  I am a Marriott loyalist and was interested in seeing what the AC Hotel brand was all about.  Prior reviews mention "minimalist" decor and I was expecting a mattress on the floor type thing from reading that comment in so many reviews.
+Room highlights:
+* Functional and comfortable (the bed).  The office chair was somewhat odd since it was just a regular chair without wheels, and I'm used to seeing a typical office chair with wheels.
+* No dresser, at least in my room.  Rather there is room in the closet and a long bench in the living area to place clothing.  This made a lot of sense to me since I don't usually put my clothes in a dresser and rather lay it out on a bed (if there is an extra one) or on another flat surface so I can easily see what I'm working with :)  So I appreciate this concept.
+* Bathroom layout is great with plenty of room.  The toilet is interesting since it is rectangular rather than oblong or round.  If you got a small bum, you might fall in!
+* Decor is warm and uncluttered (I'm trying to avoid the work "minimal") and the room feels rather spacious.  I had a King bed and a pull out sofa.
+* I believe there is a mini-refrigerator...I had been looking forward to staying here since February when I found out about the new property.  I am a Marriott loyalist and was interested in seeing what the AC Hotel brand was all about.  Prior reviews mention "minimalist" decor and I was expecting a mattress on the floor type thing from reading that comment in so many reviews.Room highlights:* Functional and comfortable (the bed).  The office chair was somewhat odd since it was just a regular chair without wheels, and I'm used to seeing a typical office chair with wheels.* No dresser, at least in my room.  Rather there is room in the closet and a long bench in the living area to place clothing.  This made a lot of sense to me since I don't usually put my clothes in a dresser and rather lay it out on a bed (if there is an extra one) or on another flat surface so I can easily see what I'm working with :)  So I appreciate this concept.* Bathroom layout is great with plenty of room.  The toilet is interesting since it is rectangular rather than oblong or round.  If you got a small bum, you might fall in!* Decor is warm and uncluttered (I'm trying to avoid the work "minimal") and the room feels rather spacious.  I had a King bed and a pull out sofa.* I believe there is a mini-refrigerator in every room, which is a nice plus.Hotel and staff* The staff was attentive, warm and professional* If you're lucky to find surface parking near the entrance, that's great but otherwise parking is quick and easy in the parking structure behind the main entrance (behind LA Fitness).  The front desk staff is quick to validate which makes it easier but would be nice if eventually the room cards grant access rather than having to seek parking validation.* Breakfast is not included in the room rate.  I'd say the menu is limited but with good quality items. * Fitness center is a decent size with views of the pool (both on the 2nd floor).  Even with 3-4 others in there, it didn't feel cramped.  I would gladly stay here again.  And that is saying a lot since my go to in the area is another Marriott property with a concierge lounge with free breakfast and evening snacks.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r478791388-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>478791388</t>
+  </si>
+  <si>
+    <t>04/25/2017</t>
+  </si>
+  <si>
+    <t>Great option for visiting family</t>
+  </si>
+  <si>
+    <t>The team at this brand new hotel including Chris, Gabriella, Jason, Devin were a great help to my folks who stayed there over the weekend. The switched rooms to help get us disability across room and made my parents stay very comfortable. So pleased with the service and the European design. Also, had a great happy hour snack menu that I plan to try when I need to escape for a couple days! Thank you for being so accommodating - really enjoyed this hotel and the AC team.MoreShow less</t>
+  </si>
+  <si>
+    <t>Paul M, General Manager at AC Hotel by Marriott Irvine, responded to this reviewResponded April 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 26, 2017</t>
+  </si>
+  <si>
+    <t>The team at this brand new hotel including Chris, Gabriella, Jason, Devin were a great help to my folks who stayed there over the weekend. The switched rooms to help get us disability across room and made my parents stay very comfortable. So pleased with the service and the European design. Also, had a great happy hour snack menu that I plan to try when I need to escape for a couple days! Thank you for being so accommodating - really enjoyed this hotel and the AC team.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r477990192-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>477990192</t>
+  </si>
+  <si>
+    <t>04/22/2017</t>
+  </si>
+  <si>
+    <t>Great new hotel in the OC</t>
+  </si>
+  <si>
+    <t>This is a great new hotel in the OC!  I arrived after a long day of travel.  The front desk crew immediately offered assistance and were very kind and helpful!  Rooms modern and beautifully appointed.  Little extras (bottled water etc) pricey but thats how it is these days...Breakfast was also delicious.  Good option for a Marriott property!MoreShow less</t>
+  </si>
+  <si>
+    <t>Paul M, General Manager at AC Hotel by Marriott Irvine, responded to this reviewResponded April 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 23, 2017</t>
+  </si>
+  <si>
+    <t>This is a great new hotel in the OC!  I arrived after a long day of travel.  The front desk crew immediately offered assistance and were very kind and helpful!  Rooms modern and beautifully appointed.  Little extras (bottled water etc) pricey but thats how it is these days...Breakfast was also delicious.  Good option for a Marriott property!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r474845686-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>474845686</t>
+  </si>
+  <si>
+    <t>04/11/2017</t>
+  </si>
+  <si>
+    <t>OUTSTANDING SERVICE!</t>
+  </si>
+  <si>
+    <t>I came into the AC hotel today just to take a look at the lobby.  I've heard some great things about the hotel since the day that it opened and I have to say: I was quite impressed! Upon entering the building, I was warmly greeted by a well-groomed desk clerk named Devin who made my day by making me feel so welcomed.  He was quite pleasant and welcoming.  The first thing that grabbed my attention was the bar which had an inviting ambiance.  The lobby itself is quite large and has a spectacular interior design.  The seating, although chic, was pleasant and comfortable.  I was greeted by a few members of the staff, all of whom were friendly and professional.  I have yet to spend a night there, but I do plan to do so soon.MoreShow less</t>
+  </si>
+  <si>
+    <t>I came into the AC hotel today just to take a look at the lobby.  I've heard some great things about the hotel since the day that it opened and I have to say: I was quite impressed! Upon entering the building, I was warmly greeted by a well-groomed desk clerk named Devin who made my day by making me feel so welcomed.  He was quite pleasant and welcoming.  The first thing that grabbed my attention was the bar which had an inviting ambiance.  The lobby itself is quite large and has a spectacular interior design.  The seating, although chic, was pleasant and comfortable.  I was greeted by a few members of the staff, all of whom were friendly and professional.  I have yet to spend a night there, but I do plan to do so soon.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r473325085-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>473325085</t>
+  </si>
+  <si>
+    <t>04/07/2017</t>
+  </si>
+  <si>
+    <t>Greater service alomg with a great hotel makes it greatest</t>
+  </si>
+  <si>
+    <t>Night shift manager Michael Williams will simply go above and beyond to make sure your stay at this hotel would be one of your most amazing experiences you've had at any Marriott line and especially at the brand spanking new AC Hotel Irvine.. thanks much!MoreShow less</t>
+  </si>
+  <si>
+    <t>Paul M, General Manager at AC Hotel by Marriott Irvine, responded to this reviewResponded April 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 10, 2017</t>
+  </si>
+  <si>
+    <t>Night shift manager Michael Williams will simply go above and beyond to make sure your stay at this hotel would be one of your most amazing experiences you've had at any Marriott line and especially at the brand spanking new AC Hotel Irvine.. thanks much!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r472770208-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>472770208</t>
+  </si>
+  <si>
+    <t>04/04/2017</t>
+  </si>
+  <si>
+    <t>Beautiful, New Hotel</t>
+  </si>
+  <si>
+    <t>This is a beautiful new property. The staff is friendly and welcoming. Michael at the front desk checked us in, was very kind and personable and remembered us throughout our 5 day stay. The hotel is clean, fresh and comfortable. I would definitely recommend his hotel and stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>Paul M, General Manager at AC Hotel by Marriott Irvine, responded to this reviewResponded April 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 5, 2017</t>
+  </si>
+  <si>
+    <t>This is a beautiful new property. The staff is friendly and welcoming. Michael at the front desk checked us in, was very kind and personable and remembered us throughout our 5 day stay. The hotel is clean, fresh and comfortable. I would definitely recommend his hotel and stay here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r472244159-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>472244159</t>
+  </si>
+  <si>
+    <t>04/02/2017</t>
+  </si>
+  <si>
+    <t>GREAT HOTEL STAY AND STAFF</t>
+  </si>
+  <si>
+    <t>I had a pleasure of being one of the first hotel guest to experience the AC Hotel located at 3309 Michelson Dr. Irvine Ca 92612. The staff was amazing and very hospitable. I want to give a special thanks to the front desk associates Michael, Eli, Christopher and Devin for making my family stay great.MoreShow less</t>
+  </si>
+  <si>
+    <t>I had a pleasure of being one of the first hotel guest to experience the AC Hotel located at 3309 Michelson Dr. Irvine Ca 92612. The staff was amazing and very hospitable. I want to give a special thanks to the front desk associates Michael, Eli, Christopher and Devin for making my family stay great.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2974,6229 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>66007</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>3</v>
+      </c>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>66007</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>66007</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>3</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>4</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>63</v>
+      </c>
+      <c r="X4" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>66007</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>78</v>
+      </c>
+      <c r="X5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>66007</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>86</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>78</v>
+      </c>
+      <c r="X6" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>66007</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>93</v>
+      </c>
+      <c r="O7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>78</v>
+      </c>
+      <c r="X7" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>66007</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>97</v>
+      </c>
+      <c r="J8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K8" t="s">
+        <v>99</v>
+      </c>
+      <c r="L8" t="s">
+        <v>100</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>93</v>
+      </c>
+      <c r="O8" t="s">
+        <v>62</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>101</v>
+      </c>
+      <c r="X8" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>66007</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>105</v>
+      </c>
+      <c r="J9" t="s">
+        <v>106</v>
+      </c>
+      <c r="K9" t="s">
+        <v>107</v>
+      </c>
+      <c r="L9" t="s">
+        <v>108</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>93</v>
+      </c>
+      <c r="O9" t="s">
+        <v>62</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>109</v>
+      </c>
+      <c r="X9" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>66007</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>113</v>
+      </c>
+      <c r="J10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L10" t="s">
+        <v>116</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>93</v>
+      </c>
+      <c r="O10" t="s">
+        <v>77</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>4</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>117</v>
+      </c>
+      <c r="X10" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>66007</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>121</v>
+      </c>
+      <c r="J11" t="s">
+        <v>122</v>
+      </c>
+      <c r="K11" t="s">
+        <v>123</v>
+      </c>
+      <c r="L11" t="s">
+        <v>124</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>125</v>
+      </c>
+      <c r="O11" t="s">
+        <v>77</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>4</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>126</v>
+      </c>
+      <c r="X11" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>66007</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>129</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>130</v>
+      </c>
+      <c r="J12" t="s">
+        <v>131</v>
+      </c>
+      <c r="K12" t="s">
+        <v>132</v>
+      </c>
+      <c r="L12" t="s">
+        <v>133</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>86</v>
+      </c>
+      <c r="O12" t="s">
+        <v>77</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>126</v>
+      </c>
+      <c r="X12" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>66007</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>135</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>136</v>
+      </c>
+      <c r="J13" t="s">
+        <v>137</v>
+      </c>
+      <c r="K13" t="s">
+        <v>138</v>
+      </c>
+      <c r="L13" t="s">
+        <v>139</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>93</v>
+      </c>
+      <c r="O13" t="s">
+        <v>77</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>140</v>
+      </c>
+      <c r="X13" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>66007</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>143</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>144</v>
+      </c>
+      <c r="J14" t="s">
+        <v>145</v>
+      </c>
+      <c r="K14" t="s">
+        <v>146</v>
+      </c>
+      <c r="L14" t="s">
+        <v>147</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>125</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>148</v>
+      </c>
+      <c r="X14" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>66007</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>151</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>152</v>
+      </c>
+      <c r="J15" t="s">
+        <v>153</v>
+      </c>
+      <c r="K15" t="s">
+        <v>154</v>
+      </c>
+      <c r="L15" t="s">
+        <v>155</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>125</v>
+      </c>
+      <c r="O15" t="s">
+        <v>62</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>156</v>
+      </c>
+      <c r="X15" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>66007</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>159</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>160</v>
+      </c>
+      <c r="J16" t="s">
+        <v>161</v>
+      </c>
+      <c r="K16" t="s">
+        <v>162</v>
+      </c>
+      <c r="L16" t="s">
+        <v>163</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>125</v>
+      </c>
+      <c r="O16" t="s">
+        <v>62</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>164</v>
+      </c>
+      <c r="X16" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>66007</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>167</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>168</v>
+      </c>
+      <c r="J17" t="s">
+        <v>169</v>
+      </c>
+      <c r="K17" t="s">
+        <v>170</v>
+      </c>
+      <c r="L17" t="s">
+        <v>171</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>86</v>
+      </c>
+      <c r="O17" t="s">
+        <v>94</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>172</v>
+      </c>
+      <c r="X17" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>66007</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>175</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>176</v>
+      </c>
+      <c r="J18" t="s">
+        <v>169</v>
+      </c>
+      <c r="K18" t="s">
+        <v>177</v>
+      </c>
+      <c r="L18" t="s">
+        <v>178</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>125</v>
+      </c>
+      <c r="O18" t="s">
+        <v>94</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>179</v>
+      </c>
+      <c r="X18" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>66007</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>182</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>183</v>
+      </c>
+      <c r="J19" t="s">
+        <v>184</v>
+      </c>
+      <c r="K19" t="s">
+        <v>185</v>
+      </c>
+      <c r="L19" t="s">
+        <v>186</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>86</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>187</v>
+      </c>
+      <c r="X19" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>66007</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>190</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>191</v>
+      </c>
+      <c r="J20" t="s">
+        <v>192</v>
+      </c>
+      <c r="K20" t="s">
+        <v>193</v>
+      </c>
+      <c r="L20" t="s">
+        <v>194</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>86</v>
+      </c>
+      <c r="O20" t="s">
+        <v>62</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>195</v>
+      </c>
+      <c r="X20" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>66007</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>198</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>199</v>
+      </c>
+      <c r="J21" t="s">
+        <v>200</v>
+      </c>
+      <c r="K21" t="s">
+        <v>201</v>
+      </c>
+      <c r="L21" t="s">
+        <v>202</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>86</v>
+      </c>
+      <c r="O21" t="s">
+        <v>77</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>203</v>
+      </c>
+      <c r="X21" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>66007</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>206</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>207</v>
+      </c>
+      <c r="J22" t="s">
+        <v>208</v>
+      </c>
+      <c r="K22" t="s">
+        <v>209</v>
+      </c>
+      <c r="L22" t="s">
+        <v>210</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>86</v>
+      </c>
+      <c r="O22" t="s">
+        <v>77</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>203</v>
+      </c>
+      <c r="X22" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>66007</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>212</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>213</v>
+      </c>
+      <c r="J23" t="s">
+        <v>214</v>
+      </c>
+      <c r="K23" t="s">
+        <v>215</v>
+      </c>
+      <c r="L23" t="s">
+        <v>216</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>86</v>
+      </c>
+      <c r="O23" t="s">
+        <v>62</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>217</v>
+      </c>
+      <c r="X23" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>66007</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>220</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>221</v>
+      </c>
+      <c r="J24" t="s">
+        <v>222</v>
+      </c>
+      <c r="K24" t="s">
+        <v>223</v>
+      </c>
+      <c r="L24" t="s">
+        <v>224</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>86</v>
+      </c>
+      <c r="O24" t="s">
+        <v>77</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>217</v>
+      </c>
+      <c r="X24" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>66007</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>226</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>227</v>
+      </c>
+      <c r="J25" t="s">
+        <v>228</v>
+      </c>
+      <c r="K25" t="s">
+        <v>229</v>
+      </c>
+      <c r="L25" t="s">
+        <v>230</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>231</v>
+      </c>
+      <c r="O25" t="s">
+        <v>77</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>232</v>
+      </c>
+      <c r="X25" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>66007</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>235</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>236</v>
+      </c>
+      <c r="J26" t="s">
+        <v>237</v>
+      </c>
+      <c r="K26" t="s">
+        <v>238</v>
+      </c>
+      <c r="L26" t="s">
+        <v>239</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s"/>
+      <c r="O26" t="s"/>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>240</v>
+      </c>
+      <c r="X26" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>66007</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>243</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>244</v>
+      </c>
+      <c r="J27" t="s">
+        <v>237</v>
+      </c>
+      <c r="K27" t="s">
+        <v>245</v>
+      </c>
+      <c r="L27" t="s">
+        <v>246</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>231</v>
+      </c>
+      <c r="O27" t="s">
+        <v>77</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>240</v>
+      </c>
+      <c r="X27" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>66007</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>248</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>249</v>
+      </c>
+      <c r="J28" t="s">
+        <v>250</v>
+      </c>
+      <c r="K28" t="s">
+        <v>251</v>
+      </c>
+      <c r="L28" t="s">
+        <v>252</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>231</v>
+      </c>
+      <c r="O28" t="s">
+        <v>62</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>253</v>
+      </c>
+      <c r="X28" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>66007</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>256</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>257</v>
+      </c>
+      <c r="J29" t="s">
+        <v>258</v>
+      </c>
+      <c r="K29" t="s">
+        <v>259</v>
+      </c>
+      <c r="L29" t="s">
+        <v>260</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>231</v>
+      </c>
+      <c r="O29" t="s">
+        <v>77</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="n">
+        <v>3</v>
+      </c>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>3</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>253</v>
+      </c>
+      <c r="X29" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>66007</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>262</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>263</v>
+      </c>
+      <c r="J30" t="s">
+        <v>264</v>
+      </c>
+      <c r="K30" t="s">
+        <v>265</v>
+      </c>
+      <c r="L30" t="s">
+        <v>266</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>86</v>
+      </c>
+      <c r="O30" t="s">
+        <v>77</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>267</v>
+      </c>
+      <c r="X30" t="s">
+        <v>268</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>66007</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>270</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>271</v>
+      </c>
+      <c r="J31" t="s">
+        <v>272</v>
+      </c>
+      <c r="K31" t="s">
+        <v>273</v>
+      </c>
+      <c r="L31" t="s">
+        <v>274</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>231</v>
+      </c>
+      <c r="O31" t="s">
+        <v>77</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>275</v>
+      </c>
+      <c r="X31" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>66007</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>278</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>279</v>
+      </c>
+      <c r="J32" t="s">
+        <v>280</v>
+      </c>
+      <c r="K32" t="s">
+        <v>281</v>
+      </c>
+      <c r="L32" t="s">
+        <v>282</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>231</v>
+      </c>
+      <c r="O32" t="s">
+        <v>77</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>283</v>
+      </c>
+      <c r="X32" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>66007</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>286</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>287</v>
+      </c>
+      <c r="J33" t="s">
+        <v>288</v>
+      </c>
+      <c r="K33" t="s">
+        <v>289</v>
+      </c>
+      <c r="L33" t="s">
+        <v>290</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>231</v>
+      </c>
+      <c r="O33" t="s">
+        <v>94</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>291</v>
+      </c>
+      <c r="X33" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>66007</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>294</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>295</v>
+      </c>
+      <c r="J34" t="s">
+        <v>296</v>
+      </c>
+      <c r="K34" t="s">
+        <v>297</v>
+      </c>
+      <c r="L34" t="s">
+        <v>298</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>299</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>300</v>
+      </c>
+      <c r="X34" t="s">
+        <v>301</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>66007</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>303</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>304</v>
+      </c>
+      <c r="J35" t="s">
+        <v>305</v>
+      </c>
+      <c r="K35" t="s">
+        <v>306</v>
+      </c>
+      <c r="L35" t="s">
+        <v>307</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="s">
+        <v>299</v>
+      </c>
+      <c r="O35" t="s">
+        <v>77</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="n">
+        <v>3</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>308</v>
+      </c>
+      <c r="X35" t="s">
+        <v>309</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>66007</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>311</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>312</v>
+      </c>
+      <c r="J36" t="s">
+        <v>313</v>
+      </c>
+      <c r="K36" t="s">
+        <v>314</v>
+      </c>
+      <c r="L36" t="s">
+        <v>315</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>316</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>317</v>
+      </c>
+      <c r="X36" t="s">
+        <v>318</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>66007</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>320</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>321</v>
+      </c>
+      <c r="J37" t="s">
+        <v>322</v>
+      </c>
+      <c r="K37" t="s">
+        <v>323</v>
+      </c>
+      <c r="L37" t="s">
+        <v>324</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>299</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>325</v>
+      </c>
+      <c r="X37" t="s">
+        <v>326</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>66007</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>328</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>329</v>
+      </c>
+      <c r="J38" t="s">
+        <v>322</v>
+      </c>
+      <c r="K38" t="s">
+        <v>330</v>
+      </c>
+      <c r="L38" t="s">
+        <v>331</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>299</v>
+      </c>
+      <c r="O38" t="s">
+        <v>77</v>
+      </c>
+      <c r="P38" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>325</v>
+      </c>
+      <c r="X38" t="s">
+        <v>326</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>66007</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>333</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>334</v>
+      </c>
+      <c r="J39" t="s">
+        <v>335</v>
+      </c>
+      <c r="K39" t="s">
+        <v>336</v>
+      </c>
+      <c r="L39" t="s">
+        <v>337</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2</v>
+      </c>
+      <c r="N39" t="s">
+        <v>299</v>
+      </c>
+      <c r="O39" t="s">
+        <v>62</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>325</v>
+      </c>
+      <c r="X39" t="s">
+        <v>326</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>66007</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>339</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>340</v>
+      </c>
+      <c r="J40" t="s">
+        <v>341</v>
+      </c>
+      <c r="K40" t="s">
+        <v>342</v>
+      </c>
+      <c r="L40" t="s">
+        <v>343</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>299</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>344</v>
+      </c>
+      <c r="X40" t="s">
+        <v>345</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>66007</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>347</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>348</v>
+      </c>
+      <c r="J41" t="s">
+        <v>349</v>
+      </c>
+      <c r="K41" t="s">
+        <v>350</v>
+      </c>
+      <c r="L41" t="s">
+        <v>351</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>316</v>
+      </c>
+      <c r="O41" t="s">
+        <v>62</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>352</v>
+      </c>
+      <c r="X41" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>66007</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>355</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>356</v>
+      </c>
+      <c r="J42" t="s">
+        <v>357</v>
+      </c>
+      <c r="K42" t="s">
+        <v>358</v>
+      </c>
+      <c r="L42" t="s">
+        <v>359</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>316</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>360</v>
+      </c>
+      <c r="X42" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>66007</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>363</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>364</v>
+      </c>
+      <c r="J43" t="s">
+        <v>365</v>
+      </c>
+      <c r="K43" t="s">
+        <v>366</v>
+      </c>
+      <c r="L43" t="s">
+        <v>367</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>368</v>
+      </c>
+      <c r="O43" t="s">
+        <v>77</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>369</v>
+      </c>
+      <c r="X43" t="s">
+        <v>370</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>66007</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>372</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>373</v>
+      </c>
+      <c r="J44" t="s">
+        <v>374</v>
+      </c>
+      <c r="K44" t="s">
+        <v>375</v>
+      </c>
+      <c r="L44" t="s">
+        <v>376</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>377</v>
+      </c>
+      <c r="O44" t="s">
+        <v>77</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>378</v>
+      </c>
+      <c r="X44" t="s">
+        <v>379</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>66007</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>381</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>382</v>
+      </c>
+      <c r="J45" t="s">
+        <v>374</v>
+      </c>
+      <c r="K45" t="s">
+        <v>383</v>
+      </c>
+      <c r="L45" t="s">
+        <v>384</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>385</v>
+      </c>
+      <c r="O45" t="s">
+        <v>62</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>386</v>
+      </c>
+      <c r="X45" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>66007</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>389</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>390</v>
+      </c>
+      <c r="J46" t="s">
+        <v>391</v>
+      </c>
+      <c r="K46" t="s">
+        <v>392</v>
+      </c>
+      <c r="L46" t="s">
+        <v>393</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>368</v>
+      </c>
+      <c r="O46" t="s">
+        <v>94</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>394</v>
+      </c>
+      <c r="X46" t="s">
+        <v>395</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>66007</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>397</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>398</v>
+      </c>
+      <c r="J47" t="s">
+        <v>399</v>
+      </c>
+      <c r="K47" t="s">
+        <v>400</v>
+      </c>
+      <c r="L47" t="s">
+        <v>401</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>377</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>402</v>
+      </c>
+      <c r="X47" t="s">
+        <v>403</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>66007</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>405</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>406</v>
+      </c>
+      <c r="J48" t="s">
+        <v>407</v>
+      </c>
+      <c r="K48" t="s">
+        <v>408</v>
+      </c>
+      <c r="L48" t="s">
+        <v>409</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>377</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>402</v>
+      </c>
+      <c r="X48" t="s">
+        <v>403</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>66007</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>411</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>412</v>
+      </c>
+      <c r="J49" t="s">
+        <v>413</v>
+      </c>
+      <c r="K49" t="s">
+        <v>215</v>
+      </c>
+      <c r="L49" t="s">
+        <v>414</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>377</v>
+      </c>
+      <c r="O49" t="s">
+        <v>62</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>402</v>
+      </c>
+      <c r="X49" t="s">
+        <v>403</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>66007</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>416</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>417</v>
+      </c>
+      <c r="J50" t="s">
+        <v>418</v>
+      </c>
+      <c r="K50" t="s">
+        <v>419</v>
+      </c>
+      <c r="L50" t="s">
+        <v>420</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>377</v>
+      </c>
+      <c r="O50" t="s">
+        <v>77</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>421</v>
+      </c>
+      <c r="X50" t="s">
+        <v>422</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>66007</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>424</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>425</v>
+      </c>
+      <c r="J51" t="s">
+        <v>426</v>
+      </c>
+      <c r="K51" t="s">
+        <v>427</v>
+      </c>
+      <c r="L51" t="s">
+        <v>428</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>377</v>
+      </c>
+      <c r="O51" t="s">
+        <v>77</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>429</v>
+      </c>
+      <c r="X51" t="s">
+        <v>430</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>66007</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>432</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>433</v>
+      </c>
+      <c r="J52" t="s">
+        <v>434</v>
+      </c>
+      <c r="K52" t="s">
+        <v>435</v>
+      </c>
+      <c r="L52" t="s">
+        <v>436</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>437</v>
+      </c>
+      <c r="O52" t="s">
+        <v>77</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>438</v>
+      </c>
+      <c r="X52" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>66007</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>441</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>442</v>
+      </c>
+      <c r="J53" t="s">
+        <v>443</v>
+      </c>
+      <c r="K53" t="s">
+        <v>444</v>
+      </c>
+      <c r="L53" t="s">
+        <v>445</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>437</v>
+      </c>
+      <c r="O53" t="s">
+        <v>62</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>446</v>
+      </c>
+      <c r="X53" t="s">
+        <v>447</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>66007</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>449</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>450</v>
+      </c>
+      <c r="J54" t="s">
+        <v>451</v>
+      </c>
+      <c r="K54" t="s">
+        <v>452</v>
+      </c>
+      <c r="L54" t="s">
+        <v>453</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>385</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="s"/>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>454</v>
+      </c>
+      <c r="X54" t="s">
+        <v>455</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>66007</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>457</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>458</v>
+      </c>
+      <c r="J55" t="s">
+        <v>459</v>
+      </c>
+      <c r="K55" t="s">
+        <v>460</v>
+      </c>
+      <c r="L55" t="s">
+        <v>461</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>437</v>
+      </c>
+      <c r="O55" t="s">
+        <v>77</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>462</v>
+      </c>
+      <c r="X55" t="s">
+        <v>463</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>66007</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>465</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>466</v>
+      </c>
+      <c r="J56" t="s">
+        <v>467</v>
+      </c>
+      <c r="K56" t="s">
+        <v>468</v>
+      </c>
+      <c r="L56" t="s">
+        <v>469</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>385</v>
+      </c>
+      <c r="O56" t="s">
+        <v>77</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>470</v>
+      </c>
+      <c r="X56" t="s">
+        <v>471</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>66007</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>473</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>474</v>
+      </c>
+      <c r="J57" t="s">
+        <v>475</v>
+      </c>
+      <c r="K57" t="s">
+        <v>476</v>
+      </c>
+      <c r="L57" t="s">
+        <v>477</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>437</v>
+      </c>
+      <c r="O57" t="s">
+        <v>62</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="s"/>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>478</v>
+      </c>
+      <c r="X57" t="s">
+        <v>479</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>66007</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>481</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>482</v>
+      </c>
+      <c r="J58" t="s">
+        <v>483</v>
+      </c>
+      <c r="K58" t="s">
+        <v>484</v>
+      </c>
+      <c r="L58" t="s">
+        <v>485</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>385</v>
+      </c>
+      <c r="O58" t="s">
+        <v>94</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>486</v>
+      </c>
+      <c r="X58" t="s">
+        <v>487</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>66007</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>489</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>490</v>
+      </c>
+      <c r="J59" t="s">
+        <v>491</v>
+      </c>
+      <c r="K59" t="s">
+        <v>492</v>
+      </c>
+      <c r="L59" t="s">
+        <v>493</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>385</v>
+      </c>
+      <c r="O59" t="s">
+        <v>77</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>494</v>
+      </c>
+      <c r="X59" t="s">
+        <v>495</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>66007</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>497</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>498</v>
+      </c>
+      <c r="J60" t="s">
+        <v>491</v>
+      </c>
+      <c r="K60" t="s">
+        <v>499</v>
+      </c>
+      <c r="L60" t="s">
+        <v>500</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>385</v>
+      </c>
+      <c r="O60" t="s">
+        <v>62</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>494</v>
+      </c>
+      <c r="X60" t="s">
+        <v>495</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>66007</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>502</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>503</v>
+      </c>
+      <c r="J61" t="s">
+        <v>504</v>
+      </c>
+      <c r="K61" t="s">
+        <v>505</v>
+      </c>
+      <c r="L61" t="s">
+        <v>506</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>507</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="n">
+        <v>4</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>4</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>508</v>
+      </c>
+      <c r="X61" t="s">
+        <v>509</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>66007</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>511</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>512</v>
+      </c>
+      <c r="J62" t="s">
+        <v>513</v>
+      </c>
+      <c r="K62" t="s">
+        <v>514</v>
+      </c>
+      <c r="L62" t="s">
+        <v>515</v>
+      </c>
+      <c r="M62" t="n">
+        <v>2</v>
+      </c>
+      <c r="N62" t="s">
+        <v>385</v>
+      </c>
+      <c r="O62" t="s">
+        <v>77</v>
+      </c>
+      <c r="P62" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="n">
+        <v>4</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>2</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>516</v>
+      </c>
+      <c r="X62" t="s">
+        <v>517</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>66007</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>519</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>520</v>
+      </c>
+      <c r="J63" t="s">
+        <v>521</v>
+      </c>
+      <c r="K63" t="s">
+        <v>522</v>
+      </c>
+      <c r="L63" t="s">
+        <v>523</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>385</v>
+      </c>
+      <c r="O63" t="s">
+        <v>77</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>524</v>
+      </c>
+      <c r="X63" t="s">
+        <v>525</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>66007</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>527</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>528</v>
+      </c>
+      <c r="J64" t="s">
+        <v>529</v>
+      </c>
+      <c r="K64" t="s">
+        <v>530</v>
+      </c>
+      <c r="L64" t="s">
+        <v>531</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>385</v>
+      </c>
+      <c r="O64" t="s">
+        <v>62</v>
+      </c>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>532</v>
+      </c>
+      <c r="X64" t="s">
+        <v>533</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>66007</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>535</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>536</v>
+      </c>
+      <c r="J65" t="s">
+        <v>537</v>
+      </c>
+      <c r="K65" t="s">
+        <v>538</v>
+      </c>
+      <c r="L65" t="s">
+        <v>539</v>
+      </c>
+      <c r="M65" t="n">
+        <v>3</v>
+      </c>
+      <c r="N65" t="s">
+        <v>385</v>
+      </c>
+      <c r="O65" t="s">
+        <v>77</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="s"/>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>540</v>
+      </c>
+      <c r="X65" t="s">
+        <v>541</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>66007</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>543</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>544</v>
+      </c>
+      <c r="J66" t="s">
+        <v>545</v>
+      </c>
+      <c r="K66" t="s">
+        <v>546</v>
+      </c>
+      <c r="L66" t="s">
+        <v>547</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>385</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>540</v>
+      </c>
+      <c r="X66" t="s">
+        <v>541</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66007</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>549</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>550</v>
+      </c>
+      <c r="J67" t="s">
+        <v>551</v>
+      </c>
+      <c r="K67" t="s">
+        <v>552</v>
+      </c>
+      <c r="L67" t="s">
+        <v>553</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>385</v>
+      </c>
+      <c r="O67" t="s">
+        <v>62</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="n">
+        <v>4</v>
+      </c>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>554</v>
+      </c>
+      <c r="X67" t="s">
+        <v>555</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>66007</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>557</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>558</v>
+      </c>
+      <c r="J68" t="s">
+        <v>559</v>
+      </c>
+      <c r="K68" t="s">
+        <v>560</v>
+      </c>
+      <c r="L68" t="s">
+        <v>561</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>507</v>
+      </c>
+      <c r="O68" t="s">
+        <v>77</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="s"/>
+      <c r="T68" t="s"/>
+      <c r="U68" t="s"/>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>562</v>
+      </c>
+      <c r="X68" t="s">
+        <v>563</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>66007</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>565</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>566</v>
+      </c>
+      <c r="J69" t="s">
+        <v>567</v>
+      </c>
+      <c r="K69" t="s">
+        <v>560</v>
+      </c>
+      <c r="L69" t="s">
+        <v>568</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s"/>
+      <c r="O69" t="s"/>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="s"/>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>569</v>
+      </c>
+      <c r="X69" t="s">
+        <v>570</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>66007</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>572</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>573</v>
+      </c>
+      <c r="J70" t="s">
+        <v>574</v>
+      </c>
+      <c r="K70" t="s">
+        <v>575</v>
+      </c>
+      <c r="L70" t="s">
+        <v>576</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s"/>
+      <c r="O70" t="s"/>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="s"/>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="s"/>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>577</v>
+      </c>
+      <c r="X70" t="s">
+        <v>578</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>66007</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>580</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>581</v>
+      </c>
+      <c r="J71" t="s">
+        <v>582</v>
+      </c>
+      <c r="K71" t="s">
+        <v>583</v>
+      </c>
+      <c r="L71" t="s">
+        <v>584</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>507</v>
+      </c>
+      <c r="O71" t="s">
+        <v>53</v>
+      </c>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>585</v>
+      </c>
+      <c r="X71" t="s">
+        <v>586</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>66007</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>588</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>589</v>
+      </c>
+      <c r="J72" t="s">
+        <v>590</v>
+      </c>
+      <c r="K72" t="s">
+        <v>591</v>
+      </c>
+      <c r="L72" t="s">
+        <v>592</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>507</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="s"/>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>593</v>
+      </c>
+      <c r="X72" t="s">
+        <v>594</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>66007</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>596</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>597</v>
+      </c>
+      <c r="J73" t="s">
+        <v>598</v>
+      </c>
+      <c r="K73" t="s">
+        <v>599</v>
+      </c>
+      <c r="L73" t="s">
+        <v>600</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>507</v>
+      </c>
+      <c r="O73" t="s">
+        <v>77</v>
+      </c>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>601</v>
+      </c>
+      <c r="X73" t="s">
+        <v>602</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>66007</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>604</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>605</v>
+      </c>
+      <c r="J74" t="s">
+        <v>606</v>
+      </c>
+      <c r="K74" t="s">
+        <v>607</v>
+      </c>
+      <c r="L74" t="s">
+        <v>608</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>507</v>
+      </c>
+      <c r="O74" t="s">
+        <v>77</v>
+      </c>
+      <c r="P74" t="s"/>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>609</v>
+      </c>
+      <c r="X74" t="s">
+        <v>610</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>66007</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>612</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>613</v>
+      </c>
+      <c r="J75" t="s">
+        <v>614</v>
+      </c>
+      <c r="K75" t="s">
+        <v>615</v>
+      </c>
+      <c r="L75" t="s">
+        <v>616</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s"/>
+      <c r="O75" t="s"/>
+      <c r="P75" t="s"/>
+      <c r="Q75" t="s"/>
+      <c r="R75" t="s"/>
+      <c r="S75" t="s"/>
+      <c r="T75" t="s"/>
+      <c r="U75" t="s"/>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>617</v>
+      </c>
+      <c r="X75" t="s">
+        <v>618</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>66007</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>620</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>621</v>
+      </c>
+      <c r="J76" t="s">
+        <v>622</v>
+      </c>
+      <c r="K76" t="s">
+        <v>623</v>
+      </c>
+      <c r="L76" t="s">
+        <v>624</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>507</v>
+      </c>
+      <c r="O76" t="s">
+        <v>77</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="s"/>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="s"/>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>625</v>
+      </c>
+      <c r="X76" t="s">
+        <v>626</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>66007</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>628</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>629</v>
+      </c>
+      <c r="J77" t="s">
+        <v>630</v>
+      </c>
+      <c r="K77" t="s">
+        <v>631</v>
+      </c>
+      <c r="L77" t="s">
+        <v>632</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>633</v>
+      </c>
+      <c r="O77" t="s">
+        <v>634</v>
+      </c>
+      <c r="P77" t="s"/>
+      <c r="Q77" t="s"/>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>635</v>
+      </c>
+      <c r="X77" t="s">
+        <v>636</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>66007</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>638</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>639</v>
+      </c>
+      <c r="J78" t="s">
+        <v>640</v>
+      </c>
+      <c r="K78" t="s">
+        <v>641</v>
+      </c>
+      <c r="L78" t="s">
+        <v>642</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>633</v>
+      </c>
+      <c r="O78" t="s">
+        <v>77</v>
+      </c>
+      <c r="P78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="s"/>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="s"/>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>643</v>
+      </c>
+      <c r="X78" t="s">
+        <v>644</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>66007</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>646</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>647</v>
+      </c>
+      <c r="J79" t="s">
+        <v>648</v>
+      </c>
+      <c r="K79" t="s">
+        <v>649</v>
+      </c>
+      <c r="L79" t="s">
+        <v>650</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>633</v>
+      </c>
+      <c r="O79" t="s">
+        <v>77</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>4</v>
+      </c>
+      <c r="R79" t="s"/>
+      <c r="S79" t="s"/>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>4</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>651</v>
+      </c>
+      <c r="X79" t="s">
+        <v>652</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>66007</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>654</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>655</v>
+      </c>
+      <c r="J80" t="s">
+        <v>656</v>
+      </c>
+      <c r="K80" t="s">
+        <v>657</v>
+      </c>
+      <c r="L80" t="s">
+        <v>658</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>633</v>
+      </c>
+      <c r="O80" t="s">
+        <v>77</v>
+      </c>
+      <c r="P80" t="s"/>
+      <c r="Q80" t="s"/>
+      <c r="R80" t="s"/>
+      <c r="S80" t="s"/>
+      <c r="T80" t="s"/>
+      <c r="U80" t="s"/>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>659</v>
+      </c>
+      <c r="X80" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>66007</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>662</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>663</v>
+      </c>
+      <c r="J81" t="s">
+        <v>656</v>
+      </c>
+      <c r="K81" t="s">
+        <v>664</v>
+      </c>
+      <c r="L81" t="s">
+        <v>665</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>633</v>
+      </c>
+      <c r="O81" t="s">
+        <v>77</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="s"/>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="s"/>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>659</v>
+      </c>
+      <c r="X81" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>66007</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>667</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>668</v>
+      </c>
+      <c r="J82" t="s">
+        <v>669</v>
+      </c>
+      <c r="K82" t="s">
+        <v>670</v>
+      </c>
+      <c r="L82" t="s">
+        <v>671</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s">
+        <v>633</v>
+      </c>
+      <c r="O82" t="s">
+        <v>62</v>
+      </c>
+      <c r="P82" t="s"/>
+      <c r="Q82" t="s"/>
+      <c r="R82" t="s"/>
+      <c r="S82" t="s"/>
+      <c r="T82" t="s"/>
+      <c r="U82" t="s"/>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>672</v>
+      </c>
+      <c r="X82" t="s">
+        <v>673</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>66007</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>675</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>676</v>
+      </c>
+      <c r="J83" t="s">
+        <v>677</v>
+      </c>
+      <c r="K83" t="s">
+        <v>678</v>
+      </c>
+      <c r="L83" t="s">
+        <v>679</v>
+      </c>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="s">
+        <v>680</v>
+      </c>
+      <c r="O83" t="s">
+        <v>53</v>
+      </c>
+      <c r="P83" t="s"/>
+      <c r="Q83" t="s"/>
+      <c r="R83" t="s"/>
+      <c r="S83" t="s"/>
+      <c r="T83" t="s"/>
+      <c r="U83" t="s"/>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>681</v>
+      </c>
+      <c r="X83" t="s">
+        <v>682</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>66007</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>684</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>685</v>
+      </c>
+      <c r="J84" t="s">
+        <v>686</v>
+      </c>
+      <c r="K84" t="s">
+        <v>687</v>
+      </c>
+      <c r="L84" t="s">
+        <v>688</v>
+      </c>
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="s">
+        <v>680</v>
+      </c>
+      <c r="O84" t="s">
+        <v>77</v>
+      </c>
+      <c r="P84" t="s"/>
+      <c r="Q84" t="s"/>
+      <c r="R84" t="s"/>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>689</v>
+      </c>
+      <c r="X84" t="s">
+        <v>690</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>66007</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>692</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>693</v>
+      </c>
+      <c r="J85" t="s">
+        <v>694</v>
+      </c>
+      <c r="K85" t="s">
+        <v>695</v>
+      </c>
+      <c r="L85" t="s">
+        <v>696</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>680</v>
+      </c>
+      <c r="O85" t="s">
+        <v>77</v>
+      </c>
+      <c r="P85" t="s"/>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="s"/>
+      <c r="S85" t="s"/>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>697</v>
+      </c>
+      <c r="X85" t="s">
+        <v>698</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>66007</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>700</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>701</v>
+      </c>
+      <c r="J86" t="s">
+        <v>702</v>
+      </c>
+      <c r="K86" t="s">
+        <v>703</v>
+      </c>
+      <c r="L86" t="s">
+        <v>704</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>680</v>
+      </c>
+      <c r="O86" t="s">
+        <v>53</v>
+      </c>
+      <c r="P86" t="s"/>
+      <c r="Q86" t="s"/>
+      <c r="R86" t="s"/>
+      <c r="S86" t="s"/>
+      <c r="T86" t="s"/>
+      <c r="U86" t="s"/>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>705</v>
+      </c>
+      <c r="X86" t="s">
+        <v>706</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>66007</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>708</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>709</v>
+      </c>
+      <c r="J87" t="s">
+        <v>702</v>
+      </c>
+      <c r="K87" t="s">
+        <v>710</v>
+      </c>
+      <c r="L87" t="s">
+        <v>711</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>680</v>
+      </c>
+      <c r="O87" t="s">
+        <v>62</v>
+      </c>
+      <c r="P87" t="s"/>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="s"/>
+      <c r="S87" t="s"/>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>705</v>
+      </c>
+      <c r="X87" t="s">
+        <v>706</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>66007</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>713</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>714</v>
+      </c>
+      <c r="J88" t="s">
+        <v>715</v>
+      </c>
+      <c r="K88" t="s">
+        <v>716</v>
+      </c>
+      <c r="L88" t="s">
+        <v>717</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>680</v>
+      </c>
+      <c r="O88" t="s">
+        <v>62</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="s"/>
+      <c r="R88" t="s"/>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>705</v>
+      </c>
+      <c r="X88" t="s">
+        <v>706</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>66007</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>719</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>720</v>
+      </c>
+      <c r="J89" t="s">
+        <v>721</v>
+      </c>
+      <c r="K89" t="s">
+        <v>722</v>
+      </c>
+      <c r="L89" t="s">
+        <v>723</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>724</v>
+      </c>
+      <c r="O89" t="s">
+        <v>77</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="s"/>
+      <c r="S89" t="s"/>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>725</v>
+      </c>
+      <c r="X89" t="s">
+        <v>726</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>66007</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>728</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>729</v>
+      </c>
+      <c r="J90" t="s">
+        <v>730</v>
+      </c>
+      <c r="K90" t="s">
+        <v>731</v>
+      </c>
+      <c r="L90" t="s">
+        <v>732</v>
+      </c>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="s">
+        <v>724</v>
+      </c>
+      <c r="O90" t="s">
+        <v>77</v>
+      </c>
+      <c r="P90" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q90" t="s"/>
+      <c r="R90" t="s"/>
+      <c r="S90" t="s"/>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>733</v>
+      </c>
+      <c r="X90" t="s">
+        <v>734</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>66007</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>736</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>737</v>
+      </c>
+      <c r="J91" t="s">
+        <v>738</v>
+      </c>
+      <c r="K91" t="s">
+        <v>739</v>
+      </c>
+      <c r="L91" t="s">
+        <v>740</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>724</v>
+      </c>
+      <c r="O91" t="s">
+        <v>77</v>
+      </c>
+      <c r="P91" t="s"/>
+      <c r="Q91" t="n">
+        <v>5</v>
+      </c>
+      <c r="R91" t="s"/>
+      <c r="S91" t="s"/>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>733</v>
+      </c>
+      <c r="X91" t="s">
+        <v>734</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>66007</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>742</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>743</v>
+      </c>
+      <c r="J92" t="s">
+        <v>744</v>
+      </c>
+      <c r="K92" t="s">
+        <v>745</v>
+      </c>
+      <c r="L92" t="s">
+        <v>746</v>
+      </c>
+      <c r="M92" t="n">
+        <v>4</v>
+      </c>
+      <c r="N92" t="s">
+        <v>724</v>
+      </c>
+      <c r="O92" t="s">
+        <v>77</v>
+      </c>
+      <c r="P92" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q92" t="s"/>
+      <c r="R92" t="s"/>
+      <c r="S92" t="s"/>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>733</v>
+      </c>
+      <c r="X92" t="s">
+        <v>734</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>66007</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>748</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>749</v>
+      </c>
+      <c r="J93" t="s">
+        <v>750</v>
+      </c>
+      <c r="K93" t="s">
+        <v>751</v>
+      </c>
+      <c r="L93" t="s">
+        <v>752</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s">
+        <v>724</v>
+      </c>
+      <c r="O93" t="s">
+        <v>53</v>
+      </c>
+      <c r="P93" t="s"/>
+      <c r="Q93" t="s"/>
+      <c r="R93" t="s"/>
+      <c r="S93" t="s"/>
+      <c r="T93" t="s"/>
+      <c r="U93" t="s"/>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s">
+        <v>753</v>
+      </c>
+      <c r="X93" t="s">
+        <v>754</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>66007</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>756</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>757</v>
+      </c>
+      <c r="J94" t="s">
+        <v>758</v>
+      </c>
+      <c r="K94" t="s">
+        <v>759</v>
+      </c>
+      <c r="L94" t="s">
+        <v>760</v>
+      </c>
+      <c r="M94" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s">
+        <v>724</v>
+      </c>
+      <c r="O94" t="s">
+        <v>77</v>
+      </c>
+      <c r="P94" t="s"/>
+      <c r="Q94" t="s"/>
+      <c r="R94" t="s"/>
+      <c r="S94" t="s"/>
+      <c r="T94" t="s"/>
+      <c r="U94" t="s"/>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s">
+        <v>761</v>
+      </c>
+      <c r="X94" t="s">
+        <v>762</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>66007</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>764</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>765</v>
+      </c>
+      <c r="J95" t="s">
+        <v>766</v>
+      </c>
+      <c r="K95" t="s">
+        <v>767</v>
+      </c>
+      <c r="L95" t="s">
+        <v>768</v>
+      </c>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="s">
+        <v>724</v>
+      </c>
+      <c r="O95" t="s">
+        <v>634</v>
+      </c>
+      <c r="P95" t="s"/>
+      <c r="Q95" t="s"/>
+      <c r="R95" t="s"/>
+      <c r="S95" t="s"/>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s">
+        <v>761</v>
+      </c>
+      <c r="X95" t="s">
+        <v>762</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>66007</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>770</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>771</v>
+      </c>
+      <c r="J96" t="s">
+        <v>772</v>
+      </c>
+      <c r="K96" t="s">
+        <v>773</v>
+      </c>
+      <c r="L96" t="s">
+        <v>774</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s">
+        <v>724</v>
+      </c>
+      <c r="O96" t="s">
+        <v>77</v>
+      </c>
+      <c r="P96" t="s"/>
+      <c r="Q96" t="s"/>
+      <c r="R96" t="n">
+        <v>4</v>
+      </c>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s">
+        <v>775</v>
+      </c>
+      <c r="X96" t="s">
+        <v>776</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>66007</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>778</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>779</v>
+      </c>
+      <c r="J97" t="s">
+        <v>780</v>
+      </c>
+      <c r="K97" t="s">
+        <v>781</v>
+      </c>
+      <c r="L97" t="s">
+        <v>782</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s">
+        <v>724</v>
+      </c>
+      <c r="O97" t="s">
+        <v>53</v>
+      </c>
+      <c r="P97" t="s"/>
+      <c r="Q97" t="s"/>
+      <c r="R97" t="s"/>
+      <c r="S97" t="s"/>
+      <c r="T97" t="s"/>
+      <c r="U97" t="s"/>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s">
+        <v>783</v>
+      </c>
+      <c r="X97" t="s">
+        <v>784</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>66007</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>786</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>787</v>
+      </c>
+      <c r="J98" t="s">
+        <v>788</v>
+      </c>
+      <c r="K98" t="s">
+        <v>789</v>
+      </c>
+      <c r="L98" t="s">
+        <v>790</v>
+      </c>
+      <c r="M98" t="n">
+        <v>5</v>
+      </c>
+      <c r="N98" t="s">
+        <v>724</v>
+      </c>
+      <c r="O98" t="s">
+        <v>53</v>
+      </c>
+      <c r="P98" t="s"/>
+      <c r="Q98" t="s"/>
+      <c r="R98" t="n">
+        <v>5</v>
+      </c>
+      <c r="S98" t="n">
+        <v>5</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s">
+        <v>783</v>
+      </c>
+      <c r="X98" t="s">
+        <v>784</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>791</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_2.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="792">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="889">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>JojomomBoston</t>
+  </si>
+  <si>
     <t>06/27/2018</t>
   </si>
   <si>
@@ -187,6 +190,9 @@
   </si>
   <si>
     <t>The rooms really only work for the solo traveler as the king beds are narrower than a true king and the bathroom is partitioned behind a a glass slider. The furniture and bare floors give off an IKEA vibe and the tiny room stocked with towels that looked donated by the local Y reminded me of some of the dorm rooms we were shown touring the college campuses. The most painful was paying the $404 for a single night's stay (including the $20 fee for off-site, self-parking). And, no - breakfast was NOT included. Ouch, ouch. Finally, the Marriott website indicates attributes that - as it turns out - the AC Hotel Irvine does not have. On it, I booked a rollaway and opted for extra pillows on the pulldown menu. Do not make this mistake - these requests just end up floating around in Marriott cyberspace or were gobbled up by a black hole. On a more positive note, the hotel does have some appealing public seating in the lobby and by the pool. There are several chain restaurants within an easy walk.More</t>
+  </si>
+  <si>
+    <t>Brian2078</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r588205518-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
@@ -220,6 +226,9 @@
 The AC Hotel is a very nice and modern facility but what sets it apart are the people who work there.  Every one of the hotel staff were friendly and attentive to making our stay exceptional.  When we...We were in Irvine for a seminar, spent two nights in the AC Hotel and thoroughly enjoyed our experience.  I am somewhere between amused to dumbfounded by a few of the negative comments I’ve read in prior reviews (energy-saving key cards, and breakfast). The theme is European, and the AC rooms are about the size you’d expect in Europe.  Our room was well apportioned, immaculate, and quiet.  Granted, I don’t know if there were occupants next door, but our room was quiet for the duration of our stay.  The facility is neat, clean, modern appearing and the lobby and bar are both bright and welcoming.  The hotel is within easy walking distance of numerous restaurants and stores; we enjoyed parking our car and walking the neighborhood because the traffic on the nearby 405 freeway is legendarily heavy.We had their “European” themed breakfast and on both occasions, we sampled the buffet treats (meats, cheese, yogurt, fruit, etc.) and ordered a hot dish.  Their onsite bar was a very pleasant surprise.  It’s comfortable and the drinks are very good.  A surprising aspect is that the bar has a neighborhood feel because the hotel is situated among nearby condominiums and as such, locals visit.The AC Hotel is a very nice and modern facility but what sets it apart are the people who work there.  Every one of the hotel staff were friendly and attentive to making our stay exceptional.  When we arrived, we were greeted at check-in by Houman and he quickly assigned our room and gave amazingly accurate directions and advice about the neighborhood.  We were not in the mood for Mexican food, so he recommended the nearby North Italia restaurant.  We went to the restaurant, sat at their bar for dinner and the bartender there commented that their crew go to the AC bar for drinks.  Houman and the rest of the crew were just great and really made the two day visit memorable.The crew is great, the bar has a neighborhood feel, and the location was for us, perfect.We recommend the AC and will stay there on our next visit to Irvine.More</t>
   </si>
   <si>
+    <t>Jeanne S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r587715946-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
   </si>
   <si>
@@ -238,6 +247,9 @@
     <t>Picked this hotel because it had windows (in the "City View" rooms) that open, so we stayed in one of these corner rooms.Check in was done at break neck speed by person at the desk; had to ask him three times to repeat himself, and neither my husband or I are even slightly hard of hearing. We did not hear him mention (if he did ) the energy-saving card key slot for the room, spent 10 minutes trying to figure out the lights! The room was very small, modern and clean (should be, it's new!) which was OK, but lighting was poor; lights around the sink area did not illuminate enough for shaving or makeup! Shower was a cheap-feeling stall. Walls were quite thin; heard more than we wanted to at about 1am from one of the rooms. Parking was a hassle and $20.00/day; at check out the same person at the desk we had at check-in failed to mention that we needed to have a validation stamp on our parking stub, or get charged another day; husband had to run back from the garage to the hotel to get it stamped. No apology was offered, which I think would have made a difference to us. Only positive thing I can say was that the beds were very comfortable. Interesting to note, the hotel did not send me an email asking for feedback on our stay, which Marriotts usually does...maybe...Picked this hotel because it had windows (in the "City View" rooms) that open, so we stayed in one of these corner rooms.Check in was done at break neck speed by person at the desk; had to ask him three times to repeat himself, and neither my husband or I are even slightly hard of hearing. We did not hear him mention (if he did ) the energy-saving card key slot for the room, spent 10 minutes trying to figure out the lights! The room was very small, modern and clean (should be, it's new!) which was OK, but lighting was poor; lights around the sink area did not illuminate enough for shaving or makeup! Shower was a cheap-feeling stall. Walls were quite thin; heard more than we wanted to at about 1am from one of the rooms. Parking was a hassle and $20.00/day; at check out the same person at the desk we had at check-in failed to mention that we needed to have a validation stamp on our parking stub, or get charged another day; husband had to run back from the garage to the hotel to get it stamped. No apology was offered, which I think would have made a difference to us. Only positive thing I can say was that the beds were very comfortable. Interesting to note, the hotel did not send me an email asking for feedback on our stay, which Marriotts usually does...maybe they knew what the answer would be? I am a fan of the Marriott chain and its affiliates, but will not bother with this hotel again. There are lots of others, with friendlier service, to choose from...More</t>
   </si>
   <si>
+    <t>Chase B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r586326661-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
   </si>
   <si>
@@ -265,6 +277,9 @@
     <t>So I came to Irvine this weekend on a business trip and I brought along my GF who is an extremely heavy sleeper. One night during my stay, my GF accidentally dead-bolted our hotel room door after a long night of work for me. After trying a few keys, Jericho brought up a master to try and reverse the deadbolt so I could get some sleep. After that failed, I told him I was going to go sleep in my car as it was the only option, Jericho then told me that "sleeping in my car wasn't an option" and made me stay in the vacant room across the hall. Considering I had to work another 12 hours the next day, this was super generous and helpful.  I am so glad I got a good sleep in a bed instead of my car cause that next day was extremely rough. Jericho showed some real CS and made me a Marriott fan for life.Other than the great CS, this hotel is dope. It's right next to a popping little part of town and super close to beach cities and other Southern California attractions.More</t>
   </si>
   <si>
+    <t>caglobe85</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r586124755-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
   </si>
   <si>
@@ -286,6 +301,9 @@
     <t>This hotel is a tech's world to all things environmentally and ergo centered. That's fine, but the basics like flushing the toilet were issues as well as annoying key lights for on/off. Took some asking to figure things out.  Just give me the basics instead of need this to do that...blah, blah, blah. oval soaps not practical, insufficient toiletries, and no back chairs. Couldn't wait to get back to a basic hotel.More</t>
   </si>
   <si>
+    <t>Samantha P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r585213930-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
   </si>
   <si>
@@ -310,6 +328,9 @@
     <t>A big thank you to the staff at AC Irvine for making us feel welcomed and comfortable for our first stay at your location!!! I was treated with kindness and respect when I checked in for our weekend, and loved the ambiance of the hotel as well. When walking inside, or through the halls, the staff was always friendly and polite. The valet and front desk staff were wonderful as well,  and reliable! Our room was fresh and spotless, thanks to the amazing cleaning services! I will be coming back, thank you AC Irvine!More</t>
   </si>
   <si>
+    <t>christopherjoy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r581820532-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
   </si>
   <si>
@@ -334,6 +355,9 @@
     <t>We recently traveled to Orange County for the memorial service of a great friend. The AC Hotel was very affordable and very well staffed from the valet, to the front desk, to the room cleaning team led by Emsal who was an absolute pleasure when responding to our needs. We will definitely make a return visit in the future, hopefully under better circumstances.More</t>
   </si>
   <si>
+    <t>familyfour85</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r581294828-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
   </si>
   <si>
@@ -358,6 +382,9 @@
     <t>Very convenient within walking distance to stores, restaurants and Starbucks.   Very clean, nice staff and great location.  Minimal space for hanging clothes and storing clothing.Valet parking charge of $25 a day.  Breakfast buffet had a charge and the offering looked very unappetizing to us.  Instead we walked across the street to Mother's grocery and had a fabulous farm to table breakfast for less.   Beautiful lounge area and roof top pool.More</t>
   </si>
   <si>
+    <t>blueines</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r580527951-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
   </si>
   <si>
@@ -382,6 +409,9 @@
     <t>this is a great little hotel that will offer a restful stay, but more than anything i would return for their outstanding service, especially from houman at the front desk! he put in the extra time and effort to go above and beyond to ensure everything about my stay was perfect. everyone else at the hotel also seemed attentive and helpful, including those at the valet parking and the kitchen. rooms were probably on the smaller side but was clean and had everything i needed. hotel was conveniently located near a few good restaurant options.More</t>
   </si>
   <si>
+    <t>chrisjgrillo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r578189838-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
   </si>
   <si>
@@ -409,6 +439,9 @@
     <t>I practically lived at this HOTEL every other week the months of March-May 6. My last business trip is coming to an end tomorrow. I've been away from my daughters for 22 days total this trip. During my many trips I got to know the front desk representatives very well. They were AMAZING, easy to talk too, and ALWAYS went ABOVE / BEYOND. Honestly there are way too many reason to list why I will ALWAYS stay at the AC Irvine when handling Business in the OC area. Knowing this is my last confirmed business/personal trip down here until August. Sarah and Houman went as far as writing me a personal letter and getting my 3.5 year old Daughter a Disney Princess Barbie. That was the COOLEST thing the Team could've ever done, THANKS! The whole hotel and surrounding area's are amazing. The hotel has a nice bar and some really good happy hour food, especially the meatballs with red sauce. There's all kinds of great food across from the hotel and a short drive around the corner. With the amount of time I was staying at the AC, I ate pretty much everywhere (Irvine/Santa Ana/Newport/Costa Mesa). My only advice is plan on making reservations pretty much everywhere, all nights of the week. With the amazing staff, I'm sure your stay will be just as good as mine. Thanks to the current AC Hotel Marriott Irvine Team :)More</t>
   </si>
   <si>
+    <t>SiobhanShea</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r577710824-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
   </si>
   <si>
@@ -427,6 +460,9 @@
     <t>I stayed here for 3 days while in town for business, and it couldn't have been more ideal. The entire ground floor area is tables and large work stations spread out so there is room for everyone to work, hold small meetings, make critical phone calls and not ever encroach on anyone else's space. The staff are super helpful, the rooms are spotless, and the on-site snack shop had the best selection of choices that I've ever come across (organic, grass fed jerky anyone?) I will stay here every time I'm back!More</t>
   </si>
   <si>
+    <t>denisemark1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r577525971-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
   </si>
   <si>
@@ -451,6 +487,9 @@
     <t>We love everything about this hotel.  Style, cleanliness, workout area, pool etc.  Most of all we love how every employee is extremely friendly, helpful, caring, professional and always want to assist in any way possible.  This is the situation this evening with Jericho Nucum.  Extremely helpful and went above and beyond with a work problem I needed help with.      Really good customer service is hard to find anymore but we stay here at this hotel all the time and not once have we had bad service.  Jericho is a great example of this.  Thank you Marriott for having such great employees.More</t>
   </si>
   <si>
+    <t>jandago</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r576212957-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
   </si>
   <si>
@@ -475,6 +514,9 @@
     <t>The sleek, modern European look of this hotel is impressive. We found the rooms to be the same, streamlined but comfortable and pleasing to the eye.The staff was friendly and professional. On arrival we were warmly greeted by Mike (Valet parking) and Houman (Desk Clerk), both of whom explained everything we needed to know about the parking situation and the hotel amenities. On check out, the desk clerk was friendly, personable, and efficient; I didn't get her name, but her initials were CLG.We chose this hotel because of its proximity to the Irvine Barclay Theatre. The shopping center just across the street with stores, eateries, and Mother's Market, was an added bonus. We could park our car in the parking structure and were at dinner (and breakfast) in moments. When in this area, we'd definitely return to AC Hotel.More</t>
   </si>
   <si>
+    <t>Stephanie M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r575487909-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
   </si>
   <si>
@@ -499,6 +541,9 @@
     <t>Had so much fun (maybe too much fun) playing trivia in the AC Lounge. I'm sure we could have done better than tying for 3rd place, but SO MANY GREAT COCKTAILS. The bartenders are friendly and knowledgeable and their drinks not only taste great but are all totally insta-worthy. The trivia was tough but super fun. I can't wait to go back!More</t>
   </si>
   <si>
+    <t>Aaron O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r573294572-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
   </si>
   <si>
@@ -523,6 +568,9 @@
     <t>We stopped here to visit friends while in California for work. Upon arrival, all of the staff was VERY friendly, helpful &amp; accommodating. They were friendly every time we entered &amp; exited the building or had a question. The room was a great size with a large floating bench, which was handy for luggage. It was clean &amp; one of the best parts was no carpet!! The fitness room was spacious &amp; equipped better than most. We didn’t get to use the pool, but the pool &amp; deck area looked great. The location was close to food &amp; shopping. It was also pet friendly for our 4 legged buddy. Nothing but great things to say about our stay here!! Wish more places were like this!! More</t>
   </si>
   <si>
+    <t>Jen B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r570272158-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
   </si>
   <si>
@@ -547,6 +595,9 @@
     <t>AC Hotel by Marriott Irvine is such a wonderful place to stay at. It was our second visit! The service is excellent and the staff is friendly and helpful. The location is great - lots of places to eat and dog friendly. We will be back!More</t>
   </si>
   <si>
+    <t>JANsterDV</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r570270431-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
   </si>
   <si>
@@ -568,6 +619,9 @@
     <t>This is my second time staying at the AC hotel.  Love the modern, boutique vibe.  Great location and the center has great eateries you can walk to.  Staff is very accommodating especially the bartender, Luis.  He makes the best cocktails to cater your needs.  Overall, I can’t wait to stay here again! A++++++More</t>
   </si>
   <si>
+    <t>marion93722</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r570016336-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
   </si>
   <si>
@@ -592,6 +646,9 @@
     <t>Check in is very efficient with friendly staff ( contrary to what I read). Sarah is great! Actually all staff that we encountered were very helpful and pleasant.The functionality of the design incorporates with practicality.Parking is a bit walk off the premises if you self park.The pool is heated with piped in music and the towels smell fresh and good!Walkable to restaurants.Worked great for us since it's very close to UCI for a visit to our daughter. Location is perfect if you want to hit the beaches too.Breakfast with the room has both healthy and rich choices.I commend the supplier for croissants, close to Parisian croissants.The parfait I had was delightful ( mango/coconut with Chia seeds I believe). There was also a nespresso machine aside from the regular brewed coffee. It's  a good place to stay and would always consider this place when visiting againMore</t>
   </si>
   <si>
+    <t>ahghis</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r569087580-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
   </si>
   <si>
@@ -616,6 +673,9 @@
     <t>The hotel looks and feels brand new. Great rooms with plenty of space and modern, minimalistic design. Loved it. But the highlight was super friendly, polite, helpful, and accommodating staff. Huge shout out to Houman for great service and making our stay as enjoyable as possible.More</t>
   </si>
   <si>
+    <t>Hilary K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r568473414-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
   </si>
   <si>
@@ -640,6 +700,9 @@
     <t>This shiny modern hotel is staffed by folks that are genuinely interested in service. Houman was particularly responsive, writing down an address for a particular area with the type of Asian food that we were looking for, and scheduling an early morning cab ride to the airport. Being walking distance to a natural foods store was a real plus.More</t>
   </si>
   <si>
+    <t>Amir A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r568190940-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
   </si>
   <si>
@@ -658,6 +721,9 @@
     <t>Both Houman and Sarah at the front desk were very kind and helpful. They were very open helping and answering questions, ensuring that my stay here was very pleasant. I look forward to staying here again because if their exceptionally kind and welcoming hospitality.More</t>
   </si>
   <si>
+    <t>kymberlee M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r567155593-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
   </si>
   <si>
@@ -682,6 +748,9 @@
     <t>The hotel is beautiful; very modern and simple. Houman A. assisted us with checking in and parking and he was a fantastic help and made us feel welcomed. The room was very nice and clean as well as the bathroom. The tv was equipped with Netflix and Hulu; which is amazing! They also have a 24 hour fitness center for anyone who needs a good workout.More</t>
   </si>
   <si>
+    <t>suebee0414</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r567063948-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
   </si>
   <si>
@@ -700,6 +769,9 @@
     <t>This is a beautiful hotel, impeccably clean, very friendly staff. I’ll definitely stay here again and recommend it. It’s a modern, European feel, and the breakfast buffet was delicious. The fitness center is very nice, as is the pool area.More</t>
   </si>
   <si>
+    <t>themullens2018</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r566549804-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
   </si>
   <si>
@@ -727,6 +799,9 @@
     <t>We had not stayed at this kind of Marriott property before, and we were pleasantly surprised.  The room was lovely, clean, and very efficiently laid out - a new design.  The front desk employee, Adam, went above and beyond to figure out how to help us with a tricky shipment.  There are restaurants within walking distance, as well.  We would stay here again!More</t>
   </si>
   <si>
+    <t>DKMsocal</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r564758239-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
   </si>
   <si>
@@ -751,6 +826,9 @@
     <t>Good option if you are looking for simplicity. This is a European style hotel with very clean room, simple decor. Restrooms and bath area were very comfortable. If the price is right, this is a good option. Quiet, no balcony. More</t>
   </si>
   <si>
+    <t>dogs8shoe</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r564711977-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
   </si>
   <si>
@@ -766,6 +844,9 @@
     <t>What a lovely hotel- simple and clean with a high-end vibe. the location was great- a new hot spot with great restaurants (Puesto!) and shops. The staff was great- Sarah and Houman (out-of-his-way kind) welcomed me, helped with all my questions and made sure I was happy whenever they saw me- thanks!!I will be back!More</t>
   </si>
   <si>
+    <t>Carolyn R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r564369139-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
   </si>
   <si>
@@ -788,6 +869,9 @@
   </si>
   <si>
     <t>We stayed here over President’s Day weekend and had a great time. We had never been to this hotel or any of the AC brand, but liked the photos and the concept from what we saw and read online. I guess this is more of a business type hotel, but we enjoyed the modern minimalist theme they have going on for our couples getaway. Our check in with Sarah was quick and pleasant, she seemed ready to offer suggestions or answer questions, but we just wanted to start exploring the hotel and the surrounding activities. Our room was a King size bed with a floor to ceiling window (see sunset picture) and nice faux wood flooring. Comfortable simple seating with minimal decorations just solid clean modern design/textures. An interactive flat screen TV and a nice big bathroom and dressing area. The bed was super comfy as were the pillows. They have this feature when you enter the room you put a key card in this wall slot and it turns on various lights, then as you are leaving, you pull out your key card and it will shut everything off. Everything in the room felt clean, and this modern minimalist concept makes sense when you think of spills or stains, etc. no carpet, no funky dated upholstery, just smooth clean neutral surroundings. At the ice machine down the hall, they have these big carafes you can fill with ice water...We stayed here over President’s Day weekend and had a great time. We had never been to this hotel or any of the AC brand, but liked the photos and the concept from what we saw and read online. I guess this is more of a business type hotel, but we enjoyed the modern minimalist theme they have going on for our couples getaway. Our check in with Sarah was quick and pleasant, she seemed ready to offer suggestions or answer questions, but we just wanted to start exploring the hotel and the surrounding activities. Our room was a King size bed with a floor to ceiling window (see sunset picture) and nice faux wood flooring. Comfortable simple seating with minimal decorations just solid clean modern design/textures. An interactive flat screen TV and a nice big bathroom and dressing area. The bed was super comfy as were the pillows. They have this feature when you enter the room you put a key card in this wall slot and it turns on various lights, then as you are leaving, you pull out your key card and it will shut everything off. Everything in the room felt clean, and this modern minimalist concept makes sense when you think of spills or stains, etc. no carpet, no funky dated upholstery, just smooth clean neutral surroundings. At the ice machine down the hall, they have these big carafes you can fill with ice water and take back to your room. I loved that! We had dinner at the adjoining restaurant Puesto and then came back to the lobby bar to have a drink while we decided on what to do next...well, we were having such a good time with the other patrons and the sweetest bartender (also named Sarah, but not the same person as check in) we ended up drinking at the lobby bar for hours! Sarah was an excellent bartender and poured some pretty great drinks. Breakfast at the hotel in the morning was delicious, although a bit confusing. It is not complimentary, but they have some items laid out on a buffet, an expresso machine, but no signage on what things cost or how to get an expresso. Once we sat down at a table, we saw there were 2 options for hot meals from the kitchen so we each ordered one from the one girl who was working. It was delicious, but not your typical hotel breakfast fare. I felt like I was eating from a Parisian cafe. Each breakfast was $16+ which is just very different from other hotels. Although we didn’t swim, we checked out the small pool area and its a great quiet place to chill out for sure, nice comfortable furnishings. The lobby is spacious and gorgeous, ample outlets for all your devices if you’re working. The whole place feels very upscale, but rates were the same or less than other hotels in the area. We would love to stay here again!More</t>
+  </si>
+  <si>
+    <t>missyltc</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r563598450-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
@@ -810,6 +894,9 @@
 The food in the bar - mostly small plates was actually exceptional and the best part of our stay.  A good thing too because all the nearby restaurants (even on a Monday night) had an hour long wait for tables and were noisy.  So we were grateful for the excellent food choices and good drinks the hotel bar.  And a very cozy atmosphere.  The service left a little to be desired; they were understaffed but that doesn't excuse being rude.  There is a cute "call for service button" on the table which of course one uses.  But the server doesn't come so about 5 minutes later, we push it again.  When she eventually shows up, she snaps at us, "I was busy making drinks for other people."  Something more like, "I'm so sorry you had to wait...we...We stayed here for business because our work was walking distance.  I liked the contemporary feel of the décor but they went a little overboard in that regard.  The rooms could have used a little touch of color - a hint of lime or burgundy accent pillow or something to soften the sea of putty grey that mostly looked most institutional than modern without nice décor touches.  Not a big deal but if you are touting the look of your brand, then pay attention to style.  The lobby and bar had a lot more to offer in that regard but rooms were lacking.The food in the bar - mostly small plates was actually exceptional and the best part of our stay.  A good thing too because all the nearby restaurants (even on a Monday night) had an hour long wait for tables and were noisy.  So we were grateful for the excellent food choices and good drinks the hotel bar.  And a very cozy atmosphere.  The service left a little to be desired; they were understaffed but that doesn't excuse being rude.  There is a cute "call for service button" on the table which of course one uses.  But the server doesn't come so about 5 minutes later, we push it again.  When she eventually shows up, she snaps at us, "I was busy making drinks for other people."  Something more like, "I'm so sorry you had to wait...we are unusually busy tonight.  How about if I bring over a complimentary small plate of something" would have completely changed our attitude (and her tip).The biggest hesitation about returning however is that the hotel walls are surprisingly thin.  I was lucky that they were able to move me to a room at the end of a hallway and that I only had a "neighbor" for one night.  The first room I was in was next to someone blaring music.  Even if someone is just on the telephone or watching quiet TV, be prepared to hear every word because your bed is next to their desk or TV or radio.  Thank goodness the person didn't snore.  Unless you sleep very soundly, are lucky enough to have an empty room next to you, or have a room next to someone you know and love, you will not be at ease with the noise level.  Fortunately, I did not hear any hallway noise as the rooms are large and well set back from the hall.  I was actually prepared to buy 2 rooms if that was the only way I was going to sleep.  I was on the top floor so I can't say whether sound carries to rooms below.Management seemed surprised to hear how audible sounds are from room to room but everyone in our group had the same observation.  We used ear plugs or sleep sound apps or slept with our TV on or slept "backwards" on the bed to keep our ears further from the adjoining wall.  I thought about dragging my mattress onto the floor the first night but was too tired to bother.  Thankfully, no one occupied the room (or talked or used the TV) the 2nd night.So I would probably not return given the uncertainties about quiet which for me is a make or break in a hotel.  Also, the room fan which is often a great source of white noise to protect against noisy neighbors does not have a setting that lets you keep it in a constant "on" mode.  So that is a deadly combination for a light sleeper.  For me, it means I won't be coming back to a property.More</t>
   </si>
   <si>
+    <t>Bernie B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r563454643-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
   </si>
   <si>
@@ -834,6 +921,9 @@
     <t>Great hotel perfectly located for our business trip. Staff very friendly and helpful. Would recommend this hotel in Irvine California   Good restaurants located nearby    Hotel very clean and has a nice pool and fitness centre.   Great fitness centre situated next to hotel More</t>
   </si>
   <si>
+    <t>Donny C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r563191057-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
   </si>
   <si>
@@ -858,6 +948,9 @@
     <t>AC Hotel Irvine is just a perfect hotel with an outstanding staff &amp; management Team.  The location is great. The rooms are modern &amp; clean.  We loved the dog friendly environment.  I was on a business trip but it was so good that I added a couple of days to make a weekend and enjoy local restaurants and hotel bar.Spoke to the GM a few times who was like no other GM that I have met.  Friendly, kind, courteous and not full of themselves.The bar staff was simply the best I’ve experienced and housekeeping was spot on.Definitely my favorite hotel thus far.More</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r561312466-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
   </si>
   <si>
@@ -882,6 +975,9 @@
     <t>I have stayed here on three extended business trips in 2017 and 2018.  The staff is wonderful and always happy to help in whatever way they can.  The bar area is also nice too, the small plates are tasty and the service is good.  My one complaint is about the rooms themselves - while definitely trendy and modern, the simplicity cam cause problems for a long term traveler (ie no closet, no drawers save one containing a bible, a small bar on  which to hang clothes and a glass shelf).  If I were here for a short stay it wouldn't have been an issue and the rooms are otherwise very comfortable but each of my trips was several weeks long so was a little challenging.  But good location for where I needed to be (working in Park Place corporate park) with wildlife refuge across the street and plenty of eating options and even a bowling alley in short walking distance.More</t>
   </si>
   <si>
+    <t>Scott H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r559055379-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
   </si>
   <si>
@@ -906,6 +1002,9 @@
     <t>Was in town visiting UCI, Jason Cure one of the managers there was super helpful getting us ready for our stay. We ended up bringing our dog and the wonderful front office staff got him a treat right away! We also were able to check-in early. Overall, really great. One thing to note is there is a charge for parking, I know many hotels do this these days but I wish they would not considering there are not really any self-park options.More</t>
   </si>
   <si>
+    <t>Kevin L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r557942559-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
   </si>
   <si>
@@ -933,6 +1032,9 @@
     <t>From the moment that my fiancè and I reached out to Kyle and her team, they were quick to respond and very helpful. They didn't hesitate at our request for a tour of the facilities and were very accommodating to our needs. We had requested a conference room to allow our wedding party to get ready (hair and make-up) since they don't have suits, and they were very accommodating. They had the room ready for us well before the time we had requested and they even had a bottle of champagne for our group! Overall, the entire staff was very helpful and we didn't have to stress about our guests staying here. This was a great help as this was one less thing to stress about on our big day!More</t>
   </si>
   <si>
+    <t>The S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r554018486-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
   </si>
   <si>
@@ -957,6 +1059,9 @@
     <t>I stay in hotel 75-200 nights per year on average.  Marriott rewards member Platinum.   This hotel is in a good location of Irvine.   The hotel itself is so-so.   Walls are thin.   Can hear the person next to me snoring.  Rooms are estetically very nice.   Bathrooms are nice.   Wifi is great to get work done while in the hotel.  Housekeeping is very loud in the hallways in the morning.   Even with a Do not disturb on the door, they are crashing around.   Not very respectful of the guests.   Heard someone loudly ask them in the hallway to be quiet.    Restaurant for breakfast;European style.   Options are very few.  Not really a good choice for the hotel guests.   This european style does not work for North American travellers usually.   I saw more people walk in, check out the "buffet" style with 12 or so options, and leave.  People want choice, and there is not much here.  Quiches, yogurt, a few meats and cheeses, and bread products. Hard boiled egg, pickles??  They have a Cappucino machine which delivers a luke warm coffee.   Regular and Decaf coffee available as well.I would plan on eating somewhere else when you stay at this hotel and not have any expectations eating here.   Breakfast is the most important meal of the day, and this one dissapoints unfortunatley.   One last thing, lots of building going on outside so not quiet right now.More</t>
   </si>
   <si>
+    <t>jetpopkid</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r553854666-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
   </si>
   <si>
@@ -984,6 +1089,9 @@
     <t>Our family travels the world and the AC Hotel, Irvine is by far our favorite hotel!! The modern design of the hotel is welcoming and beautiful, we love the clean lines and minimalistic feel. The front desk staff, especially Adam, went above and beyond our expectations to ensure we were comfortable during the holidays. The housekeeping supervisor, Claudia, always had a smile on her face and took extra efforts to keep our room clean while our daughter was sick. There are plenty of food choices nearby and it’s extremely close to the airport. We look forward to our next stay!!!!More</t>
   </si>
   <si>
+    <t>Soulfultrvlr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r552841681-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
   </si>
   <si>
@@ -1008,6 +1116,9 @@
     <t>Our family stayed here as part of our getaway to Laguna Beach for the NYE holiday.  The facility itself is very contemporary with modern furnishings.  It’s conveniently located next to restaurants and shops.The hotel is pet friendly which can be an issue for people like me with allergies and/or asthma.  We requested an allergen free room and free from pet dander.  For whatever reason, the first room they gave us on the top floor triggered my asthma and I had an attack in the morning. My husband requested another room and the front desk staff said they would make sure that they would do a deep cleaning of the second room.The second room had the same layout but didn’t trigger my asthma at all.  The showers in both rooms were nice and modern. The first room we were given had low shower pressure but for some reason the second room we were given had better shower pressure.Overall, the concept of the AC hotel brand works for those who like modern but very basic amenities.  The rooms, although contemporary, had a more basic and barebones feel.  They don’t provide free coffee in the lobby but they provide coffee in the rooms.  Overall, I wouldn’t mind staying at this brand of Marriott again but I don’t thing it would be my first choice.More</t>
   </si>
   <si>
+    <t>Sam S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r552744245-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
   </si>
   <si>
@@ -1021,6 +1132,9 @@
   </si>
   <si>
     <t>Luis is one of the friendliest, creative bartenders I've ever met. Everytime I stay here he's been wonderful! I wouldn't recommend the breakfast for the price, I wish I could get room service or order from a menu.More</t>
+  </si>
+  <si>
+    <t>rlee508</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r552566618-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
@@ -1047,6 +1161,9 @@
 At 5:40 am, my wife and I heard the unmistakable sound of heavy drilling coming from the floor above - this lasted about 20 minutes. Just when we were hoping to drop off to sleep again, we heard hammering sounds begin just past 6:00 am - again from the floor above. This lasted about 15 minutes. After that it got a little quieter, but we could still hear tools being dropped, furniture being moved, etc. I can confirm there was work being done as I...New building, less than a year old, clean modern layout (basically Aloft of Marriott), and friendly employees are the good pointsUnfortunately, I cannot give more than a "Poor" rating due to very little sleep caused by noise. The heater unit in the room sounds like a diesel truck revving and every time it turned on or off it would startle both my wife and I out of our sleep. Also, there is very poor noise insulation from outside, and due to Park Place construction, you hear many heavy trucks driving in early in the morning.The worst of it was construction/repair noise coming from above us. We were in room 513 (not sure why we were assigned this room as Platinum elite members since it's smack in the middle of the hallway and it's not one of the better rooms that Platinums should be assigned, e.g. the highest floor, corner room, or balcony room).At 5:40 am, my wife and I heard the unmistakable sound of heavy drilling coming from the floor above - this lasted about 20 minutes. Just when we were hoping to drop off to sleep again, we heard hammering sounds begin just past 6:00 am - again from the floor above. This lasted about 15 minutes. After that it got a little quieter, but we could still hear tools being dropped, furniture being moved, etc. I can confirm there was work being done as I saw a number of contractor pickup truck parked in the valet area.That said, with the noise from the heater, outside noise, and especially construction/repair noise within the hotel - we did not sleep well at all.Why, as a Platinum, we were assigned a room below where work would be done at an ungodly hour, is beyond me. I would be angry even without the status. There was no heads up that construction would be going on within the hotel either.More</t>
   </si>
   <si>
+    <t>Aniello1025</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r551825221-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
   </si>
   <si>
@@ -1069,6 +1186,9 @@
   </si>
   <si>
     <t>I loved this hotel. It was my first time staying at an AC Hotel. I liked the fact that the rooms have no carpet. It seemed way more cleanly that way. Carpets breed germs. The shower was great and the service at front desk was great too. Conveniently located within walking distance to a Starbucks and a supermarket. Would recommend staying here and now an AC Hotel fan!More</t>
+  </si>
+  <si>
+    <t>Ligaya72</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r548875470-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
@@ -1101,6 +1221,9 @@
 One con: I never use the coffee maker...There are hotels I stayed at out of convenience - to just stay for the night and wake up really early.  And sometimes these hotels I pick are the ones I wish I had more time to enjoy versus those hotel I pick for vacation, and those turn out to be a dud.  This hotel is in the former category.  I did not realize it had a great pool.  I rolled in at 7pm and it was already dark.  I scored a parking just in front of the hotel so I vowed never to use my car for the entire night.  There's tons of parking at the garage but this is premium parking for me, which will serve me well the next day for my 8am 5k run.  I realized it's across the street from a small shopping mall - where they had North Italia, Houston's and Mother's grocery store.  This is definitely a rich area.  I had a hankering for some good old ramen; but nothing was a walking distance from me; so I settled with Lemonade, which was a great second choice.  Everything in this hotel is new and modern.  Which is a fresh concept for me since I live in a century-old Spanish house.  This is how I would furnish my house if I had a house that is remotely modern and new.  The room furnishing is absolutely A+.  One con: I never use the coffee maker but I had to heat up water for my instant ramen in the morning, and I had to take it to the bathroom since that's the one place where an ac outlet is available.  I had cashed in on a Marriott point, and I had Gold status, and my profile says top floor room with a view.  So I got some of the best rooms with the view of the mall and all of Irvine.  I felt like I owned Irvine, if not just for one night.  The hotel parking is free due to my membership, which I thought was great; but then when my husband checked in with his own car, they also comped that, which was excellent.The front desk staff both times are very sweet, young and energetic.  Perfect for this hotel.  This is a new Marriott concept for me.  I'm used to the Courtyards, the Renaissances (my favorite), and the Marriott flagship hotels.  This is more close to Renaissance - boutique hotel, but a lot more modern and clean lines than the Renaissance. If this is around in an area where Marriott brands are in, I'd definitely pick this one.  It reminds me of EB hotels (Eurobuilding) hotels; which we stayed at one in Miami.   CLEAN.  Clean lines.  Modern.  Not too fussy.  Just perfect.More</t>
   </si>
   <si>
+    <t>BE_Travelin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r547902107-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
   </si>
   <si>
@@ -1127,6 +1250,9 @@
 Breakfast, while not cheap, was high quality.  From the fresh pressed juices, to the Nespresso drinks to the fish ingredients on the buffet and in the ala cart menu, which changes over time (one ala cart item free with the buffet).  As with other reviews, I find it a little frustrating that breakfast is not included with Gold membership.  If you go “up” in the Marriott chain (e.g. Marriott branded), breakfast is included for Marriott Gold members and “down” (Residence Inn branded), which provide breakfast to all.  There are several Marriott brands that fit in this middle ground, not just AC. To this property’s credit, they offer a $10 voucher per room (per person would be a nice standard), which can be...Really a fine hotel and nice addition to the area.  Modern, chic, mid-range, European-inspired hotel (where the AC brand sits).  Nice clean (both literally and figuratively) lobby and rooms.  You’ll see from others’ pictures (which I won’t repeat) that the design is “edgy,” from the entry, to the furniture to the bathroom sinks.  Faux wood floors in the rooms, so bring your slippers.  Nice common area and work spaces downstairs.  I very much enjoyed my one-night family stay (two rooms).  The kids enjoyed the double beds and internet TV connection for Netflix and YouTube.  We enjoyed the king bed and extra large shower.  The staff was fantastic- so friendly and accommodating (callout to Sarah at the front desk).  Breakfast, while not cheap, was high quality.  From the fresh pressed juices, to the Nespresso drinks to the fish ingredients on the buffet and in the ala cart menu, which changes over time (one ala cart item free with the buffet).  As with other reviews, I find it a little frustrating that breakfast is not included with Gold membership.  If you go “up” in the Marriott chain (e.g. Marriott branded), breakfast is included for Marriott Gold members and “down” (Residence Inn branded), which provide breakfast to all.  There are several Marriott brands that fit in this middle ground, not just AC. To this property’s credit, they offer a $10 voucher per room (per person would be a nice standard), which can be applied to the $17 breakfast price tag. I also think it is awesome that GM Paul seems to reply to almost every post.  Not just the low ratings, like many hotels.  In your words, ¡Salud! Paul.The only three opportunities for improvement I experienced…1) I found it difficult to reach the front desk by phone.  It took seven tries over a couple of hours to get someone to answer.  2) Our room 525 was directly across from the “Associates Only” door access for the housekeeping crew and it slammed shut every time someone walked through.  Also near the elevator (while my profile requests room away from elevator).  Not a peaceful night.  Note that the windows do a great job of eliminating outside traffic noise.  3) I had used the Marriott app to request a couple of extra items for the room, and the request was not honored.  This was fixed immediately by the friendly staff once I pointed it out.The downsides are minor (and fixable!) compared to the upsides.  I would certainly stay at this property again.More</t>
   </si>
   <si>
+    <t>jewellskewl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r543942094-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
   </si>
   <si>
@@ -1152,6 +1278,9 @@
   </si>
   <si>
     <t>The AC Hotel Hotel is a first class experience for a business trip or a short getaway with a loved one. You will find modern comforts you didn't know you needed but they thought of first. It is beautiful, elegant, and well designed from the rooms to the gym to the lobby area. They serve a European style breakfast complete with croissants. They staff are exceptionally well trained. I will stay here again and again.More</t>
+  </si>
+  <si>
+    <t>greener_007</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r542252941-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
@@ -1191,6 +1320,9 @@
 Possibly the best part was breakfast. AC’s offer a tapas style breakfast with a wide range of...This was my first stay in an AC Hotel by Marriott. As the chain is new to the US, I wasn’t sure what to expect. However, if this is indicative of the new direction Marriott is taking with its properties post-Starwood merger, I like where this is going, and I recommend this hotel. The AC isn’t a luxury or budget property, as it straddles the price range. It’s heavy on European design (modern Spanish) with a very open lobby with lounge seating, a well-stocked bar, and open office seating. I spent the afternoon catching up on work in the lobby and enjoying a glass of Rijoca from Spain.The best way to describe AC Hotels is to think about aLoft and strip away the hyper color. The palette here is dark, modern, and clean. The rooms are unique in that they have hardwood laminate floors, leatherette couches/sleepers and elongated leatherette benches. They’re neither spartan nor luxurious, but the design was very appealing in addition to the layout. There was a rooftop pool overlooking the patio that looked appealing and a nice gym as well. Walking past the conference rooms, they were very un-hotel like, which to me seemed much more appealing for being stuck in for an hour. Staff were friendly and younger (again, think aLoft) and the hotel was very clean throughout. Possibly the best part was breakfast. AC’s offer a tapas style breakfast with a wide range of beverages (espresso, ice coffee, cold-pressed juice), freshly cut Iberico ham, and European faire. They also offer avocado toast options for an additional $10. The food was excellent and a great way to start a long day of traveling. The only downside is that as a Gold Marriott Rewards member, it’s not free with your status. You can go up (JW Marriott) and down (Fairfield Suites) the Marriott hierarchy and receive a free breakfast (with a reciprocating scale of quality) and it remains free – not so with the AC. However, for what I received, it was worth the $20 I paid.I really enjoyed the AC hotel concept, whether it is for short or extended stays, even if you’re unable to maximize your Gold Rewards benefits at this concept.More</t>
   </si>
   <si>
+    <t>EdgardBA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r542235913-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
   </si>
   <si>
@@ -1215,6 +1347,9 @@
     <t>My girlfriend and I spent two nights there while on vacation in southern California last August. Conveniently located to venture out Laguna or Huntington beaches and close by many offices, the hotel has a warm atmosphere with very clean, comfy and spacious well equiped rooms and excellent facilities (fitness, swimming pool, bar...). Most of all Staff provides top-notch service and makes you feel at home (especially the night audit Jason!) I highly recommend AC Irvine whether for business or leisure!More</t>
   </si>
   <si>
+    <t>Mikey W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r538172791-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
   </si>
   <si>
@@ -1239,6 +1374,9 @@
     <t>Ever want that feeling when you’re entering a hotel like you just walked into your mom’s house for Christmas? Well that’s what this felt like when I walked in and was greeted with the warm, hospitable, soothing smiles and welcome of Adam and Claire! They are well-rounded, respectful and delightful front desk personnel and they do a fantastic job of representing this very elegant hotel!I tip my hat to them and I thank them for their inviting aura, I’ll definitely be back soon!More</t>
   </si>
   <si>
+    <t>Travwhite21</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r536162481-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
   </si>
   <si>
@@ -1263,6 +1401,9 @@
     <t>5 stars to Devin at the front desk. Very professional and very prompt. We had a few special requests for our stay and he went above and beyond our expectations.  We can't thank him enough. Construction all around area.. traffic.. but his commitment to us was 5 stars and deserves the highest compliment. Thank you big time Devin for making sure our room was reserved and ready ahead of time. Myself and my wife couldn't feel more welcomed when we arrived. You are top notch. More</t>
   </si>
   <si>
+    <t>bruin4life93</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r536016977-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
   </si>
   <si>
@@ -1281,6 +1422,9 @@
     <t>My family and I recently spent the weekend here and have found our new favorite in Irvine!  The entire hotel is modern, lively, and warm.  The beds are perhaps the most comfortable of any hotel in which I've stayed.  Great dining options a few steps away as we ate at North Italia, Wahoos, and Panini Grill during our stay.  Particular thanks to Claire and Devin, who both went above and beyond for us throughout our stay.  See you again soon!More</t>
   </si>
   <si>
+    <t>lovetotravel693</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r535820887-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
   </si>
   <si>
@@ -1294,6 +1438,9 @@
   </si>
   <si>
     <t>Hotel is in a great location with shops and restaurants within walking distance. The rooms have a European flare with hardwood floors, comfortable beds, great amenities, cold refrigerators, and Italian coffee packets. The staff is also very friendly, helpful, and accommodating. We had exceptional customer service from Claire at the front desk. She checked us in quickly and efficiently, always smiled and acknowledged us when we entered the hotel, and truly made us feel welcome. We will definitely visit this hotel again.More</t>
+  </si>
+  <si>
+    <t>Ragibbey</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r532364232-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
@@ -1330,6 +1477,9 @@
 Here is where I think this property misses--the breakfast. I am a pretty seasoned traveler, but I was confused, and then disappointed,...This was my first time staying at an AC property after years of Marriott stays, from Courtyards to JWs. First impressions are great. Clean, modern and simple designed lobby area that is visually appealing and efficient. I am a big fan of not having to search for the front desk, elevators and restaurant (especially after a long day of travel) and all of that is readily apparent once you walk in.The rooms follow this same model. Clean, with modern finishes and a warm color palette that smooths out what could be a cold and industrial feel (lots of sharp edges and hard surfaces). But it definitely works. Lots of electrical outlets in places that make sense, meaning that you don't have to unplug things to make room for your devices.I am also a big fan of the interactive television that allows you to sync your Pandora, Netflix, Hulu, YouTube and Crackle accounts. This really helps me feel like I am home, and I don't understand why more hotels don't offer this. It is a great amenity that shows attention to detail and that Marriott understands their customer.The bed is extremely comfortable and hits that sweet spot for those of us who are particular about mattress firmness. Plus the linens are higher thread count and amazing.Here is where I think this property misses--the breakfast. I am a pretty seasoned traveler, but I was confused, and then disappointed, by the breakfast experience. They offer a series of small plates, cheeses, yogurt, quiches, fruit ,etc. Which is fine, and I am normally a fan of this type of approach. But when I arrived at 8 AM, most everything was gone. There was one piece of brie (which was delicious), bulk and cups of yogurt, breads and some assorted leftovers of fruit. I was looking around for staff and was promptly ignored by the two waitstaff that were working. Once I flagged one of them down, he showed me the a la carte menu where you could order two different type of egg dishes. Perfect. That's exactly what I needed, so I ordered the first option, and enjoyed the (quite delicious) coffee and some fruit and yogurt. 20 minutes later I was ready to leave, and the waiter returned to ask me if I wanted option 1 or option 2 off the a la carte menu. Not sure what happened, maybe it was an off day, but this didn't fit in to the rest of my AC experience.Finally, although I was lucky each day, parking can be a challenge. A limited number of spots are right in front of the hotel, with the bulk of the spots being in a parking garage across the street. Not an issue for me, but something to plan for.If I remove my breakfast experience, this is an amazingly simple and elegant property that is clean, visually appealing and really shows that Marriott understands their customer and how we travel. I hope they can smooth out the service issues in the restaurant which would really enhance an already pretty amazing experience.More</t>
   </si>
   <si>
+    <t>scott m</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r529948085-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
   </si>
   <si>
@@ -1354,6 +1504,9 @@
     <t>New property in a vibrant newer area with lots of dining choices.  Huge LA Fitness across the street.  Hotel style leans toward Euro minimalist but adds some nice touches along the way.  Lobby bar was busy, breakfast buffet had few options but was good and reasonably priced.  Rooms were decent size with a shower only bathroom.  Bed was comfortable, room had a small fridge with cold water and a room safe. Parking is limited onsite but they have rights at a very nearby garage.  Room lacks a clock, which was a problem for me. More</t>
   </si>
   <si>
+    <t>gustavoarg</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r528156110-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
   </si>
   <si>
@@ -1381,6 +1534,9 @@
     <t>AC surprise you from the beginning. Its architecture simple from outside, elegant inside. Just the right thing in the right place. A cozy and nice bar and lobby, spacious room, great bed, nice bathroom. No more and no less you need, just simple, elegant and practical.The fitness center is ok, small but ok, have some kettlebells, a couple of walking machines and bicycles. The service at the reception is efficient! Adam in less than 3 minutes made my check-in, all the time with a smile and professional.Also, the breakfast is good: two options (both good), good quality products, good price, great service.I fully recommend this hotel for business. You have a Starbucks and a good restaurant (North Italy)  just across the street.More</t>
   </si>
   <si>
+    <t>carlosdmz2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r526365877-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
   </si>
   <si>
@@ -1405,6 +1561,9 @@
     <t>My girlfriend and I spent one night at your hotel during our tour of California, and had a fantastic visit at the hotel! Our stay was made memorable by the hospitality and service displayed your staff, particularly by Devin Toussaint. Devin went out of his way to make our stay enjoyable, personally checking to make sure our room was ready and available since we had an early check in time. He had a terrific attitude throughout our short stay, and a pleasure to meet! I don't usually send reviews, but I thought his service was noteworthy, thanks Devin!More</t>
   </si>
   <si>
+    <t>270tylerw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r525508854-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
   </si>
   <si>
@@ -1429,6 +1588,9 @@
     <t>I live in orange county. Recently we had water damage to our home. Our insurance set us up to stay at this hotel. We had an absolutely amazing time. We were here for over a month and became friends with all of the staff. Everyone was more than amazing. Every single need that we had was mad and we were taking care of with absolute respect on every level. Even when we had questions about things, we received answers and help with everything. Jeannette, Fred, Clinton, Milton, and Ruben were all more than helpful and eager to get me going on my day with breakfast ready for me every morning that I came down. Chris, Adam, Claire, Triston, Jason, Vanessa were some of the nicest and most helpful people that we could've asked for during our stay. They were always willing to help out and get things ready for us if we needed things changed or taken care of. We went to the bar at the hotel multiple times and were constantly greeted by Louis..... i'm not only was an incredible bartender with many of his own specialty drinks, but the attitude of someone that is Beyond friendly and willing to make anything you ask for. Overall we couldn't avast for a better experience, the people there are more than kind and helpful. Management has certainly done a great job in choosing their employees. I would highly recommend this hotel...I live in orange county. Recently we had water damage to our home. Our insurance set us up to stay at this hotel. We had an absolutely amazing time. We were here for over a month and became friends with all of the staff. Everyone was more than amazing. Every single need that we had was mad and we were taking care of with absolute respect on every level. Even when we had questions about things, we received answers and help with everything. Jeannette, Fred, Clinton, Milton, and Ruben were all more than helpful and eager to get me going on my day with breakfast ready for me every morning that I came down. Chris, Adam, Claire, Triston, Jason, Vanessa were some of the nicest and most helpful people that we could've asked for during our stay. They were always willing to help out and get things ready for us if we needed things changed or taken care of. We went to the bar at the hotel multiple times and were constantly greeted by Louis..... i'm not only was an incredible bartender with many of his own specialty drinks, but the attitude of someone that is Beyond friendly and willing to make anything you ask for. Overall we couldn't avast for a better experience, the people there are more than kind and helpful. Management has certainly done a great job in choosing their employees. I would highly recommend this hotel to anyone that is looking to stay in the area.More</t>
   </si>
   <si>
+    <t>SocalPodiatryGroup</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r525267891-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
   </si>
   <si>
@@ -1453,6 +1615,9 @@
     <t>We received both a personalised welcome from Claire, who welcomed back my friend who booked our room at this hotel, and a personalised check-in from Adam who manned the front desk in catering to our special requests.More</t>
   </si>
   <si>
+    <t>SJC95126</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r521502157-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
   </si>
   <si>
@@ -1477,6 +1642,9 @@
     <t>European style hotel. Pretty new, walking distance to many restaurants and 5 min form the SNA airport.The breakfast was great. The only negative is the parking, beside only a handful in the front, you have to use the Retail parking structure and carry your luggage back and forth. Beside that a great stay, will stay again.More</t>
   </si>
   <si>
+    <t>robertleandra511</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r520366242-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
   </si>
   <si>
@@ -1501,6 +1669,9 @@
     <t>Took the night for the wife and I to go to dinner and stay overnight  found this new Hotel  on my Marriott  app  and booked  was very pleased with the front desk GIRLS  there customer service was awesome  very helpful and sweet and went out of there way to tell us all about the hotel and bar, food and near by restaurants  . The room was very nice and bed was very  confortable and the room was very clean am very pleased with the service of the front desk claire and  vaenssa  was wonderful I would  highly recommend this hotel and stay again. More</t>
   </si>
   <si>
+    <t>ryerye0514</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r518588366-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
   </si>
   <si>
@@ -1525,6 +1696,9 @@
     <t>I had the opportunity to stay at this amazing Marriott property when my friend visiting from Portland, OR. Friendly and amazing staff when you first walk in. Had lunch right across the street at North ITALIA.... But plenty of options around the area. Though I highly recommend enjoying the hip and sexy bar in the lobby for both food and beverage. Both Luis and Sarah there are exceptional!!!! Their Swedish Fish cocktail is worth the experience.... Though Luis is always able to create an exceptional cocktail based on your liquor preference. Small tapas style food that are outstanding! Make sure to experience the "European Style" breakfast buffet! Cured fresh prosciutto sliced right there fresh..... Quiches, cheeses, homemade buttery croissants.... Exceptional!Make sure to introduce yourself to the Hotel's General Manager, Paul. He's a wealth of knowledge and can share with you key points of interest while visiting!Thank you AC Irvine Hotel by Marriott! I'll be back!More</t>
   </si>
   <si>
+    <t>jcesiel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r516875697-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
   </si>
   <si>
@@ -1549,6 +1723,9 @@
     <t>Claire is hands down the best! She answered all of my questions and gave me the best directions. A+!If you have any questions about the surrounding areas, where to surf and what to do Claire knows. The hotel is great and the location is well placed.More</t>
   </si>
   <si>
+    <t>kjflynn53</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r516671717-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
   </si>
   <si>
@@ -1564,6 +1741,9 @@
     <t>Excellent venue with European feelSuperb guest room with quality furnishings including bathroom fixtures Outstanding continental breakfast Tremendous staff throughout 10 minutes from John Wayne airport Walking distance to several quality restaurantsMore</t>
   </si>
   <si>
+    <t>rubenmar2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r516459123-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
   </si>
   <si>
@@ -1589,6 +1769,9 @@
   </si>
   <si>
     <t>AC HOTEL BY MARRIOTT IRVINE THE BEST HOTEL IN ORANGE COUNTY.This is the best hotel to relax, de-stress, place to achieve harmony and peace of mind and body, after much work, whether your business or family stay, excellent hotel in every way, everything has at the service of Guest.It has super clean rooms, clean bathrooms, clean beds, totally clean everything and its European style rooms, best for sleeping.Its location makes it unique, nearby shops for shopping, eating, dancing, and gym to be able to go exercise. Just a few minutes away is John Wayne Airport, so you can get there or leave your destination quickly.This hotel offers excellent comonities;Gym, swimming pool, European style bar, excellent drinks, restaurant, meeting rooms, and office work area (Mac computer, printer)AC HOTEL BY MARRIOTT IRVINE the best hotel in orange county.More</t>
+  </si>
+  <si>
+    <t>Jessica B</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r514459701-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
@@ -1621,6 +1804,9 @@
 Overall a disappointing experience...blah rooms, blah service and a feeling of...Stayed here for first time and was Excited to try an AC property for the first time. Upon approach it's a very industrial and plain looking building. I think only four rooms have balconies and the rest of the hotel is very stark, kind of prison like. As a platinum member I was hoping I would Get a room with a balcony but that wasn't the case. In fact the only perk of being a platinum member here was $10 to spend on their overpriced breakfast... $19 to serve yourself coffee, fruit, cheese, quiche and yogurt. There's a server who mans everything but definitely a do it yourself place yet they still want a tip!  Rooms very stark - brown wood floors, brown wallpaper, gray curtains, and white bedding. They do have a coffee maker and fridge. No robes. And over a three night period, toiletries never replenished. Fitness room small but clean and has big windows overlooking their small second floor pool. Customer service ... less than average. I had to request upgrade, they never explained parking ( garage is a five minute walk and is $20 per night). No valet or bellman. I asked them to fax papers for me. When I came to pick up fax next day, they had thrown it away. I think they hired staff based on their youth vs their hospitality experience. Overall a disappointing experience...blah rooms, blah service and a feeling of cheapness when it comes to the customers.More</t>
   </si>
   <si>
+    <t>trhalverson</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r514067667-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
   </si>
   <si>
@@ -1645,6 +1831,9 @@
     <t>The front desk staff was awesome, making us feel welcome in a fun, casual styel.  Then, after a long day working, Triston and others at the bar created a fun and relaxing environment where we could unwind and have fun.  This place has a great vibe.More</t>
   </si>
   <si>
+    <t>jolson1171</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r512882697-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
   </si>
   <si>
@@ -1667,6 +1856,9 @@
   </si>
   <si>
     <t>We made a quick decision to visit California for a weekend getaway. I called the hotel to have a surprise waiting for my girlfriend when we walked into the room. It was to have rose pedals on the floor and roses on the bed. On the bed the roses would be shaped into a heart and to say I love you inside the heart. When I called the hotel I got Devin. The hotel does not have a policy on how he could do this but he did me a solid favor by doing this on his own and covering the charges before I got there. Thank you Devin for exceeding my expectations and doing such a great job. A big Thank you!! We will be coming back to your hotel in the future.More</t>
+  </si>
+  <si>
+    <t>Mike_Austin74</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r511612152-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
@@ -1707,6 +1899,9 @@
 Shower is funky and looks neat, but I couldn't find a good water pattern without holding it in my hand... another example of a reason why traditional fixtures just work...I am a Marriott lifetime platinum member.  I've never stayed at an AC hotel however and thought I'd give this new place a try.  I thought this was going to be a contemporary style Marriott.  I was wrong.  First, this hotel favors form over function.  It feels like a super modern courtyard hotel with dark wallpaper and funky fixtures and lights, only not nearly as practical.  I had expectations this was more of a full service hotel..it's not.  The rooms are somewhat cramped, the Air conditioning is loud.  No laundry bag.  Light switches are confusing.  No Kleenex in the room.  I got two waters for my 3 days stay, I drank them both the first day and got no more.  No info on the hotel in the room. Phone makes no sense..how do I dial the lobby??I left my second key in the slot next to the door so that I didn't have to hunt for the light switch when I came in...the staff apparently took it, perhaps I violated an eco rule. The bench across from the tv makes no sense to me...it's a giant waste of space. You walk into the room and you're greeted by a view of the toilet..seems odd given their focus on design. Shower is funky and looks neat, but I couldn't find a good water pattern without holding it in my hand... another example of a reason why traditional fixtures just work well. Room is very minimalistic and mono chromatic, which is what they are shooting for I guess, but all of the practical stuff you want and expect in a hotel isn't here. I'd much rather have a concierge lounge and a more functional room with traditional amenities at this price point.  If you're the kind of person that really loves minimal and contemporary design this place will appeal to you, if you're looking for traditional services and function,or a more Marriott hotel type of experience...this place is not for you.  More</t>
   </si>
   <si>
+    <t>havanagal</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r511179367-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
   </si>
   <si>
@@ -1725,6 +1920,9 @@
     <t>This is a newer, clean hotel.  I was intrigued by the euro-style idea, so I decided to try it out.  It reminded me of a place I've stayed at in Kyoto.  It's different, in some ways good, but in several ways just struck me as impractical and a bit odd. There was no booklet with hotel info about dining hours, services (maybe this was missing from my room) so I needed to call the front desk.  The phone is sleek and stylish, but there isn't any info or labeling on or near it to let you know how to call the front desk, housekeeping, etc. and it was difficult to put back in the cradle to hang up.  The pen was very short, an interesting design, but again, difficult to actually use.   In the middle of the night, I woke up and wanted to see what time it was, so I glanced over to the nightstand and that's when I realized there is no digital clock or any clock in the room. The toilet seat is an odd rectangular shape, but I could see how it would be great for a larger person.  The sink is a shallow, wide rectangular shape. The shower was fantastic and the large, flat screen tv on the wall was great. Also, the staff was very friendly, efficient and helpful.  I'm just not sure this hotel is a good fit for me, personally.More</t>
   </si>
   <si>
+    <t>staggsjacq</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r509692850-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
   </si>
   <si>
@@ -1749,6 +1947,9 @@
     <t>I loved this hotel: the amenities,  the proximity in walking distance to great food however, it was Devin at the front desk who "made" our trip.  He allowed us to check-in early which made all the difference in the world. He was warm, welcoming, friendly and professional.  Thank you Devin for putting a generous face forward!More</t>
   </si>
   <si>
+    <t>Stella N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r506646716-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
   </si>
   <si>
@@ -1773,6 +1974,9 @@
     <t>I visited Irvine for a five day business trip and i have to say.... my experience was amazing thanks to Michael!! He helped me with every concern and question i had throughout my stay!! He knows the answer to every question and makes sure to solve a problem in a timely manner. We need more people like Michael who have such professionalism and are extremely welcoming and friendly! Thanks Michael!! More</t>
   </si>
   <si>
+    <t>lilit818</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r506058590-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
   </si>
   <si>
@@ -1794,6 +1998,9 @@
     <t>AC hotel these past couple of days and Michael Williams was absolutely wonderful he helped us out every single chance he got he is always nice kind and what the nice warm smile he is an amazing employee. He is also very very gorgeousMore</t>
   </si>
   <si>
+    <t>carocj72</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r505674948-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
   </si>
   <si>
@@ -1818,6 +2025,9 @@
     <t>I was craving popcorn and Michael was of great help to me. He is very welcoming and his smile is contagious. I admired the way he described his day as "marvelous" as guests walked in. Love this hotel, especially the water bottle fillers on each floor level. Thank you! I will be sure to recommend and return! More</t>
   </si>
   <si>
+    <t>hsoilluv13</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r504027666-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
   </si>
   <si>
@@ -1842,6 +2052,9 @@
     <t>I recently have been staying in many hotel due to construction at my home.. this hotel in particular stuck out to me. From the moment i checked in I was  given a  warm welcome  and treated with great care. its been very stress full going from hotel to hotel  but the AC hotels  staff member  Michael Williams , truly took hospitality to the roof. He was very helpfully  making sure my family and I were very comfortable  and  happy  checking us inn to our rooms and familiarizing us with the hotel making us feel we were at home. Great Hotel , Great Staff,. i want to givesThanks again  to michael and the rest of the staff for all there help making us feel at homeMore</t>
   </si>
   <si>
+    <t>keri33_9</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r503346519-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
   </si>
   <si>
@@ -1866,6 +2079,9 @@
     <t>Comfy beds, sleek/modern room and hotel, great amenities, nice European breakfast, friendly front desk staff! Great location, you can walk across street to eat yummy food at North Italia, The Counter, Ruth's Chris, Which Wich.More</t>
   </si>
   <si>
+    <t>Jasper91</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r502675836-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
   </si>
   <si>
@@ -1890,6 +2106,9 @@
     <t>Missed my connection flying American airlines and they booked this hotel for me for 2 nights. The rooms are big, the staff is really friendly and helpful. This is what you want when staying at a hotel. Couldn't wish for a better stayMore</t>
   </si>
   <si>
+    <t>Eric B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r502191501-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
   </si>
   <si>
@@ -1914,6 +2133,9 @@
     <t>I received great customer service from Gabriela &amp; Michael in my stay here in Irvine. We are not from the area and have experienced nothing but great hospitality and tips on things we can do while we are staying in the area.More</t>
   </si>
   <si>
+    <t>deborahcA7858LF</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r501494863-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
   </si>
   <si>
@@ -1938,6 +2160,9 @@
     <t>The Service we received at the AC Hotel in Irvine California was outstanding !!! The staff was very professional and courteous.  But, I must say that Mr. Michael Williams went above and beyond in making our family feel special and memorable.  We will all be back for seconds...Thats for sure ! (:  Thank you AC HotelsMore</t>
   </si>
   <si>
+    <t>Ray B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r500616163-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
   </si>
   <si>
@@ -1962,6 +2187,9 @@
     <t>This is the second time I've stayed here and while I love the location for work or play, the service I have received at the front desk both times has been exceptional.  They go above and beyond to make sure you are satisfied with your stay. This is a new hotel right in the heart of everything.More</t>
   </si>
   <si>
+    <t>epicaprille</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r496237694-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
   </si>
   <si>
@@ -1990,6 +2218,9 @@
   </si>
   <si>
     <t>I literally stumbled upon this hotel during a post business trip in Santa Ana - I decided to go to Newport Beach and was looking for something close. This hotel is sexy and the location is great - shopping and meals literally across the street in walking distance - like you can 'throw a rock at it' close! The bartender, Louis, is good for the atmosphere he makes great drinks:)Love the roof pool as well and the beach was like 15 minutes away - I will stay here again - oh and the price - I couldn't believe it!More</t>
+  </si>
+  <si>
+    <t>Steve H</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r495614405-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
@@ -2022,6 +2253,9 @@
 Location wise it is just south of the airport. A quick Uber or cab ride away. If you rent a car (as I did) parking immediately at the hotel is limited, but across the street is a large parking structure and hotel guests can park there. I did that and had no issues. The hotel borders a strip-mall place that has some good restaurant options (good Yelp reviews) right within walking distance. The entrance to the hotel is on the opposite side of the strip mall (from the mall you look at the back of the hotel and may not realize the hotel...I was traveling for business and was looking for a hotel close to the airport and found this one. I was impressed with my overall experience and can say I would happily stay here again.It is a new hotel so everything is modern, clean, working and efficient. The staff were very friendly and helpful. Every interaction I had was a good one, even with the guy who checked me out at 4:30 in the morning.The room was large and comfortable. Though I was traveling on business I could see how a family would find plenty of room for their stay. As a business traveler I found the workspace excellent, the wifi fast and reliable and the room quiet and comfortable. The bath area was very nice and the amenities were excellent. Really--I liked this place.Location wise it is just south of the airport. A quick Uber or cab ride away. If you rent a car (as I did) parking immediately at the hotel is limited, but across the street is a large parking structure and hotel guests can park there. I did that and had no issues. The hotel borders a strip-mall place that has some good restaurant options (good Yelp reviews) right within walking distance. The entrance to the hotel is on the opposite side of the strip mall (from the mall you look at the back of the hotel and may not realize the hotel is right there). But a couple of short rights and you see the entrance and all is good.Again, I would recommend this place and will stay here again.More</t>
   </si>
   <si>
+    <t>RolandV030</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r494799642-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
   </si>
   <si>
@@ -2046,6 +2280,9 @@
     <t>Friendly staff, nice big modern rooms, clean, everything is new, restaurants can be found on the other side of the street, quite, park in nearby parking garage (approx 20$/night). Rates were pretty decent compared to hotels in the same area.More</t>
   </si>
   <si>
+    <t>John M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r491642398-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
   </si>
   <si>
@@ -2070,6 +2307,9 @@
     <t>Stayed at the AC Hotel while traveling to Irvine for business. This new hotel is modern, well designed, and had all the high end finishes that made me feel like I was traveling for pleasure - rather than work.The staff was fantastic and incredibly accommodating. Gabriela checked me in, gave us restaurant suggestions, and hooked up a great room. I loved the high end finishes throughout the hotel.Marriott is really stepping it up with the AC Hotels. It felt like I was staying at a mini JW Marriott. Plus it's close to an In N Burger about 1 mile away....so that's a plus!More</t>
   </si>
   <si>
+    <t>Andy H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r491547472-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
   </si>
   <si>
@@ -2085,6 +2325,9 @@
     <t>This stay was probably my favorite hotel stay I have had this year.  Everything about the hotel, from the staff (front desk, bartender and breakfast service), amenities,  room and even location were great.  It was the cleanest, most modern hotel I've stayed in.  The breakfast entrees were very very good.The location is about 5 minutes from John Wayne airport, next door to a LA Fitness and across the street from a fabulous Italian restaurant (North Italia).The room definitely had that minimalistic, european vibe that I thoroughly enjoyed.The one awkward part of the stay would have been onsite parking.  There are limited spaces in front of the hotel, so most likely you will have to park in a parking garage.  In order to leave, you'll have to get your parking ticket validated each time at the front desk.  I thought that was weird rather then using your room key to get in/out.  The front desk staff were also wonderfully friendly and courteous, especially the front desk staff who helped me check in at around 11pm.I would 100% recommend this hotel, and any other AC Hotel for that matter.More</t>
   </si>
   <si>
+    <t>Johnny V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r490475694-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
   </si>
   <si>
@@ -2109,6 +2352,9 @@
     <t>Upon check-in, which went smoothly, it was after 10 and had to wait a few minutes for someone from the bar to recognize that we were standing in the front desk area. She was nice enough and cordial, gave us a free upgrade parentheses gold Marriott Rewards parentheses to a king suite, with balcony. Hotel is contemporary minimalistic. Lucky enough to find the spot out front, she informed me would be $20 to park, and give me a page to stick on my Dash or mirror to show I paid. Hallways are small and dark which I like, and again very contemporary upon entering the room I was greeted by a bath sink, and the bed. Room is Tiny. Bathroom sink faces the bed there is no wall but a small separation just over the sink so the counters and closet and bathroom sink area faces the bedroom which is about 3 feet from vent. The toilet is separated by a piece of glass so no privacy here. The shower is modern but also a piece of glass which is at the foot of the bed, also no privacy. Couples fine. Buddies or coworkers or friends no way. Balcony is great. Had a corner could see construction next door and look down at the pool. Wish I would have been able to take advantage of it more but like I said, late check-in wasn't able to. Have been gold Marriott...Upon check-in, which went smoothly, it was after 10 and had to wait a few minutes for someone from the bar to recognize that we were standing in the front desk area. She was nice enough and cordial, gave us a free upgrade parentheses gold Marriott Rewards parentheses to a king suite, with balcony. Hotel is contemporary minimalistic. Lucky enough to find the spot out front, she informed me would be $20 to park, and give me a page to stick on my Dash or mirror to show I paid. Hallways are small and dark which I like, and again very contemporary upon entering the room I was greeted by a bath sink, and the bed. Room is Tiny. Bathroom sink faces the bed there is no wall but a small separation just over the sink so the counters and closet and bathroom sink area faces the bedroom which is about 3 feet from vent. The toilet is separated by a piece of glass so no privacy here. The shower is modern but also a piece of glass which is at the foot of the bed, also no privacy. Couples fine. Buddies or coworkers or friends no way. Balcony is great. Had a corner could see construction next door and look down at the pool. Wish I would have been able to take advantage of it more but like I said, late check-in wasn't able to. Have been gold Marriott Rewards for years but never received 4 p.m. checkout. No matter where I've asked. No matter where it is. No matter time of day, week. Did call down about 11:30 with the 12 checkout, and was given 1 p.m. What I come back here? No. What I recommend it? No is it bad now. It's just unique, not necessarily in a good way. Not bad better than most better than a lot. Just not a place to returnMore</t>
   </si>
   <si>
+    <t>Miker422</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r488479968-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
   </si>
   <si>
@@ -2134,6 +2380,9 @@
   </si>
   <si>
     <t>Overnight trip to Orange County.  This is a new hotel from Marriott that I was unfamiliar with and decided to give a try. It is a nice modern contemporary feel. It's brand new and they are still paving the parking area. Parking is at a garage across the parking lot and costs an additional $20/night There is a retail center with a Starbucks and some high end restaurants like Ruth Chris steakhouse and a grocery store wit cafe, LA Fitness, and food court with Lemonade and Wahoos TacosIt's conveniently located off the 405 in an office complex with nearby residential. Safe and clean for families like all of Irvine Pros:Check in - fast efficient and friendly. Recognize I'm a Marriott member and status Location - safe and convenient with nearby amenities Shower - good strong shower Room- nice contemporary room with hardwood floors. The hallway area also has water machine to get water with pitcher which is nice when traveling with the family Lobby- has a bar and a tiny area to purchase necessities Cons Parking- costs $20Room- for a new room I was surprised to find a stain on a new pillow Wifi- was slow and the Netflix app on the tv was nice feature but did not work maybe due to wifi speedConclusion nice place where I will return for business trips and for family getaways More</t>
+  </si>
+  <si>
+    <t>Vincent V</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r487466399-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
@@ -2164,6 +2413,9 @@
 Across the street is an excellent, popular North Italia restaurant as well as...Had a great time at this brand new Irvine based hotel. Staff were very welcoming and enthusiastic. The property is very clean with minimalistic design throughout which is like a breath of fresh air. The main colors are silver, light beige and dark brown which gives the hotel a warm, welcoming atmosphere and an airy, upbeat feel at the same time. Stayed four nights on a business trip. Rooms are efficient and spacious enough to get some work done. Lateral noise between rooms is noticeable as well as from the hallways. We were woken up by the morning meeting of housekeepers on our floor daily. Beds are very comfortable. The A/C unit in our room seemed to make more noise or should I say vibrations than I'd expect. Housekeeping seemed a tad too eager to please on one hand as they threw out some makeup my wife had left on the bathroom counter half-open yet forgot to replace a dirty, empty glass on the same counter for three days.Lobby and lounge areas are very open and well designed. Breakfast consists of natural options including delicious non-fat yogurt (not our thing because fat is an important ingredient nutrition wise but we had to try anyway) and real prosciutto with a genuine slicer. Nice touch. Management was very receptive to the few glitches we encountered during our stay.Across the street is an excellent, popular North Italia restaurant as well as a smallish Starbucks and a few other stores. Parking in front of the hotel is limited so they offer additional parking in a large garage structure next door that is shared with office and retail.Overall the AC Irvine appears a very welcome addition to the local hotel lineup.More</t>
   </si>
   <si>
+    <t>beatrix0810</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r485704392-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
   </si>
   <si>
@@ -2188,6 +2440,9 @@
     <t>This hotel is amazing. It's a Marriott, which a preferred hotel of my company. Many Marriotts in the Orange County area are not great, but they really got it right with AC Hotel. This is going to sound like a negative, but it's not: My first room was broken. I mean, the toilet was running, the tv didn't work, the phone didn't work, the A/C didn't work. B R O K E N. BUT! This is a BRAND NEW hotel, so things like this are expected. I do not judge a hotel on whether or not things are broken, but what they do to accommodate the customer when that stuff happens. They moved me to another room and gave me a $20 credit at the lobby bar/lounge. Everything was fine in this new room. No harm, no foul. Then, one night, they had a grand opening party in the lobby with free drinks and tapas and it looked really really fun. BUT! I had a LONG day of meetings and still had SO MUCH work to do and was also REALLY hungry. I did not want to go down to the party - I was hoping to go down there to eat/work. I mentioned this to one of the young men working the desk, Jason. He said he'd bring me up a menu, let me order from it, and bring me whatever I wanted to accommodate me. Mind you, this...This hotel is amazing. It's a Marriott, which a preferred hotel of my company. Many Marriotts in the Orange County area are not great, but they really got it right with AC Hotel. This is going to sound like a negative, but it's not: My first room was broken. I mean, the toilet was running, the tv didn't work, the phone didn't work, the A/C didn't work. B R O K E N. BUT! This is a BRAND NEW hotel, so things like this are expected. I do not judge a hotel on whether or not things are broken, but what they do to accommodate the customer when that stuff happens. They moved me to another room and gave me a $20 credit at the lobby bar/lounge. Everything was fine in this new room. No harm, no foul. Then, one night, they had a grand opening party in the lobby with free drinks and tapas and it looked really really fun. BUT! I had a LONG day of meetings and still had SO MUCH work to do and was also REALLY hungry. I did not want to go down to the party - I was hoping to go down there to eat/work. I mentioned this to one of the young men working the desk, Jason. He said he'd bring me up a menu, let me order from it, and bring me whatever I wanted to accommodate me. Mind you, this hotel has NO in-room dining. He came up to deliver the menu, allowed me some time to look over it, he came up again to take my order, he came up again, with the drinks i ordered, he came up again with my food, he came up AGAIN with silverware.....the poor man was PANTING. He was running around like a crazy person to help me. My overall experience was SO MUCH BETTER with Jason on board. But this also speaks to the hotel management, who is in charge of hiring and training the staff. Everything from start to finish was phenomenal, and small annoyances aside, I will stay here for every work trip as long as the price doesn't go up. So, like I said, stay somewhere else :)More</t>
   </si>
   <si>
+    <t>GINGER A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r484499146-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
   </si>
   <si>
@@ -2212,6 +2467,9 @@
     <t>The first thing I noticed was the cool modern  atmosphere of this hotel as soon as i  walked into the lobby. The very next thing with the customer service, which was five star from every person I dealt with. Front desk, Bartender, housekeeping, and I even got a nice email from the general manager asking how my stay was. I was there for three nights for a lacrosse tournament in town and I got the feeling that the hotel was more of a business hotel but it's so conveniently located to everything in Irvine. We walked to get food across the street there were 10 different options I got my hair blown out at the blowdry salon   I went for a run and although there's a lot of construction in the neighborhoodit I felt safe and it was never very disruptive. I even laid out at the pool and thoroughly enjoyed my entire visit. My daughter and I were out late every night (1, 2 &amp; 3AM) and the only slight negative is having to walk to the hotel from the parking garage. Iit's a very new, well lit parking garage but it's still a bit of a walk so late at night for two sexy broads  such as ourselves. I don't think I'll be back to Irvine anytime soon, unfortunately but I will definitely look for other AC hotels in my travels. Well done AC Irvine. More</t>
   </si>
   <si>
+    <t>Katteeb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r484458535-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
   </si>
   <si>
@@ -2227,6 +2485,9 @@
     <t>My fiancee and I spent a weekend here and it was amazing. The design is beautiful. The amenities are of very high quality; an exemplary shower and bed. The staff was always smiling and courteous. We were able to experience the cocktail lounge and had the pleasure of meeting Luis, a top notch mixologist! The overall vibe and feel of the hotel is amazing. We loved it and didn't want to leave.More</t>
   </si>
   <si>
+    <t>Lisseth L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r483993035-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
   </si>
   <si>
@@ -2245,6 +2506,9 @@
     <t>After a long work week, I decided to get away to relax in the beautiful city of Irvine. I am happy that I decided to stay at AC Irvine where the experience was nothing less than extraordinary. From the initial greeting of the front desk staff, specifically, Devine, who went the extra mile to ensure that my stay was second to none. Devine ensured that I had a clear understanding of all the amenities at the hotel as well as the resources for the guests. It is one thing that the hotel is aesthetically pleasing but it makes it the best experience when the staff also make you feel welcome and special. The rooms are neat and comfortable. The lobby area is ideal to enjoy a nice time relaxing and having a cocktail. The location of the hotel is also great as there are great restaurants that are walking distance. It is a wonderful place to stay with wonderful staff, which leads to a wonderful hotel experience to remember.More</t>
   </si>
   <si>
+    <t>smp1022</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r481343030-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
   </si>
   <si>
@@ -2272,6 +2536,9 @@
     <t>Would never have known this property was only open for a month prior to my stay.  Place was immaculate, rooms were clean and modern, gym was great, location convenient with a multitude of food options and the service was top-notch, over the top.  Kudos to all, especially Tambra who helped me with a tablet I left behind.  After providing my cc info for shipping with another employee, she called me back to make sure that I was comfortable with the cost.  Great customer service!  Already booked my next stay mid may.  Give this place a try, they will not disappoint.More</t>
   </si>
   <si>
+    <t>JWBklyn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r480221452-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
   </si>
   <si>
@@ -2296,6 +2563,9 @@
     <t>Stayed here twice, including just after opening, and found it refreshingly different from other hotels in the area. The rooms, while on the small side, are sleek and well-designed, using ceramic floor tile instead of the usual carpet. The fixtures and lighting work well. Service staff smile a lot and the $16 breakfast is Euro-style with cheeses, tapas-style eggs, and spanish ham sliced for you. Parking is often across the road in the parking structure but not too far away and free.More</t>
   </si>
   <si>
+    <t>robertlJ6904KI</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r479918727-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
   </si>
   <si>
@@ -2312,6 +2582,9 @@
   </si>
   <si>
     <t>I didn't know when I booked my reservation, for a business trip, that the AC Hotel Irvine had only been open for a month and that was a pleasant surprise to the start of my stay.  Now the experience I had was nothing short of spectacular.  The staff is courteous and friendly with a little bit of an edge, as you might expect in an AC property, and added to my overall experience. The rooms are spacious and well appointed, the lobby and lounge beautiful and edgy, a great hotel to stay in whether traveling on business or pleasure...  In my opinion a must experience property when you are in the area... Well done TEAM AC and thank you for making my stay a memorable one!!! Six Stars oh sorry I can only give you FiveMore</t>
+  </si>
+  <si>
+    <t>rafa d</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r479215961-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
@@ -2344,6 +2617,9 @@
 * I believe there is a mini-refrigerator...I had been looking forward to staying here since February when I found out about the new property.  I am a Marriott loyalist and was interested in seeing what the AC Hotel brand was all about.  Prior reviews mention "minimalist" decor and I was expecting a mattress on the floor type thing from reading that comment in so many reviews.Room highlights:* Functional and comfortable (the bed).  The office chair was somewhat odd since it was just a regular chair without wheels, and I'm used to seeing a typical office chair with wheels.* No dresser, at least in my room.  Rather there is room in the closet and a long bench in the living area to place clothing.  This made a lot of sense to me since I don't usually put my clothes in a dresser and rather lay it out on a bed (if there is an extra one) or on another flat surface so I can easily see what I'm working with :)  So I appreciate this concept.* Bathroom layout is great with plenty of room.  The toilet is interesting since it is rectangular rather than oblong or round.  If you got a small bum, you might fall in!* Decor is warm and uncluttered (I'm trying to avoid the work "minimal") and the room feels rather spacious.  I had a King bed and a pull out sofa.* I believe there is a mini-refrigerator in every room, which is a nice plus.Hotel and staff* The staff was attentive, warm and professional* If you're lucky to find surface parking near the entrance, that's great but otherwise parking is quick and easy in the parking structure behind the main entrance (behind LA Fitness).  The front desk staff is quick to validate which makes it easier but would be nice if eventually the room cards grant access rather than having to seek parking validation.* Breakfast is not included in the room rate.  I'd say the menu is limited but with good quality items. * Fitness center is a decent size with views of the pool (both on the 2nd floor).  Even with 3-4 others in there, it didn't feel cramped.  I would gladly stay here again.  And that is saying a lot since my go to in the area is another Marriott property with a concierge lounge with free breakfast and evening snacks.More</t>
   </si>
   <si>
+    <t>SarahInLB</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r478791388-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
   </si>
   <si>
@@ -2368,6 +2644,9 @@
     <t>The team at this brand new hotel including Chris, Gabriella, Jason, Devin were a great help to my folks who stayed there over the weekend. The switched rooms to help get us disability across room and made my parents stay very comfortable. So pleased with the service and the European design. Also, had a great happy hour snack menu that I plan to try when I need to escape for a couple days! Thank you for being so accommodating - really enjoyed this hotel and the AC team.More</t>
   </si>
   <si>
+    <t>MelissaValencia_CA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r477990192-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
   </si>
   <si>
@@ -2392,6 +2671,9 @@
     <t>This is a great new hotel in the OC!  I arrived after a long day of travel.  The front desk crew immediately offered assistance and were very kind and helpful!  Rooms modern and beautifully appointed.  Little extras (bottled water etc) pricey but thats how it is these days...Breakfast was also delicious.  Good option for a Marriott property!More</t>
   </si>
   <si>
+    <t>shanel d</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r474845686-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
   </si>
   <si>
@@ -2410,6 +2692,9 @@
     <t>I came into the AC hotel today just to take a look at the lobby.  I've heard some great things about the hotel since the day that it opened and I have to say: I was quite impressed! Upon entering the building, I was warmly greeted by a well-groomed desk clerk named Devin who made my day by making me feel so welcomed.  He was quite pleasant and welcoming.  The first thing that grabbed my attention was the bar which had an inviting ambiance.  The lobby itself is quite large and has a spectacular interior design.  The seating, although chic, was pleasant and comfortable.  I was greeted by a few members of the staff, all of whom were friendly and professional.  I have yet to spend a night there, but I do plan to do so soon.More</t>
   </si>
   <si>
+    <t>Entertainingself</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r473325085-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
   </si>
   <si>
@@ -2434,6 +2719,9 @@
     <t>Night shift manager Michael Williams will simply go above and beyond to make sure your stay at this hotel would be one of your most amazing experiences you've had at any Marriott line and especially at the brand spanking new AC Hotel Irvine.. thanks much!More</t>
   </si>
   <si>
+    <t>juliemaire</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r472770208-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
   </si>
   <si>
@@ -2456,6 +2744,9 @@
   </si>
   <si>
     <t>This is a beautiful new property. The staff is friendly and welcoming. Michael at the front desk checked us in, was very kind and personable and remembered us throughout our 5 day stay. The hotel is clean, fresh and comfortable. I would definitely recommend his hotel and stay here again. More</t>
+  </si>
+  <si>
+    <t>Marie M</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d11914822-r472244159-AC_Hotel_by_Marriott_Irvine-Irvine_California.html</t>
@@ -2978,43 +3269,47 @@
       <c r="A2" t="n">
         <v>66007</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>149699</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -3030,56 +3325,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>66007</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>149700</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="n">
@@ -3095,56 +3394,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="X3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>66007</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>38609</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M4" t="n">
         <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="n">
@@ -3162,56 +3465,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="X4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>66007</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>149701</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="L5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P5" t="n">
         <v>4</v>
@@ -3227,56 +3534,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="X5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="Y5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>66007</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>149702</v>
+      </c>
+      <c r="C6" t="s">
+        <v>85</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="J6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="L6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="n">
@@ -3292,56 +3603,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="X6" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="Y6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>66007</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>47917</v>
+      </c>
+      <c r="C7" t="s">
+        <v>93</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="J7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="K7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="L7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="O7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -3353,56 +3668,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="X7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="Y7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>66007</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>149703</v>
+      </c>
+      <c r="C8" t="s">
+        <v>102</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="J8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="K8" t="s">
+        <v>106</v>
+      </c>
+      <c r="L8" t="s">
+        <v>107</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
         <v>99</v>
       </c>
-      <c r="L8" t="s">
-        <v>100</v>
-      </c>
-      <c r="M8" t="n">
-        <v>5</v>
-      </c>
-      <c r="N8" t="s">
-        <v>93</v>
-      </c>
       <c r="O8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="n">
@@ -3420,56 +3739,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="X8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="Y8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>66007</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>149704</v>
+      </c>
+      <c r="C9" t="s">
+        <v>111</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="J9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="K9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="L9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="O9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P9" t="n">
         <v>4</v>
@@ -3487,56 +3810,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="X9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="Y9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>66007</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>149705</v>
+      </c>
+      <c r="C10" t="s">
+        <v>120</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="J10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="K10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="L10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="O10" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P10" t="n">
         <v>4</v>
@@ -3554,56 +3881,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="X10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="Y10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>66007</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>149706</v>
+      </c>
+      <c r="C11" t="s">
+        <v>129</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="J11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="K11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="L11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="O11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="n">
@@ -3619,56 +3950,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="X11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="Y11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>66007</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>149707</v>
+      </c>
+      <c r="C12" t="s">
+        <v>139</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="J12" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="K12" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="L12" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O12" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="n">
@@ -3686,56 +4021,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="X12" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="Y12" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>66007</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>149708</v>
+      </c>
+      <c r="C13" t="s">
+        <v>146</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="J13" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="K13" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="L13" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="O13" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
@@ -3751,56 +4090,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="X13" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="Y13" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>66007</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>149709</v>
+      </c>
+      <c r="C14" t="s">
+        <v>155</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="J14" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="K14" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="L14" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="n">
         <v>5</v>
@@ -3816,56 +4159,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="X14" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="Y14" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>66007</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>2559</v>
+      </c>
+      <c r="C15" t="s">
+        <v>164</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="J15" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="K15" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="L15" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="O15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="n">
@@ -3883,56 +4230,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="X15" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="Y15" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>66007</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>37167</v>
+      </c>
+      <c r="C16" t="s">
+        <v>173</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="J16" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="K16" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="L16" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="O16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -3944,56 +4295,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="X16" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="Y16" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>66007</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>82753</v>
+      </c>
+      <c r="C17" t="s">
+        <v>182</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="J17" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="K17" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="L17" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O17" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -4005,56 +4360,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="X17" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="Y17" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>66007</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>149710</v>
+      </c>
+      <c r="C18" t="s">
+        <v>191</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="J18" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="K18" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="L18" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="O18" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -4066,56 +4425,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="X18" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="Y18" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>66007</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>149711</v>
+      </c>
+      <c r="C19" t="s">
+        <v>199</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="J19" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="K19" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="L19" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -4127,56 +4490,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="X19" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="Y19" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>66007</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>149712</v>
+      </c>
+      <c r="C20" t="s">
+        <v>208</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="J20" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="K20" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="L20" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -4194,56 +4561,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="X20" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="Y20" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>66007</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>119082</v>
+      </c>
+      <c r="C21" t="s">
+        <v>217</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="J21" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="K21" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="L21" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O21" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -4259,56 +4630,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="X21" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="Y21" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>66007</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>149713</v>
+      </c>
+      <c r="C22" t="s">
+        <v>226</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="J22" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="K22" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="L22" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O22" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -4320,56 +4695,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="X22" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="Y22" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>66007</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>149714</v>
+      </c>
+      <c r="C23" t="s">
+        <v>233</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="J23" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="K23" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="L23" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O23" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -4381,56 +4760,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="X23" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="Y23" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>66007</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>149715</v>
+      </c>
+      <c r="C24" t="s">
+        <v>242</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="J24" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="K24" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="L24" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O24" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -4442,56 +4825,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="X24" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="Y24" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>66007</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>149716</v>
+      </c>
+      <c r="C25" t="s">
+        <v>249</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="J25" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="K25" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="L25" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="O25" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P25" t="n">
         <v>5</v>
@@ -4507,47 +4894,51 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="X25" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="Y25" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>66007</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>149717</v>
+      </c>
+      <c r="C26" t="s">
+        <v>259</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="J26" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="K26" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="L26" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="M26" t="n">
         <v>3</v>
@@ -4564,56 +4955,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="X26" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="Y26" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>66007</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>149718</v>
+      </c>
+      <c r="C27" t="s">
+        <v>268</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="J27" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="K27" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="L27" t="s">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="O27" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P27" t="n">
         <v>5</v>
@@ -4631,56 +5026,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="X27" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="Y27" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>66007</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>18788</v>
+      </c>
+      <c r="C28" t="s">
+        <v>274</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="J28" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="K28" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="L28" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="O28" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -4692,56 +5091,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="X28" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="Y28" t="s">
-        <v>255</v>
+        <v>282</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>66007</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>149719</v>
+      </c>
+      <c r="C29" t="s">
+        <v>283</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="J29" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="K29" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="L29" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="M29" t="n">
         <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="O29" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -4757,56 +5160,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="X29" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="Y29" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>66007</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>17894</v>
+      </c>
+      <c r="C30" t="s">
+        <v>290</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>263</v>
+        <v>292</v>
       </c>
       <c r="J30" t="s">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="K30" t="s">
-        <v>265</v>
+        <v>294</v>
       </c>
       <c r="L30" t="s">
-        <v>266</v>
+        <v>295</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O30" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -4818,56 +5225,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>267</v>
+        <v>296</v>
       </c>
       <c r="X30" t="s">
-        <v>268</v>
+        <v>297</v>
       </c>
       <c r="Y30" t="s">
-        <v>269</v>
+        <v>298</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>66007</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>149720</v>
+      </c>
+      <c r="C31" t="s">
+        <v>299</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>271</v>
+        <v>301</v>
       </c>
       <c r="J31" t="s">
-        <v>272</v>
+        <v>302</v>
       </c>
       <c r="K31" t="s">
-        <v>273</v>
+        <v>303</v>
       </c>
       <c r="L31" t="s">
-        <v>274</v>
+        <v>304</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="O31" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -4879,56 +5290,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="X31" t="s">
-        <v>276</v>
+        <v>306</v>
       </c>
       <c r="Y31" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>66007</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>7</v>
+      </c>
+      <c r="C32" t="s">
+        <v>308</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>278</v>
+        <v>309</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
       <c r="J32" t="s">
-        <v>280</v>
+        <v>311</v>
       </c>
       <c r="K32" t="s">
-        <v>281</v>
+        <v>312</v>
       </c>
       <c r="L32" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="O32" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -4940,56 +5355,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>283</v>
+        <v>314</v>
       </c>
       <c r="X32" t="s">
-        <v>284</v>
+        <v>315</v>
       </c>
       <c r="Y32" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>66007</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>11421</v>
+      </c>
+      <c r="C33" t="s">
+        <v>317</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>286</v>
+        <v>318</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>287</v>
+        <v>319</v>
       </c>
       <c r="J33" t="s">
-        <v>288</v>
+        <v>320</v>
       </c>
       <c r="K33" t="s">
-        <v>289</v>
+        <v>321</v>
       </c>
       <c r="L33" t="s">
-        <v>290</v>
+        <v>322</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="O33" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P33" t="n">
         <v>4</v>
@@ -5007,56 +5426,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>291</v>
+        <v>323</v>
       </c>
       <c r="X33" t="s">
-        <v>292</v>
+        <v>324</v>
       </c>
       <c r="Y33" t="s">
-        <v>293</v>
+        <v>325</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>66007</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>568</v>
+      </c>
+      <c r="C34" t="s">
+        <v>326</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>294</v>
+        <v>327</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>295</v>
+        <v>328</v>
       </c>
       <c r="J34" t="s">
-        <v>296</v>
+        <v>329</v>
       </c>
       <c r="K34" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="L34" t="s">
-        <v>298</v>
+        <v>331</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -5072,56 +5495,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="X34" t="s">
-        <v>301</v>
+        <v>334</v>
       </c>
       <c r="Y34" t="s">
-        <v>302</v>
+        <v>335</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>66007</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>149721</v>
+      </c>
+      <c r="C35" t="s">
+        <v>336</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>303</v>
+        <v>337</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>304</v>
+        <v>338</v>
       </c>
       <c r="J35" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
       <c r="K35" t="s">
-        <v>306</v>
+        <v>340</v>
       </c>
       <c r="L35" t="s">
-        <v>307</v>
+        <v>341</v>
       </c>
       <c r="M35" t="n">
         <v>3</v>
       </c>
       <c r="N35" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="O35" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="n">
@@ -5139,56 +5566,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>308</v>
+        <v>342</v>
       </c>
       <c r="X35" t="s">
-        <v>309</v>
+        <v>343</v>
       </c>
       <c r="Y35" t="s">
-        <v>310</v>
+        <v>344</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>66007</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>149722</v>
+      </c>
+      <c r="C36" t="s">
+        <v>345</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>311</v>
+        <v>346</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>312</v>
+        <v>347</v>
       </c>
       <c r="J36" t="s">
-        <v>313</v>
+        <v>348</v>
       </c>
       <c r="K36" t="s">
-        <v>314</v>
+        <v>349</v>
       </c>
       <c r="L36" t="s">
-        <v>315</v>
+        <v>350</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>316</v>
+        <v>351</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -5200,56 +5631,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>317</v>
+        <v>352</v>
       </c>
       <c r="X36" t="s">
-        <v>318</v>
+        <v>353</v>
       </c>
       <c r="Y36" t="s">
-        <v>319</v>
+        <v>354</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>66007</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>149723</v>
+      </c>
+      <c r="C37" t="s">
+        <v>355</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>320</v>
+        <v>356</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>321</v>
+        <v>357</v>
       </c>
       <c r="J37" t="s">
-        <v>322</v>
+        <v>358</v>
       </c>
       <c r="K37" t="s">
-        <v>323</v>
+        <v>359</v>
       </c>
       <c r="L37" t="s">
-        <v>324</v>
+        <v>360</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -5261,56 +5696,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>325</v>
+        <v>361</v>
       </c>
       <c r="X37" t="s">
-        <v>326</v>
+        <v>362</v>
       </c>
       <c r="Y37" t="s">
-        <v>327</v>
+        <v>363</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>66007</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>15490</v>
+      </c>
+      <c r="C38" t="s">
+        <v>364</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>329</v>
+        <v>366</v>
       </c>
       <c r="J38" t="s">
-        <v>322</v>
+        <v>358</v>
       </c>
       <c r="K38" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="L38" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="O38" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P38" t="n">
         <v>2</v>
@@ -5328,56 +5767,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>325</v>
+        <v>361</v>
       </c>
       <c r="X38" t="s">
-        <v>326</v>
+        <v>362</v>
       </c>
       <c r="Y38" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>66007</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>149724</v>
+      </c>
+      <c r="C39" t="s">
+        <v>370</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>333</v>
+        <v>371</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>334</v>
+        <v>372</v>
       </c>
       <c r="J39" t="s">
-        <v>335</v>
+        <v>373</v>
       </c>
       <c r="K39" t="s">
-        <v>336</v>
+        <v>374</v>
       </c>
       <c r="L39" t="s">
-        <v>337</v>
+        <v>375</v>
       </c>
       <c r="M39" t="n">
         <v>2</v>
       </c>
       <c r="N39" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="O39" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -5389,56 +5832,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>325</v>
+        <v>361</v>
       </c>
       <c r="X39" t="s">
-        <v>326</v>
+        <v>362</v>
       </c>
       <c r="Y39" t="s">
-        <v>338</v>
+        <v>376</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>66007</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>149725</v>
+      </c>
+      <c r="C40" t="s">
+        <v>377</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>339</v>
+        <v>378</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>340</v>
+        <v>379</v>
       </c>
       <c r="J40" t="s">
-        <v>341</v>
+        <v>380</v>
       </c>
       <c r="K40" t="s">
-        <v>342</v>
+        <v>381</v>
       </c>
       <c r="L40" t="s">
-        <v>343</v>
+        <v>382</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -5456,56 +5903,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>344</v>
+        <v>383</v>
       </c>
       <c r="X40" t="s">
-        <v>345</v>
+        <v>384</v>
       </c>
       <c r="Y40" t="s">
-        <v>346</v>
+        <v>385</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>66007</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>149726</v>
+      </c>
+      <c r="C41" t="s">
+        <v>386</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>347</v>
+        <v>387</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>348</v>
+        <v>388</v>
       </c>
       <c r="J41" t="s">
-        <v>349</v>
+        <v>389</v>
       </c>
       <c r="K41" t="s">
-        <v>350</v>
+        <v>390</v>
       </c>
       <c r="L41" t="s">
+        <v>391</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
         <v>351</v>
       </c>
-      <c r="M41" t="n">
-        <v>5</v>
-      </c>
-      <c r="N41" t="s">
-        <v>316</v>
-      </c>
       <c r="O41" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
@@ -5523,56 +5974,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>352</v>
+        <v>392</v>
       </c>
       <c r="X41" t="s">
-        <v>353</v>
+        <v>393</v>
       </c>
       <c r="Y41" t="s">
-        <v>354</v>
+        <v>394</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>66007</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>149727</v>
+      </c>
+      <c r="C42" t="s">
+        <v>395</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>355</v>
+        <v>396</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>356</v>
+        <v>397</v>
       </c>
       <c r="J42" t="s">
-        <v>357</v>
+        <v>398</v>
       </c>
       <c r="K42" t="s">
-        <v>358</v>
+        <v>399</v>
       </c>
       <c r="L42" t="s">
-        <v>359</v>
+        <v>400</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>316</v>
+        <v>351</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="n">
@@ -5588,56 +6043,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>360</v>
+        <v>401</v>
       </c>
       <c r="X42" t="s">
-        <v>361</v>
+        <v>402</v>
       </c>
       <c r="Y42" t="s">
-        <v>362</v>
+        <v>403</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>66007</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>149728</v>
+      </c>
+      <c r="C43" t="s">
+        <v>404</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>363</v>
+        <v>405</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>364</v>
+        <v>406</v>
       </c>
       <c r="J43" t="s">
-        <v>365</v>
+        <v>407</v>
       </c>
       <c r="K43" t="s">
-        <v>366</v>
+        <v>408</v>
       </c>
       <c r="L43" t="s">
-        <v>367</v>
+        <v>409</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>368</v>
+        <v>410</v>
       </c>
       <c r="O43" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -5655,56 +6114,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>369</v>
+        <v>411</v>
       </c>
       <c r="X43" t="s">
-        <v>370</v>
+        <v>412</v>
       </c>
       <c r="Y43" t="s">
-        <v>371</v>
+        <v>413</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>66007</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>149729</v>
+      </c>
+      <c r="C44" t="s">
+        <v>414</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>372</v>
+        <v>415</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>373</v>
+        <v>416</v>
       </c>
       <c r="J44" t="s">
-        <v>374</v>
+        <v>417</v>
       </c>
       <c r="K44" t="s">
-        <v>375</v>
+        <v>418</v>
       </c>
       <c r="L44" t="s">
-        <v>376</v>
+        <v>419</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>377</v>
+        <v>420</v>
       </c>
       <c r="O44" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P44" t="n">
         <v>4</v>
@@ -5722,56 +6185,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>378</v>
+        <v>421</v>
       </c>
       <c r="X44" t="s">
-        <v>379</v>
+        <v>422</v>
       </c>
       <c r="Y44" t="s">
-        <v>380</v>
+        <v>423</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>66007</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>149730</v>
+      </c>
+      <c r="C45" t="s">
+        <v>424</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>381</v>
+        <v>425</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>382</v>
+        <v>426</v>
       </c>
       <c r="J45" t="s">
-        <v>374</v>
+        <v>417</v>
       </c>
       <c r="K45" t="s">
-        <v>383</v>
+        <v>427</v>
       </c>
       <c r="L45" t="s">
-        <v>384</v>
+        <v>428</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>385</v>
+        <v>429</v>
       </c>
       <c r="O45" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P45" t="n">
         <v>5</v>
@@ -5787,56 +6254,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>386</v>
+        <v>430</v>
       </c>
       <c r="X45" t="s">
-        <v>387</v>
+        <v>431</v>
       </c>
       <c r="Y45" t="s">
-        <v>388</v>
+        <v>432</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>66007</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>149731</v>
+      </c>
+      <c r="C46" t="s">
+        <v>433</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>389</v>
+        <v>434</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>390</v>
+        <v>435</v>
       </c>
       <c r="J46" t="s">
-        <v>391</v>
+        <v>436</v>
       </c>
       <c r="K46" t="s">
-        <v>392</v>
+        <v>437</v>
       </c>
       <c r="L46" t="s">
-        <v>393</v>
+        <v>438</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>368</v>
+        <v>410</v>
       </c>
       <c r="O46" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -5848,56 +6319,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>394</v>
+        <v>439</v>
       </c>
       <c r="X46" t="s">
-        <v>395</v>
+        <v>440</v>
       </c>
       <c r="Y46" t="s">
-        <v>396</v>
+        <v>441</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>66007</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>149732</v>
+      </c>
+      <c r="C47" t="s">
+        <v>442</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>397</v>
+        <v>443</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>398</v>
+        <v>444</v>
       </c>
       <c r="J47" t="s">
-        <v>399</v>
+        <v>445</v>
       </c>
       <c r="K47" t="s">
-        <v>400</v>
+        <v>446</v>
       </c>
       <c r="L47" t="s">
-        <v>401</v>
+        <v>447</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>377</v>
+        <v>420</v>
       </c>
       <c r="O47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
@@ -5909,56 +6384,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>402</v>
+        <v>448</v>
       </c>
       <c r="X47" t="s">
-        <v>403</v>
+        <v>449</v>
       </c>
       <c r="Y47" t="s">
-        <v>404</v>
+        <v>450</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>66007</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>149733</v>
+      </c>
+      <c r="C48" t="s">
+        <v>451</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>405</v>
+        <v>452</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>406</v>
+        <v>453</v>
       </c>
       <c r="J48" t="s">
-        <v>407</v>
+        <v>454</v>
       </c>
       <c r="K48" t="s">
-        <v>408</v>
+        <v>455</v>
       </c>
       <c r="L48" t="s">
-        <v>409</v>
+        <v>456</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>377</v>
+        <v>420</v>
       </c>
       <c r="O48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
@@ -5974,56 +6453,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>402</v>
+        <v>448</v>
       </c>
       <c r="X48" t="s">
-        <v>403</v>
+        <v>449</v>
       </c>
       <c r="Y48" t="s">
-        <v>410</v>
+        <v>457</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>66007</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>149734</v>
+      </c>
+      <c r="C49" t="s">
+        <v>458</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>411</v>
+        <v>459</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>412</v>
+        <v>460</v>
       </c>
       <c r="J49" t="s">
-        <v>413</v>
+        <v>461</v>
       </c>
       <c r="K49" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="L49" t="s">
-        <v>414</v>
+        <v>462</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>377</v>
+        <v>420</v>
       </c>
       <c r="O49" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -6041,56 +6524,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>402</v>
+        <v>448</v>
       </c>
       <c r="X49" t="s">
-        <v>403</v>
+        <v>449</v>
       </c>
       <c r="Y49" t="s">
-        <v>415</v>
+        <v>463</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>66007</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>149735</v>
+      </c>
+      <c r="C50" t="s">
+        <v>464</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>416</v>
+        <v>465</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>417</v>
+        <v>466</v>
       </c>
       <c r="J50" t="s">
-        <v>418</v>
+        <v>467</v>
       </c>
       <c r="K50" t="s">
-        <v>419</v>
+        <v>468</v>
       </c>
       <c r="L50" t="s">
-        <v>420</v>
+        <v>469</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>377</v>
+        <v>420</v>
       </c>
       <c r="O50" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="n">
@@ -6108,56 +6595,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>421</v>
+        <v>470</v>
       </c>
       <c r="X50" t="s">
-        <v>422</v>
+        <v>471</v>
       </c>
       <c r="Y50" t="s">
-        <v>423</v>
+        <v>472</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>66007</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>60983</v>
+      </c>
+      <c r="C51" t="s">
+        <v>473</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>424</v>
+        <v>474</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>425</v>
+        <v>475</v>
       </c>
       <c r="J51" t="s">
-        <v>426</v>
+        <v>476</v>
       </c>
       <c r="K51" t="s">
-        <v>427</v>
+        <v>477</v>
       </c>
       <c r="L51" t="s">
-        <v>428</v>
+        <v>478</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>377</v>
+        <v>420</v>
       </c>
       <c r="O51" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
@@ -6169,56 +6660,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>429</v>
+        <v>479</v>
       </c>
       <c r="X51" t="s">
-        <v>430</v>
+        <v>480</v>
       </c>
       <c r="Y51" t="s">
-        <v>431</v>
+        <v>481</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>66007</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>119555</v>
+      </c>
+      <c r="C52" t="s">
+        <v>482</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>432</v>
+        <v>483</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>433</v>
+        <v>484</v>
       </c>
       <c r="J52" t="s">
-        <v>434</v>
+        <v>485</v>
       </c>
       <c r="K52" t="s">
-        <v>435</v>
+        <v>486</v>
       </c>
       <c r="L52" t="s">
-        <v>436</v>
+        <v>487</v>
       </c>
       <c r="M52" t="n">
         <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>437</v>
+        <v>488</v>
       </c>
       <c r="O52" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="s"/>
@@ -6234,56 +6729,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>438</v>
+        <v>489</v>
       </c>
       <c r="X52" t="s">
-        <v>439</v>
+        <v>490</v>
       </c>
       <c r="Y52" t="s">
-        <v>440</v>
+        <v>491</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>66007</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>149736</v>
+      </c>
+      <c r="C53" t="s">
+        <v>492</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>441</v>
+        <v>493</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>442</v>
+        <v>494</v>
       </c>
       <c r="J53" t="s">
-        <v>443</v>
+        <v>495</v>
       </c>
       <c r="K53" t="s">
-        <v>444</v>
+        <v>496</v>
       </c>
       <c r="L53" t="s">
-        <v>445</v>
+        <v>497</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>437</v>
+        <v>488</v>
       </c>
       <c r="O53" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="s"/>
@@ -6301,56 +6800,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>446</v>
+        <v>498</v>
       </c>
       <c r="X53" t="s">
-        <v>447</v>
+        <v>499</v>
       </c>
       <c r="Y53" t="s">
-        <v>448</v>
+        <v>500</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>66007</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>149737</v>
+      </c>
+      <c r="C54" t="s">
+        <v>501</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>449</v>
+        <v>502</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>450</v>
+        <v>503</v>
       </c>
       <c r="J54" t="s">
-        <v>451</v>
+        <v>504</v>
       </c>
       <c r="K54" t="s">
-        <v>452</v>
+        <v>505</v>
       </c>
       <c r="L54" t="s">
-        <v>453</v>
+        <v>506</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>385</v>
+        <v>429</v>
       </c>
       <c r="O54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="s"/>
@@ -6362,56 +6865,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>454</v>
+        <v>507</v>
       </c>
       <c r="X54" t="s">
-        <v>455</v>
+        <v>508</v>
       </c>
       <c r="Y54" t="s">
-        <v>456</v>
+        <v>509</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>66007</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>149738</v>
+      </c>
+      <c r="C55" t="s">
+        <v>510</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>457</v>
+        <v>511</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>458</v>
+        <v>512</v>
       </c>
       <c r="J55" t="s">
-        <v>459</v>
+        <v>513</v>
       </c>
       <c r="K55" t="s">
-        <v>460</v>
+        <v>514</v>
       </c>
       <c r="L55" t="s">
-        <v>461</v>
+        <v>515</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>437</v>
+        <v>488</v>
       </c>
       <c r="O55" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
@@ -6429,56 +6936,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>462</v>
+        <v>516</v>
       </c>
       <c r="X55" t="s">
-        <v>463</v>
+        <v>517</v>
       </c>
       <c r="Y55" t="s">
-        <v>464</v>
+        <v>518</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>66007</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>149739</v>
+      </c>
+      <c r="C56" t="s">
+        <v>519</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>465</v>
+        <v>520</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>466</v>
+        <v>521</v>
       </c>
       <c r="J56" t="s">
-        <v>467</v>
+        <v>522</v>
       </c>
       <c r="K56" t="s">
-        <v>468</v>
+        <v>523</v>
       </c>
       <c r="L56" t="s">
-        <v>469</v>
+        <v>524</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>385</v>
+        <v>429</v>
       </c>
       <c r="O56" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="s"/>
@@ -6494,56 +7005,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>470</v>
+        <v>525</v>
       </c>
       <c r="X56" t="s">
-        <v>471</v>
+        <v>526</v>
       </c>
       <c r="Y56" t="s">
-        <v>472</v>
+        <v>527</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>66007</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>149740</v>
+      </c>
+      <c r="C57" t="s">
+        <v>528</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>474</v>
+        <v>530</v>
       </c>
       <c r="J57" t="s">
-        <v>475</v>
+        <v>531</v>
       </c>
       <c r="K57" t="s">
-        <v>476</v>
+        <v>532</v>
       </c>
       <c r="L57" t="s">
-        <v>477</v>
+        <v>533</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>437</v>
+        <v>488</v>
       </c>
       <c r="O57" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P57" t="s"/>
       <c r="Q57" t="s"/>
@@ -6555,56 +7070,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>478</v>
+        <v>534</v>
       </c>
       <c r="X57" t="s">
-        <v>479</v>
+        <v>535</v>
       </c>
       <c r="Y57" t="s">
-        <v>480</v>
+        <v>536</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>66007</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>149741</v>
+      </c>
+      <c r="C58" t="s">
+        <v>537</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>481</v>
+        <v>538</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>482</v>
+        <v>539</v>
       </c>
       <c r="J58" t="s">
-        <v>483</v>
+        <v>540</v>
       </c>
       <c r="K58" t="s">
-        <v>484</v>
+        <v>541</v>
       </c>
       <c r="L58" t="s">
-        <v>485</v>
+        <v>542</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>385</v>
+        <v>429</v>
       </c>
       <c r="O58" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P58" t="s"/>
       <c r="Q58" t="n">
@@ -6620,56 +7139,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>486</v>
+        <v>543</v>
       </c>
       <c r="X58" t="s">
-        <v>487</v>
+        <v>544</v>
       </c>
       <c r="Y58" t="s">
-        <v>488</v>
+        <v>545</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>66007</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>149742</v>
+      </c>
+      <c r="C59" t="s">
+        <v>546</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>489</v>
+        <v>547</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>490</v>
+        <v>548</v>
       </c>
       <c r="J59" t="s">
-        <v>491</v>
+        <v>549</v>
       </c>
       <c r="K59" t="s">
-        <v>492</v>
+        <v>550</v>
       </c>
       <c r="L59" t="s">
-        <v>493</v>
+        <v>551</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>385</v>
+        <v>429</v>
       </c>
       <c r="O59" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P59" t="s"/>
       <c r="Q59" t="s"/>
@@ -6687,56 +7210,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>494</v>
+        <v>552</v>
       </c>
       <c r="X59" t="s">
-        <v>495</v>
+        <v>553</v>
       </c>
       <c r="Y59" t="s">
-        <v>496</v>
+        <v>554</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>66007</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>149743</v>
+      </c>
+      <c r="C60" t="s">
+        <v>555</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>497</v>
+        <v>556</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>498</v>
+        <v>557</v>
       </c>
       <c r="J60" t="s">
-        <v>491</v>
+        <v>549</v>
       </c>
       <c r="K60" t="s">
-        <v>499</v>
+        <v>558</v>
       </c>
       <c r="L60" t="s">
-        <v>500</v>
+        <v>559</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>385</v>
+        <v>429</v>
       </c>
       <c r="O60" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P60" t="n">
         <v>5</v>
@@ -6752,56 +7279,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>494</v>
+        <v>552</v>
       </c>
       <c r="X60" t="s">
-        <v>495</v>
+        <v>553</v>
       </c>
       <c r="Y60" t="s">
-        <v>501</v>
+        <v>560</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>66007</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>149744</v>
+      </c>
+      <c r="C61" t="s">
+        <v>561</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>502</v>
+        <v>562</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>503</v>
+        <v>563</v>
       </c>
       <c r="J61" t="s">
-        <v>504</v>
+        <v>564</v>
       </c>
       <c r="K61" t="s">
-        <v>505</v>
+        <v>565</v>
       </c>
       <c r="L61" t="s">
-        <v>506</v>
+        <v>566</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>507</v>
+        <v>567</v>
       </c>
       <c r="O61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P61" t="s"/>
       <c r="Q61" t="s"/>
@@ -6817,56 +7348,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>508</v>
+        <v>568</v>
       </c>
       <c r="X61" t="s">
-        <v>509</v>
+        <v>569</v>
       </c>
       <c r="Y61" t="s">
-        <v>510</v>
+        <v>570</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>66007</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>1433</v>
+      </c>
+      <c r="C62" t="s">
+        <v>571</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>511</v>
+        <v>572</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>512</v>
+        <v>573</v>
       </c>
       <c r="J62" t="s">
-        <v>513</v>
+        <v>574</v>
       </c>
       <c r="K62" t="s">
-        <v>514</v>
+        <v>575</v>
       </c>
       <c r="L62" t="s">
-        <v>515</v>
+        <v>576</v>
       </c>
       <c r="M62" t="n">
         <v>2</v>
       </c>
       <c r="N62" t="s">
-        <v>385</v>
+        <v>429</v>
       </c>
       <c r="O62" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P62" t="n">
         <v>2</v>
@@ -6884,56 +7419,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>516</v>
+        <v>577</v>
       </c>
       <c r="X62" t="s">
-        <v>517</v>
+        <v>578</v>
       </c>
       <c r="Y62" t="s">
-        <v>518</v>
+        <v>579</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>66007</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>149745</v>
+      </c>
+      <c r="C63" t="s">
+        <v>580</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>519</v>
+        <v>581</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>520</v>
+        <v>582</v>
       </c>
       <c r="J63" t="s">
-        <v>521</v>
+        <v>583</v>
       </c>
       <c r="K63" t="s">
-        <v>522</v>
+        <v>584</v>
       </c>
       <c r="L63" t="s">
-        <v>523</v>
+        <v>585</v>
       </c>
       <c r="M63" t="n">
         <v>4</v>
       </c>
       <c r="N63" t="s">
-        <v>385</v>
+        <v>429</v>
       </c>
       <c r="O63" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P63" t="s"/>
       <c r="Q63" t="s"/>
@@ -6947,56 +7486,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>524</v>
+        <v>586</v>
       </c>
       <c r="X63" t="s">
-        <v>525</v>
+        <v>587</v>
       </c>
       <c r="Y63" t="s">
-        <v>526</v>
+        <v>588</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>66007</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>149746</v>
+      </c>
+      <c r="C64" t="s">
+        <v>589</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>527</v>
+        <v>590</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>528</v>
+        <v>591</v>
       </c>
       <c r="J64" t="s">
-        <v>529</v>
+        <v>592</v>
       </c>
       <c r="K64" t="s">
-        <v>530</v>
+        <v>593</v>
       </c>
       <c r="L64" t="s">
-        <v>531</v>
+        <v>594</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>385</v>
+        <v>429</v>
       </c>
       <c r="O64" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P64" t="n">
         <v>4</v>
@@ -7014,56 +7557,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>532</v>
+        <v>595</v>
       </c>
       <c r="X64" t="s">
-        <v>533</v>
+        <v>596</v>
       </c>
       <c r="Y64" t="s">
-        <v>534</v>
+        <v>597</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>66007</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>117953</v>
+      </c>
+      <c r="C65" t="s">
+        <v>598</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>535</v>
+        <v>599</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>536</v>
+        <v>600</v>
       </c>
       <c r="J65" t="s">
-        <v>537</v>
+        <v>601</v>
       </c>
       <c r="K65" t="s">
-        <v>538</v>
+        <v>602</v>
       </c>
       <c r="L65" t="s">
-        <v>539</v>
+        <v>603</v>
       </c>
       <c r="M65" t="n">
         <v>3</v>
       </c>
       <c r="N65" t="s">
-        <v>385</v>
+        <v>429</v>
       </c>
       <c r="O65" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P65" t="s"/>
       <c r="Q65" t="s"/>
@@ -7075,56 +7622,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>540</v>
+        <v>604</v>
       </c>
       <c r="X65" t="s">
-        <v>541</v>
+        <v>605</v>
       </c>
       <c r="Y65" t="s">
-        <v>542</v>
+        <v>606</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>66007</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>149747</v>
+      </c>
+      <c r="C66" t="s">
+        <v>607</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>543</v>
+        <v>608</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>544</v>
+        <v>609</v>
       </c>
       <c r="J66" t="s">
-        <v>545</v>
+        <v>610</v>
       </c>
       <c r="K66" t="s">
-        <v>546</v>
+        <v>611</v>
       </c>
       <c r="L66" t="s">
-        <v>547</v>
+        <v>612</v>
       </c>
       <c r="M66" t="n">
         <v>4</v>
       </c>
       <c r="N66" t="s">
-        <v>385</v>
+        <v>429</v>
       </c>
       <c r="O66" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P66" t="s"/>
       <c r="Q66" t="s"/>
@@ -7142,56 +7693,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>540</v>
+        <v>604</v>
       </c>
       <c r="X66" t="s">
-        <v>541</v>
+        <v>605</v>
       </c>
       <c r="Y66" t="s">
-        <v>548</v>
+        <v>613</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>66007</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>149748</v>
+      </c>
+      <c r="C67" t="s">
+        <v>614</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>549</v>
+        <v>615</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>550</v>
+        <v>616</v>
       </c>
       <c r="J67" t="s">
-        <v>551</v>
+        <v>617</v>
       </c>
       <c r="K67" t="s">
-        <v>552</v>
+        <v>618</v>
       </c>
       <c r="L67" t="s">
-        <v>553</v>
+        <v>619</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>385</v>
+        <v>429</v>
       </c>
       <c r="O67" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P67" t="s"/>
       <c r="Q67" t="s"/>
@@ -7207,56 +7762,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>554</v>
+        <v>620</v>
       </c>
       <c r="X67" t="s">
-        <v>555</v>
+        <v>621</v>
       </c>
       <c r="Y67" t="s">
-        <v>556</v>
+        <v>622</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>66007</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>149749</v>
+      </c>
+      <c r="C68" t="s">
+        <v>623</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>557</v>
+        <v>624</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>558</v>
+        <v>625</v>
       </c>
       <c r="J68" t="s">
-        <v>559</v>
+        <v>626</v>
       </c>
       <c r="K68" t="s">
-        <v>560</v>
+        <v>627</v>
       </c>
       <c r="L68" t="s">
-        <v>561</v>
+        <v>628</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>507</v>
+        <v>567</v>
       </c>
       <c r="O68" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P68" t="s"/>
       <c r="Q68" t="s"/>
@@ -7268,47 +7827,51 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>562</v>
+        <v>629</v>
       </c>
       <c r="X68" t="s">
-        <v>563</v>
+        <v>630</v>
       </c>
       <c r="Y68" t="s">
-        <v>564</v>
+        <v>631</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>66007</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>149750</v>
+      </c>
+      <c r="C69" t="s">
+        <v>632</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>565</v>
+        <v>633</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>566</v>
+        <v>634</v>
       </c>
       <c r="J69" t="s">
-        <v>567</v>
+        <v>635</v>
       </c>
       <c r="K69" t="s">
-        <v>560</v>
+        <v>627</v>
       </c>
       <c r="L69" t="s">
-        <v>568</v>
+        <v>636</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
@@ -7325,47 +7888,51 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>569</v>
+        <v>637</v>
       </c>
       <c r="X69" t="s">
-        <v>570</v>
+        <v>638</v>
       </c>
       <c r="Y69" t="s">
-        <v>571</v>
+        <v>639</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>66007</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>149751</v>
+      </c>
+      <c r="C70" t="s">
+        <v>640</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>572</v>
+        <v>641</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>573</v>
+        <v>642</v>
       </c>
       <c r="J70" t="s">
-        <v>574</v>
+        <v>643</v>
       </c>
       <c r="K70" t="s">
-        <v>575</v>
+        <v>644</v>
       </c>
       <c r="L70" t="s">
-        <v>576</v>
+        <v>645</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
@@ -7382,56 +7949,60 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>577</v>
+        <v>646</v>
       </c>
       <c r="X70" t="s">
-        <v>578</v>
+        <v>647</v>
       </c>
       <c r="Y70" t="s">
-        <v>579</v>
+        <v>648</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>66007</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>149752</v>
+      </c>
+      <c r="C71" t="s">
+        <v>649</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>580</v>
+        <v>650</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>581</v>
+        <v>651</v>
       </c>
       <c r="J71" t="s">
-        <v>582</v>
+        <v>652</v>
       </c>
       <c r="K71" t="s">
-        <v>583</v>
+        <v>653</v>
       </c>
       <c r="L71" t="s">
-        <v>584</v>
+        <v>654</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
       </c>
       <c r="N71" t="s">
-        <v>507</v>
+        <v>567</v>
       </c>
       <c r="O71" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P71" t="s"/>
       <c r="Q71" t="s"/>
@@ -7449,56 +8020,60 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>585</v>
+        <v>655</v>
       </c>
       <c r="X71" t="s">
-        <v>586</v>
+        <v>656</v>
       </c>
       <c r="Y71" t="s">
-        <v>587</v>
+        <v>657</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>66007</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>149753</v>
+      </c>
+      <c r="C72" t="s">
+        <v>658</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>588</v>
+        <v>659</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>589</v>
+        <v>660</v>
       </c>
       <c r="J72" t="s">
-        <v>590</v>
+        <v>661</v>
       </c>
       <c r="K72" t="s">
-        <v>591</v>
+        <v>662</v>
       </c>
       <c r="L72" t="s">
-        <v>592</v>
+        <v>663</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>507</v>
+        <v>567</v>
       </c>
       <c r="O72" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P72" t="s"/>
       <c r="Q72" t="s"/>
@@ -7514,56 +8089,60 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>593</v>
+        <v>664</v>
       </c>
       <c r="X72" t="s">
-        <v>594</v>
+        <v>665</v>
       </c>
       <c r="Y72" t="s">
-        <v>595</v>
+        <v>666</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>66007</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>149754</v>
+      </c>
+      <c r="C73" t="s">
+        <v>667</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>596</v>
+        <v>668</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>597</v>
+        <v>669</v>
       </c>
       <c r="J73" t="s">
-        <v>598</v>
+        <v>670</v>
       </c>
       <c r="K73" t="s">
-        <v>599</v>
+        <v>671</v>
       </c>
       <c r="L73" t="s">
-        <v>600</v>
+        <v>672</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>507</v>
+        <v>567</v>
       </c>
       <c r="O73" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P73" t="s"/>
       <c r="Q73" t="n">
@@ -7581,56 +8160,60 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>601</v>
+        <v>673</v>
       </c>
       <c r="X73" t="s">
-        <v>602</v>
+        <v>674</v>
       </c>
       <c r="Y73" t="s">
-        <v>603</v>
+        <v>675</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>66007</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>1515</v>
+      </c>
+      <c r="C74" t="s">
+        <v>676</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>604</v>
+        <v>677</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>605</v>
+        <v>678</v>
       </c>
       <c r="J74" t="s">
-        <v>606</v>
+        <v>679</v>
       </c>
       <c r="K74" t="s">
-        <v>607</v>
+        <v>680</v>
       </c>
       <c r="L74" t="s">
-        <v>608</v>
+        <v>681</v>
       </c>
       <c r="M74" t="n">
         <v>5</v>
       </c>
       <c r="N74" t="s">
-        <v>507</v>
+        <v>567</v>
       </c>
       <c r="O74" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P74" t="s"/>
       <c r="Q74" t="s"/>
@@ -7648,47 +8231,51 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>609</v>
+        <v>682</v>
       </c>
       <c r="X74" t="s">
-        <v>610</v>
+        <v>683</v>
       </c>
       <c r="Y74" t="s">
-        <v>611</v>
+        <v>684</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>66007</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>149755</v>
+      </c>
+      <c r="C75" t="s">
+        <v>685</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>612</v>
+        <v>686</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>613</v>
+        <v>687</v>
       </c>
       <c r="J75" t="s">
-        <v>614</v>
+        <v>688</v>
       </c>
       <c r="K75" t="s">
-        <v>615</v>
+        <v>689</v>
       </c>
       <c r="L75" t="s">
-        <v>616</v>
+        <v>690</v>
       </c>
       <c r="M75" t="n">
         <v>5</v>
@@ -7705,56 +8292,60 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>617</v>
+        <v>691</v>
       </c>
       <c r="X75" t="s">
-        <v>618</v>
+        <v>692</v>
       </c>
       <c r="Y75" t="s">
-        <v>619</v>
+        <v>693</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>66007</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>51010</v>
+      </c>
+      <c r="C76" t="s">
+        <v>694</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>620</v>
+        <v>695</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>621</v>
+        <v>696</v>
       </c>
       <c r="J76" t="s">
-        <v>622</v>
+        <v>697</v>
       </c>
       <c r="K76" t="s">
-        <v>623</v>
+        <v>698</v>
       </c>
       <c r="L76" t="s">
-        <v>624</v>
+        <v>699</v>
       </c>
       <c r="M76" t="n">
         <v>5</v>
       </c>
       <c r="N76" t="s">
-        <v>507</v>
+        <v>567</v>
       </c>
       <c r="O76" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P76" t="n">
         <v>5</v>
@@ -7772,56 +8363,60 @@
         <v>0</v>
       </c>
       <c r="W76" t="s">
-        <v>625</v>
+        <v>700</v>
       </c>
       <c r="X76" t="s">
-        <v>626</v>
+        <v>701</v>
       </c>
       <c r="Y76" t="s">
-        <v>627</v>
+        <v>702</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>66007</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>149756</v>
+      </c>
+      <c r="C77" t="s">
+        <v>703</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>628</v>
+        <v>704</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>629</v>
+        <v>705</v>
       </c>
       <c r="J77" t="s">
-        <v>630</v>
+        <v>706</v>
       </c>
       <c r="K77" t="s">
-        <v>631</v>
+        <v>707</v>
       </c>
       <c r="L77" t="s">
-        <v>632</v>
+        <v>708</v>
       </c>
       <c r="M77" t="n">
         <v>5</v>
       </c>
       <c r="N77" t="s">
-        <v>633</v>
+        <v>709</v>
       </c>
       <c r="O77" t="s">
-        <v>634</v>
+        <v>710</v>
       </c>
       <c r="P77" t="s"/>
       <c r="Q77" t="s"/>
@@ -7839,56 +8434,60 @@
         <v>0</v>
       </c>
       <c r="W77" t="s">
-        <v>635</v>
+        <v>711</v>
       </c>
       <c r="X77" t="s">
-        <v>636</v>
+        <v>712</v>
       </c>
       <c r="Y77" t="s">
-        <v>637</v>
+        <v>713</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>66007</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>7500</v>
+      </c>
+      <c r="C78" t="s">
+        <v>714</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>638</v>
+        <v>715</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>639</v>
+        <v>716</v>
       </c>
       <c r="J78" t="s">
-        <v>640</v>
+        <v>717</v>
       </c>
       <c r="K78" t="s">
-        <v>641</v>
+        <v>718</v>
       </c>
       <c r="L78" t="s">
-        <v>642</v>
+        <v>719</v>
       </c>
       <c r="M78" t="n">
         <v>5</v>
       </c>
       <c r="N78" t="s">
-        <v>633</v>
+        <v>709</v>
       </c>
       <c r="O78" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P78" t="n">
         <v>4</v>
@@ -7906,56 +8505,60 @@
         <v>0</v>
       </c>
       <c r="W78" t="s">
-        <v>643</v>
+        <v>720</v>
       </c>
       <c r="X78" t="s">
-        <v>644</v>
+        <v>721</v>
       </c>
       <c r="Y78" t="s">
-        <v>645</v>
+        <v>722</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>66007</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>149757</v>
+      </c>
+      <c r="C79" t="s">
+        <v>723</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>646</v>
+        <v>724</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>647</v>
+        <v>725</v>
       </c>
       <c r="J79" t="s">
-        <v>648</v>
+        <v>726</v>
       </c>
       <c r="K79" t="s">
-        <v>649</v>
+        <v>727</v>
       </c>
       <c r="L79" t="s">
-        <v>650</v>
+        <v>728</v>
       </c>
       <c r="M79" t="n">
         <v>4</v>
       </c>
       <c r="N79" t="s">
-        <v>633</v>
+        <v>709</v>
       </c>
       <c r="O79" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P79" t="n">
         <v>5</v>
@@ -7973,56 +8576,60 @@
         <v>0</v>
       </c>
       <c r="W79" t="s">
-        <v>651</v>
+        <v>729</v>
       </c>
       <c r="X79" t="s">
-        <v>652</v>
+        <v>730</v>
       </c>
       <c r="Y79" t="s">
-        <v>653</v>
+        <v>731</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>66007</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>12976</v>
+      </c>
+      <c r="C80" t="s">
+        <v>732</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>654</v>
+        <v>733</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>655</v>
+        <v>734</v>
       </c>
       <c r="J80" t="s">
-        <v>656</v>
+        <v>735</v>
       </c>
       <c r="K80" t="s">
-        <v>657</v>
+        <v>736</v>
       </c>
       <c r="L80" t="s">
-        <v>658</v>
+        <v>737</v>
       </c>
       <c r="M80" t="n">
         <v>5</v>
       </c>
       <c r="N80" t="s">
-        <v>633</v>
+        <v>709</v>
       </c>
       <c r="O80" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P80" t="s"/>
       <c r="Q80" t="s"/>
@@ -8034,56 +8641,60 @@
         <v>0</v>
       </c>
       <c r="W80" t="s">
-        <v>659</v>
+        <v>738</v>
       </c>
       <c r="X80" t="s">
-        <v>660</v>
+        <v>739</v>
       </c>
       <c r="Y80" t="s">
-        <v>661</v>
+        <v>740</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>66007</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>12361</v>
+      </c>
+      <c r="C81" t="s">
+        <v>741</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>662</v>
+        <v>742</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>663</v>
+        <v>743</v>
       </c>
       <c r="J81" t="s">
-        <v>656</v>
+        <v>735</v>
       </c>
       <c r="K81" t="s">
-        <v>664</v>
+        <v>744</v>
       </c>
       <c r="L81" t="s">
-        <v>665</v>
+        <v>745</v>
       </c>
       <c r="M81" t="n">
         <v>5</v>
       </c>
       <c r="N81" t="s">
-        <v>633</v>
+        <v>709</v>
       </c>
       <c r="O81" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P81" t="n">
         <v>5</v>
@@ -8101,56 +8712,60 @@
         <v>0</v>
       </c>
       <c r="W81" t="s">
-        <v>659</v>
+        <v>738</v>
       </c>
       <c r="X81" t="s">
-        <v>660</v>
+        <v>739</v>
       </c>
       <c r="Y81" t="s">
-        <v>666</v>
+        <v>746</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>66007</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>149758</v>
+      </c>
+      <c r="C82" t="s">
+        <v>747</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>667</v>
+        <v>748</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>668</v>
+        <v>749</v>
       </c>
       <c r="J82" t="s">
-        <v>669</v>
+        <v>750</v>
       </c>
       <c r="K82" t="s">
-        <v>670</v>
+        <v>751</v>
       </c>
       <c r="L82" t="s">
-        <v>671</v>
+        <v>752</v>
       </c>
       <c r="M82" t="n">
         <v>4</v>
       </c>
       <c r="N82" t="s">
-        <v>633</v>
+        <v>709</v>
       </c>
       <c r="O82" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P82" t="s"/>
       <c r="Q82" t="s"/>
@@ -8162,56 +8777,60 @@
         <v>0</v>
       </c>
       <c r="W82" t="s">
-        <v>672</v>
+        <v>753</v>
       </c>
       <c r="X82" t="s">
-        <v>673</v>
+        <v>754</v>
       </c>
       <c r="Y82" t="s">
-        <v>674</v>
+        <v>755</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>66007</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>149759</v>
+      </c>
+      <c r="C83" t="s">
+        <v>756</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>675</v>
+        <v>757</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>676</v>
+        <v>758</v>
       </c>
       <c r="J83" t="s">
-        <v>677</v>
+        <v>759</v>
       </c>
       <c r="K83" t="s">
-        <v>678</v>
+        <v>760</v>
       </c>
       <c r="L83" t="s">
-        <v>679</v>
+        <v>761</v>
       </c>
       <c r="M83" t="n">
         <v>4</v>
       </c>
       <c r="N83" t="s">
-        <v>680</v>
+        <v>762</v>
       </c>
       <c r="O83" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P83" t="s"/>
       <c r="Q83" t="s"/>
@@ -8223,56 +8842,60 @@
         <v>0</v>
       </c>
       <c r="W83" t="s">
-        <v>681</v>
+        <v>763</v>
       </c>
       <c r="X83" t="s">
-        <v>682</v>
+        <v>764</v>
       </c>
       <c r="Y83" t="s">
-        <v>683</v>
+        <v>765</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>66007</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>149760</v>
+      </c>
+      <c r="C84" t="s">
+        <v>766</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>684</v>
+        <v>767</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>685</v>
+        <v>768</v>
       </c>
       <c r="J84" t="s">
-        <v>686</v>
+        <v>769</v>
       </c>
       <c r="K84" t="s">
-        <v>687</v>
+        <v>770</v>
       </c>
       <c r="L84" t="s">
-        <v>688</v>
+        <v>771</v>
       </c>
       <c r="M84" t="n">
         <v>4</v>
       </c>
       <c r="N84" t="s">
-        <v>680</v>
+        <v>762</v>
       </c>
       <c r="O84" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P84" t="s"/>
       <c r="Q84" t="s"/>
@@ -8288,56 +8911,60 @@
         <v>0</v>
       </c>
       <c r="W84" t="s">
-        <v>689</v>
+        <v>772</v>
       </c>
       <c r="X84" t="s">
-        <v>690</v>
+        <v>773</v>
       </c>
       <c r="Y84" t="s">
-        <v>691</v>
+        <v>774</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>66007</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>149761</v>
+      </c>
+      <c r="C85" t="s">
+        <v>775</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>692</v>
+        <v>776</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>693</v>
+        <v>777</v>
       </c>
       <c r="J85" t="s">
-        <v>694</v>
+        <v>778</v>
       </c>
       <c r="K85" t="s">
-        <v>695</v>
+        <v>779</v>
       </c>
       <c r="L85" t="s">
-        <v>696</v>
+        <v>780</v>
       </c>
       <c r="M85" t="n">
         <v>5</v>
       </c>
       <c r="N85" t="s">
-        <v>680</v>
+        <v>762</v>
       </c>
       <c r="O85" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P85" t="s"/>
       <c r="Q85" t="n">
@@ -8353,56 +8980,60 @@
         <v>0</v>
       </c>
       <c r="W85" t="s">
-        <v>697</v>
+        <v>781</v>
       </c>
       <c r="X85" t="s">
-        <v>698</v>
+        <v>782</v>
       </c>
       <c r="Y85" t="s">
-        <v>699</v>
+        <v>783</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>66007</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>149762</v>
+      </c>
+      <c r="C86" t="s">
+        <v>784</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>700</v>
+        <v>785</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>701</v>
+        <v>786</v>
       </c>
       <c r="J86" t="s">
-        <v>702</v>
+        <v>787</v>
       </c>
       <c r="K86" t="s">
-        <v>703</v>
+        <v>788</v>
       </c>
       <c r="L86" t="s">
-        <v>704</v>
+        <v>789</v>
       </c>
       <c r="M86" t="n">
         <v>5</v>
       </c>
       <c r="N86" t="s">
-        <v>680</v>
+        <v>762</v>
       </c>
       <c r="O86" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P86" t="s"/>
       <c r="Q86" t="s"/>
@@ -8414,56 +9045,60 @@
         <v>0</v>
       </c>
       <c r="W86" t="s">
-        <v>705</v>
+        <v>790</v>
       </c>
       <c r="X86" t="s">
-        <v>706</v>
+        <v>791</v>
       </c>
       <c r="Y86" t="s">
-        <v>707</v>
+        <v>792</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>66007</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>149763</v>
+      </c>
+      <c r="C87" t="s">
+        <v>793</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>708</v>
+        <v>794</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>709</v>
+        <v>795</v>
       </c>
       <c r="J87" t="s">
-        <v>702</v>
+        <v>787</v>
       </c>
       <c r="K87" t="s">
-        <v>710</v>
+        <v>796</v>
       </c>
       <c r="L87" t="s">
-        <v>711</v>
+        <v>797</v>
       </c>
       <c r="M87" t="n">
         <v>5</v>
       </c>
       <c r="N87" t="s">
-        <v>680</v>
+        <v>762</v>
       </c>
       <c r="O87" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P87" t="s"/>
       <c r="Q87" t="n">
@@ -8479,56 +9114,60 @@
         <v>0</v>
       </c>
       <c r="W87" t="s">
-        <v>705</v>
+        <v>790</v>
       </c>
       <c r="X87" t="s">
-        <v>706</v>
+        <v>791</v>
       </c>
       <c r="Y87" t="s">
-        <v>712</v>
+        <v>798</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>66007</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>149764</v>
+      </c>
+      <c r="C88" t="s">
+        <v>799</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>713</v>
+        <v>800</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>714</v>
+        <v>801</v>
       </c>
       <c r="J88" t="s">
-        <v>715</v>
+        <v>802</v>
       </c>
       <c r="K88" t="s">
-        <v>716</v>
+        <v>803</v>
       </c>
       <c r="L88" t="s">
-        <v>717</v>
+        <v>804</v>
       </c>
       <c r="M88" t="n">
         <v>5</v>
       </c>
       <c r="N88" t="s">
-        <v>680</v>
+        <v>762</v>
       </c>
       <c r="O88" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P88" t="n">
         <v>5</v>
@@ -8546,56 +9185,60 @@
         <v>0</v>
       </c>
       <c r="W88" t="s">
-        <v>705</v>
+        <v>790</v>
       </c>
       <c r="X88" t="s">
-        <v>706</v>
+        <v>791</v>
       </c>
       <c r="Y88" t="s">
-        <v>718</v>
+        <v>805</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>66007</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>149765</v>
+      </c>
+      <c r="C89" t="s">
+        <v>806</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>719</v>
+        <v>807</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>720</v>
+        <v>808</v>
       </c>
       <c r="J89" t="s">
-        <v>721</v>
+        <v>809</v>
       </c>
       <c r="K89" t="s">
-        <v>722</v>
+        <v>810</v>
       </c>
       <c r="L89" t="s">
-        <v>723</v>
+        <v>811</v>
       </c>
       <c r="M89" t="n">
         <v>5</v>
       </c>
       <c r="N89" t="s">
-        <v>724</v>
+        <v>812</v>
       </c>
       <c r="O89" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P89" t="n">
         <v>5</v>
@@ -8613,56 +9256,60 @@
         <v>0</v>
       </c>
       <c r="W89" t="s">
-        <v>725</v>
+        <v>813</v>
       </c>
       <c r="X89" t="s">
-        <v>726</v>
+        <v>814</v>
       </c>
       <c r="Y89" t="s">
-        <v>727</v>
+        <v>815</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>66007</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>149766</v>
+      </c>
+      <c r="C90" t="s">
+        <v>816</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>728</v>
+        <v>817</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>729</v>
+        <v>818</v>
       </c>
       <c r="J90" t="s">
-        <v>730</v>
+        <v>819</v>
       </c>
       <c r="K90" t="s">
-        <v>731</v>
+        <v>820</v>
       </c>
       <c r="L90" t="s">
-        <v>732</v>
+        <v>821</v>
       </c>
       <c r="M90" t="n">
         <v>4</v>
       </c>
       <c r="N90" t="s">
-        <v>724</v>
+        <v>812</v>
       </c>
       <c r="O90" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P90" t="n">
         <v>4</v>
@@ -8678,56 +9325,60 @@
         <v>0</v>
       </c>
       <c r="W90" t="s">
-        <v>733</v>
+        <v>822</v>
       </c>
       <c r="X90" t="s">
-        <v>734</v>
+        <v>823</v>
       </c>
       <c r="Y90" t="s">
-        <v>735</v>
+        <v>824</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>66007</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>149767</v>
+      </c>
+      <c r="C91" t="s">
+        <v>825</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>736</v>
+        <v>826</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>737</v>
+        <v>827</v>
       </c>
       <c r="J91" t="s">
-        <v>738</v>
+        <v>828</v>
       </c>
       <c r="K91" t="s">
-        <v>739</v>
+        <v>829</v>
       </c>
       <c r="L91" t="s">
-        <v>740</v>
+        <v>830</v>
       </c>
       <c r="M91" t="n">
         <v>5</v>
       </c>
       <c r="N91" t="s">
-        <v>724</v>
+        <v>812</v>
       </c>
       <c r="O91" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P91" t="s"/>
       <c r="Q91" t="n">
@@ -8743,56 +9394,60 @@
         <v>0</v>
       </c>
       <c r="W91" t="s">
-        <v>733</v>
+        <v>822</v>
       </c>
       <c r="X91" t="s">
-        <v>734</v>
+        <v>823</v>
       </c>
       <c r="Y91" t="s">
-        <v>741</v>
+        <v>831</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>66007</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>149768</v>
+      </c>
+      <c r="C92" t="s">
+        <v>832</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>742</v>
+        <v>833</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>743</v>
+        <v>834</v>
       </c>
       <c r="J92" t="s">
-        <v>744</v>
+        <v>835</v>
       </c>
       <c r="K92" t="s">
-        <v>745</v>
+        <v>836</v>
       </c>
       <c r="L92" t="s">
-        <v>746</v>
+        <v>837</v>
       </c>
       <c r="M92" t="n">
         <v>4</v>
       </c>
       <c r="N92" t="s">
-        <v>724</v>
+        <v>812</v>
       </c>
       <c r="O92" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P92" t="n">
         <v>4</v>
@@ -8808,56 +9463,60 @@
         <v>0</v>
       </c>
       <c r="W92" t="s">
-        <v>733</v>
+        <v>822</v>
       </c>
       <c r="X92" t="s">
-        <v>734</v>
+        <v>823</v>
       </c>
       <c r="Y92" t="s">
-        <v>747</v>
+        <v>838</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>66007</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>149769</v>
+      </c>
+      <c r="C93" t="s">
+        <v>839</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>748</v>
+        <v>840</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>749</v>
+        <v>841</v>
       </c>
       <c r="J93" t="s">
-        <v>750</v>
+        <v>842</v>
       </c>
       <c r="K93" t="s">
-        <v>751</v>
+        <v>843</v>
       </c>
       <c r="L93" t="s">
-        <v>752</v>
+        <v>844</v>
       </c>
       <c r="M93" t="n">
         <v>5</v>
       </c>
       <c r="N93" t="s">
-        <v>724</v>
+        <v>812</v>
       </c>
       <c r="O93" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P93" t="s"/>
       <c r="Q93" t="s"/>
@@ -8869,56 +9528,60 @@
         <v>0</v>
       </c>
       <c r="W93" t="s">
-        <v>753</v>
+        <v>845</v>
       </c>
       <c r="X93" t="s">
-        <v>754</v>
+        <v>846</v>
       </c>
       <c r="Y93" t="s">
-        <v>755</v>
+        <v>847</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>66007</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>149770</v>
+      </c>
+      <c r="C94" t="s">
+        <v>848</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>756</v>
+        <v>849</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>757</v>
+        <v>850</v>
       </c>
       <c r="J94" t="s">
-        <v>758</v>
+        <v>851</v>
       </c>
       <c r="K94" t="s">
-        <v>759</v>
+        <v>852</v>
       </c>
       <c r="L94" t="s">
-        <v>760</v>
+        <v>853</v>
       </c>
       <c r="M94" t="n">
         <v>5</v>
       </c>
       <c r="N94" t="s">
-        <v>724</v>
+        <v>812</v>
       </c>
       <c r="O94" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P94" t="s"/>
       <c r="Q94" t="s"/>
@@ -8930,56 +9593,60 @@
         <v>0</v>
       </c>
       <c r="W94" t="s">
-        <v>761</v>
+        <v>854</v>
       </c>
       <c r="X94" t="s">
-        <v>762</v>
+        <v>855</v>
       </c>
       <c r="Y94" t="s">
-        <v>763</v>
+        <v>856</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>66007</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>149771</v>
+      </c>
+      <c r="C95" t="s">
+        <v>857</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>764</v>
+        <v>858</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>765</v>
+        <v>859</v>
       </c>
       <c r="J95" t="s">
-        <v>766</v>
+        <v>860</v>
       </c>
       <c r="K95" t="s">
-        <v>767</v>
+        <v>861</v>
       </c>
       <c r="L95" t="s">
-        <v>768</v>
+        <v>862</v>
       </c>
       <c r="M95" t="n">
         <v>5</v>
       </c>
       <c r="N95" t="s">
-        <v>724</v>
+        <v>812</v>
       </c>
       <c r="O95" t="s">
-        <v>634</v>
+        <v>710</v>
       </c>
       <c r="P95" t="s"/>
       <c r="Q95" t="s"/>
@@ -8993,56 +9660,60 @@
         <v>0</v>
       </c>
       <c r="W95" t="s">
-        <v>761</v>
+        <v>854</v>
       </c>
       <c r="X95" t="s">
-        <v>762</v>
+        <v>855</v>
       </c>
       <c r="Y95" t="s">
-        <v>769</v>
+        <v>863</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>66007</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>149772</v>
+      </c>
+      <c r="C96" t="s">
+        <v>864</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>770</v>
+        <v>865</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>771</v>
+        <v>866</v>
       </c>
       <c r="J96" t="s">
-        <v>772</v>
+        <v>867</v>
       </c>
       <c r="K96" t="s">
-        <v>773</v>
+        <v>868</v>
       </c>
       <c r="L96" t="s">
-        <v>774</v>
+        <v>869</v>
       </c>
       <c r="M96" t="n">
         <v>5</v>
       </c>
       <c r="N96" t="s">
-        <v>724</v>
+        <v>812</v>
       </c>
       <c r="O96" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P96" t="s"/>
       <c r="Q96" t="s"/>
@@ -9060,56 +9731,60 @@
         <v>0</v>
       </c>
       <c r="W96" t="s">
-        <v>775</v>
+        <v>870</v>
       </c>
       <c r="X96" t="s">
-        <v>776</v>
+        <v>871</v>
       </c>
       <c r="Y96" t="s">
-        <v>777</v>
+        <v>872</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>66007</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>149773</v>
+      </c>
+      <c r="C97" t="s">
+        <v>873</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>778</v>
+        <v>874</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>779</v>
+        <v>875</v>
       </c>
       <c r="J97" t="s">
-        <v>780</v>
+        <v>876</v>
       </c>
       <c r="K97" t="s">
-        <v>781</v>
+        <v>877</v>
       </c>
       <c r="L97" t="s">
-        <v>782</v>
+        <v>878</v>
       </c>
       <c r="M97" t="n">
         <v>5</v>
       </c>
       <c r="N97" t="s">
-        <v>724</v>
+        <v>812</v>
       </c>
       <c r="O97" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P97" t="s"/>
       <c r="Q97" t="s"/>
@@ -9121,56 +9796,60 @@
         <v>0</v>
       </c>
       <c r="W97" t="s">
-        <v>783</v>
+        <v>879</v>
       </c>
       <c r="X97" t="s">
-        <v>784</v>
+        <v>880</v>
       </c>
       <c r="Y97" t="s">
-        <v>785</v>
+        <v>881</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>66007</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>1955</v>
+      </c>
+      <c r="C98" t="s">
+        <v>882</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>786</v>
+        <v>883</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>787</v>
+        <v>884</v>
       </c>
       <c r="J98" t="s">
-        <v>788</v>
+        <v>885</v>
       </c>
       <c r="K98" t="s">
-        <v>789</v>
+        <v>886</v>
       </c>
       <c r="L98" t="s">
-        <v>790</v>
+        <v>887</v>
       </c>
       <c r="M98" t="n">
         <v>5</v>
       </c>
       <c r="N98" t="s">
-        <v>724</v>
+        <v>812</v>
       </c>
       <c r="O98" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P98" t="s"/>
       <c r="Q98" t="s"/>
@@ -9188,13 +9867,13 @@
         <v>0</v>
       </c>
       <c r="W98" t="s">
-        <v>783</v>
+        <v>879</v>
       </c>
       <c r="X98" t="s">
-        <v>784</v>
+        <v>880</v>
       </c>
       <c r="Y98" t="s">
-        <v>791</v>
+        <v>888</v>
       </c>
     </row>
   </sheetData>
